--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="504" documentId="13_ncr:1_{56FB1392-CC1F-47CA-9DFA-79977B1336B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32BB61B5-02C6-4AB0-A62D-FBF66A3B6333}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="13_ncr:1_{56FB1392-CC1F-47CA-9DFA-79977B1336B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC129E17-9577-4AD0-A1E1-7CF9B94DCBA1}"/>
   <bookViews>
     <workbookView xWindow="5745" yWindow="60" windowWidth="14790" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$84</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$84</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -182,6 +182,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>水</t>
   </si>
   <si>
@@ -250,71 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成果物作成</t>
-  </si>
-  <si>
-    <t>レビュー</t>
-  </si>
-  <si>
-    <t>テスト仕様書</t>
-  </si>
-  <si>
-    <t>非機能要求</t>
-  </si>
-  <si>
-    <t>レビュー議事録作成</t>
-  </si>
-  <si>
-    <t>クラス図</t>
-  </si>
-  <si>
-    <t>シーケンス図</t>
-  </si>
-  <si>
-    <t>成果物作成</t>
-    <rPh sb="0" eb="3">
-      <t>セイカブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結合・ユニットテスト仕様書</t>
-  </si>
-  <si>
-    <t>レビュー指摘修正</t>
-  </si>
-  <si>
-    <t>反復計画書</t>
-    <rPh sb="0" eb="5">
-      <t>ハンプクケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WBSガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A.計画立案</t>
     <rPh sb="2" eb="4">
       <t>ケイカク</t>
@@ -325,7 +267,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>c</t>
+    <t>成果物作成</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書</t>
+    <rPh sb="0" eb="5">
+      <t>ハンプクケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>全員</t>
@@ -333,6 +293,27 @@
       <t>ゼンイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBSガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+  </si>
+  <si>
+    <t>レビュー指摘修正</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー議事録作成</t>
   </si>
   <si>
     <t>韓</t>
@@ -345,63 +326,10 @@
     <t>B.要求分析</t>
   </si>
   <si>
-    <t>ユースケース図記述</t>
+    <t>成果物作成</t>
   </si>
   <si>
     <t>ユースケース図</t>
-  </si>
-  <si>
-    <t>非機能要求一覧</t>
-  </si>
-  <si>
-    <t>C.分析</t>
-  </si>
-  <si>
-    <t>火</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー指摘修正＆内部レビュー</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>システムテスト仕様書</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>全員</t>
-  </si>
-  <si>
-    <t>D.設計</t>
-  </si>
-  <si>
-    <t>E.実装</t>
-  </si>
-  <si>
-    <t>F.テスト</t>
-  </si>
-  <si>
-    <t>G.振り返り</t>
-  </si>
-  <si>
-    <t>KPTによる振り返り、開発体験シート</t>
-  </si>
-  <si>
-    <t>着手</t>
-  </si>
-  <si>
-    <t>武井</t>
-    <rPh sb="0" eb="2">
-      <t>タケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>武井、沼崎</t>
@@ -414,14 +342,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>韓、武井</t>
-    <rPh sb="0" eb="1">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <t>ユースケース図記述</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+  </si>
+  <si>
+    <t>中根、城</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>システムテスト仕様書</t>
+  </si>
+  <si>
+    <t>城、韓</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>レビュー指摘修正＆内部レビュー</t>
+  </si>
+  <si>
+    <t>武井</t>
+    <rPh sb="0" eb="2">
       <t>タケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C.分析</t>
+  </si>
+  <si>
+    <t>クラス図</t>
   </si>
   <si>
     <t>中根、城、沼崎</t>
@@ -437,19 +395,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>韓</t>
+    <t>シーケンス図</t>
+  </si>
+  <si>
+    <t>韓、武井</t>
+    <rPh sb="0" eb="1">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.設計</t>
+  </si>
+  <si>
+    <t>結合・ユニットテスト仕様書</t>
+  </si>
+  <si>
+    <t>E.実装</t>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F.テスト</t>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
+  </si>
+  <si>
+    <t>全員</t>
+  </si>
+  <si>
+    <t>非機能要求</t>
+  </si>
+  <si>
+    <t>城、武井、沼崎</t>
   </si>
   <si>
     <t>中根</t>
   </si>
   <si>
-    <t>城、武井、沼崎</t>
+    <t>G.振り返り</t>
   </si>
   <si>
-    <t>中根、城</t>
+    <t>KPTによる振り返り、開発体験シート</t>
   </si>
   <si>
-    <t>城、韓</t>
+    <t>韓</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -509,19 +509,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="HGPｺﾞｼｯｸE"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="HGPｺﾞｼｯｸE"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="10"/>
       <name val="HGPｺﾞｼｯｸE"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1359,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,315 +1467,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1808,20 +1486,215 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1829,137 +1702,159 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1969,95 +1864,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2654,10 +2464,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P84" sqref="P84"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -2676,145 +2486,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="109" t="s">
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="132" t="s">
+      <c r="K1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="102">
+      <c r="L1" s="144">
         <v>43984</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102">
+      <c r="M1" s="145"/>
+      <c r="N1" s="144">
         <v>43985</v>
       </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="102">
+      <c r="O1" s="145"/>
+      <c r="P1" s="144">
         <v>43986</v>
       </c>
-      <c r="Q1" s="103"/>
+      <c r="Q1" s="145"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="104" t="s">
+      <c r="A2" s="160"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="104" t="s">
+      <c r="M2" s="169"/>
+      <c r="N2" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="169"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="106" t="s">
+      <c r="A3" s="160"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="106" t="s">
+      <c r="M3" s="171"/>
+      <c r="N3" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="107"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="171"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="134"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="150"/>
       <c r="L4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="O4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="139"/>
+      <c r="A5" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="39">
         <f>SUM(K23,K59,K77)</f>
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="L5" s="23">
         <v>15</v>
@@ -2823,7 +2633,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="17">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="O5" s="17">
         <f>SUM(O7,O23,O43,O59,O77,O85,O99)</f>
@@ -2831,7 +2641,7 @@
       </c>
       <c r="P5" s="17">
         <f>SUM(P7,P23,P43,P59,P77,P85,P99)</f>
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Q5" s="17">
         <f>SUM(Q7,Q23,Q43,Q59,Q77,Q85,Q99)</f>
@@ -2839,15 +2649,15 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="140"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2879,24 +2689,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="129"/>
+    <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1">
+      <c r="A7" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="14">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="L7" s="36">
         <v>15</v>
@@ -2906,7 +2716,7 @@
       </c>
       <c r="N7" s="26">
         <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O7" s="26">
         <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
@@ -2921,16 +2731,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="130"/>
+    <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="132"/>
       <c r="H8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2962,446 +2772,446 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="152">
+    <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="92">
         <v>1</v>
       </c>
-      <c r="B9" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="208"/>
-      <c r="H9" s="209" t="str">
+      <c r="B9" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
       </c>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
-      <c r="O9" s="212"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="212"/>
-    </row>
-    <row r="10" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="215" t="str">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
       </c>
-      <c r="I10" s="215"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-    </row>
-    <row r="11" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="152"/>
-      <c r="B11" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="149" t="str">
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+    </row>
+    <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
       </c>
-      <c r="I11" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="149">
+      <c r="I11" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="46">
         <v>5</v>
       </c>
-      <c r="K11" s="184">
+      <c r="K11" s="53">
         <f>SUM(L11:Q11)</f>
         <v>5</v>
       </c>
-      <c r="L11" s="150">
+      <c r="L11" s="47">
         <v>5</v>
       </c>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-    </row>
-    <row r="12" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="153"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="151" t="str">
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+    </row>
+    <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="93"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="184">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="53">
         <f>SUM(L12:Q12)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="147">
+      <c r="L12" s="44">
         <v>5</v>
       </c>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-    </row>
-    <row r="13" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="166"/>
-      <c r="B13" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="149" t="str">
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+    </row>
+    <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A13" s="83"/>
+      <c r="B13" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="95"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
       </c>
-      <c r="I13" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="149">
+      <c r="I13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="46">
         <v>5</v>
       </c>
-      <c r="K13" s="184">
+      <c r="K13" s="53">
         <f>SUM(L13:Q13)</f>
         <v>13.5</v>
       </c>
-      <c r="L13" s="150">
+      <c r="L13" s="47">
         <v>8.5</v>
       </c>
-      <c r="M13" s="146">
+      <c r="M13" s="43">
         <v>5</v>
       </c>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-    </row>
-    <row r="14" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="167"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="151" t="str">
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+    </row>
+    <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="84"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="184">
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="53">
         <f>SUM(L14:Q14)</f>
         <v>8.5</v>
       </c>
-      <c r="L14" s="147">
+      <c r="L14" s="44">
         <v>8.5</v>
       </c>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-    </row>
-    <row r="15" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="152">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A15" s="92">
         <v>2</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="60" t="str">
+        <f>IF(E15="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61">
+        <f>SUM(L15:Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+    </row>
+    <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="64" t="str">
+        <f>IF(E15="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="61">
+        <f>SUM(L16:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+    </row>
+    <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="209" t="str">
-        <f>IF(E15="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210">
-        <f>SUM(L15:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="211"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="212"/>
-      <c r="O15" s="212"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="212"/>
-    </row>
-    <row r="16" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="153"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="215" t="str">
-        <f>IF(E15="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="210">
-        <f>SUM(L16:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="217"/>
-      <c r="M16" s="218"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
-      <c r="P16" s="218"/>
-      <c r="Q16" s="218"/>
-    </row>
-    <row r="17" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="152"/>
-      <c r="B17" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="149" t="str">
+      <c r="C17" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
       </c>
-      <c r="I17" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="149">
+      <c r="I17" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="46">
         <v>5</v>
       </c>
-      <c r="K17" s="184">
+      <c r="K17" s="53">
         <f>SUM(L17:Q17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="150">
+      <c r="L17" s="47">
         <v>0.5</v>
       </c>
-      <c r="M17" s="146">
+      <c r="M17" s="43">
         <v>0.5</v>
       </c>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-    </row>
-    <row r="18" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="153"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="151" t="str">
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+    </row>
+    <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
       </c>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="184">
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="53">
         <f>SUM(L18:Q18)</f>
         <v>0.5</v>
       </c>
-      <c r="L18" s="147">
+      <c r="L18" s="44">
         <v>0.5</v>
       </c>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-    </row>
-    <row r="19" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="159"/>
-      <c r="B19" s="157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="149" t="str">
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+    </row>
+    <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="85"/>
+      <c r="B19" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="95"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
       </c>
-      <c r="I19" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="149">
+      <c r="I19" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="46">
         <v>5</v>
       </c>
-      <c r="K19" s="184">
+      <c r="K19" s="53">
         <f>SUM(L19:Q19)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="147">
+      <c r="L19" s="44">
         <v>0.5</v>
       </c>
-      <c r="M19" s="148">
+      <c r="M19" s="45">
         <v>0.5</v>
       </c>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-    </row>
-    <row r="20" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="160"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="151" t="str">
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+    </row>
+    <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A20" s="87"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
       </c>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="184">
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="53">
         <f>SUM(L20:Q20)</f>
         <v>0.5</v>
       </c>
-      <c r="L20" s="147">
+      <c r="L20" s="44">
         <v>0.5</v>
       </c>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-    </row>
-    <row r="21" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="159"/>
-      <c r="B21" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="149" t="str">
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+    </row>
+    <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="85"/>
+      <c r="B21" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="95"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
       </c>
-      <c r="I21" s="149" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="149">
+      <c r="I21" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="46">
         <v>1</v>
       </c>
-      <c r="K21" s="184">
+      <c r="K21" s="53">
         <f>SUM(L21:Q21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="150">
+      <c r="L21" s="47">
         <v>0.5</v>
       </c>
-      <c r="M21" s="146">
+      <c r="M21" s="43">
         <v>0.5</v>
       </c>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-    </row>
-    <row r="22" spans="1:17" s="145" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="151" t="str">
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+    </row>
+    <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="86"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
       </c>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="184">
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="53">
         <f>SUM(L22:Q22)</f>
         <v>0.5</v>
       </c>
-      <c r="L22" s="147">
+      <c r="L22" s="44">
         <v>0.5</v>
       </c>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1">
-      <c r="A23" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="129"/>
+      <c r="A23" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="L23" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
@@ -3413,7 +3223,7 @@
       </c>
       <c r="N23" s="26">
         <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O23" s="26">
         <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
@@ -3429,15 +3239,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="130"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="132"/>
       <c r="H24" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3471,76 +3281,76 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1">
-      <c r="A25" s="81">
+      <c r="A25" s="156">
         <v>1</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="209" t="str">
+      <c r="B25" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
       </c>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="212"/>
-      <c r="N25" s="212"/>
-      <c r="O25" s="212"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="212"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="215" t="str">
+      <c r="A26" s="157"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
       </c>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="235"/>
-      <c r="L26" s="217"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="91"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
       </c>
       <c r="I27" s="8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J27" s="8">
         <v>3</v>
       </c>
-      <c r="K27" s="184">
+      <c r="K27" s="53">
         <v>1.5</v>
       </c>
       <c r="M27" s="30">
@@ -3552,20 +3362,20 @@
       <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="84"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="134"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="185">
+      <c r="K28" s="54">
         <f>SUM(L28:Q28)</f>
         <v>0</v>
       </c>
@@ -3577,28 +3387,28 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1">
-      <c r="A29" s="166"/>
-      <c r="B29" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="156"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
       </c>
       <c r="I29" s="8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J29" s="8">
         <v>3</v>
       </c>
-      <c r="K29" s="184">
+      <c r="K29" s="53">
         <f>SUM(L29:Q29)</f>
         <v>1.5</v>
       </c>
@@ -3612,20 +3422,20 @@
       <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1">
-      <c r="A30" s="167"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="197"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
-      <c r="K30" s="185">
+      <c r="K30" s="54">
         <f>SUM(L30:Q30)</f>
         <v>0</v>
       </c>
@@ -3637,28 +3447,28 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1">
-      <c r="A31" s="166"/>
-      <c r="B31" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="149" t="str">
+      <c r="A31" s="83"/>
+      <c r="B31" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
       </c>
-      <c r="I31" s="149" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="149">
+      <c r="I31" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="46">
         <v>2</v>
       </c>
-      <c r="K31" s="184">
+      <c r="K31" s="53">
         <f>SUM(L31:Q31)</f>
         <v>1.5</v>
       </c>
@@ -3672,20 +3482,20 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1">
-      <c r="A32" s="167"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="151" t="str">
+      <c r="A32" s="84"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
       </c>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="185">
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="54">
         <f>SUM(L32:Q32)</f>
         <v>0</v>
       </c>
@@ -3697,28 +3507,28 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1">
-      <c r="A33" s="159"/>
-      <c r="B33" s="154" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="168"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="95"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
       </c>
       <c r="I33" s="8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J33" s="8">
         <v>3</v>
       </c>
-      <c r="K33" s="184">
+      <c r="K33" s="53">
         <f>SUM(L33:Q33)</f>
         <v>1.5</v>
       </c>
@@ -3732,20 +3542,20 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1">
-      <c r="A34" s="160"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="169"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="82"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
-      <c r="K34" s="185">
+      <c r="K34" s="54">
         <f>SUM(L34:Q34)</f>
         <v>0</v>
       </c>
@@ -3757,76 +3567,76 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1">
-      <c r="A35" s="81">
+      <c r="A35" s="156">
         <v>2</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="98"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="60" t="str">
+        <f>IF(E35="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+    </row>
+    <row r="36" spans="1:17" ht="12" customHeight="1">
+      <c r="A36" s="157"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="64" t="str">
+        <f>IF(E35="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+    </row>
+    <row r="37" spans="1:17" ht="12" customHeight="1">
+      <c r="A37" s="156"/>
+      <c r="B37" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="209" t="str">
-        <f>IF(E35="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="211"/>
-      <c r="M35" s="212"/>
-      <c r="N35" s="212"/>
-      <c r="O35" s="212"/>
-      <c r="P35" s="212"/>
-      <c r="Q35" s="212"/>
-    </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="215" t="str">
-        <f>IF(E35="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-      <c r="K36" s="216"/>
-      <c r="L36" s="217"/>
-      <c r="M36" s="218"/>
-      <c r="N36" s="218"/>
-      <c r="O36" s="218"/>
-      <c r="P36" s="218"/>
-      <c r="Q36" s="218"/>
-    </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1">
-      <c r="A37" s="81"/>
-      <c r="B37" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="173" t="str">
+      <c r="C37" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="95"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
       </c>
-      <c r="I37" s="173" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" s="173">
+      <c r="I37" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="51">
         <v>5</v>
       </c>
-      <c r="K37" s="184">
+      <c r="K37" s="53">
         <f>SUM(L37:Q37)</f>
         <v>2.5</v>
       </c>
@@ -3840,20 +3650,20 @@
       <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="177" t="str">
+      <c r="A38" s="157"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
       </c>
-      <c r="I38" s="177"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="185">
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="54">
         <f>SUM(L38:Q38)</f>
         <v>0</v>
       </c>
@@ -3865,28 +3675,28 @@
       <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="173" t="str">
+      <c r="A39" s="85"/>
+      <c r="B39" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="95"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
       </c>
-      <c r="I39" s="173" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="173">
+      <c r="I39" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="51">
         <v>5</v>
       </c>
-      <c r="K39" s="184">
+      <c r="K39" s="53">
         <v>5</v>
       </c>
       <c r="L39" s="37"/>
@@ -3899,20 +3709,20 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
-      <c r="A40" s="160"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="199"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="175" t="str">
+      <c r="A40" s="87"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
       </c>
-      <c r="I40" s="175"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="185"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="54"/>
       <c r="L40" s="37"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
@@ -3921,54 +3731,54 @@
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
-      <c r="A41" s="165"/>
-      <c r="B41" s="231" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="199"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="149" t="str">
+      <c r="A41" s="173"/>
+      <c r="B41" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="95"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
       </c>
-      <c r="I41" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="173">
+      <c r="I41" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="51">
         <v>1</v>
       </c>
-      <c r="K41" s="184">
+      <c r="K41" s="53">
         <f>SUM(L41:Q41)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L41" s="37"/>
       <c r="N41" s="29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1">
-      <c r="A42" s="165"/>
-      <c r="B42" s="231"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="151" t="str">
+      <c r="A42" s="173"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
       </c>
-      <c r="I42" s="151"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="185">
+      <c r="I42" s="48"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="54">
         <f>SUM(L42:Q42)</f>
         <v>0</v>
       </c>
@@ -3980,23 +3790,23 @@
       <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1">
-      <c r="A43" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="200"/>
+      <c r="A43" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="131"/>
       <c r="H43" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="14">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="L43" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
@@ -4008,7 +3818,7 @@
       </c>
       <c r="N43" s="26">
         <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O43" s="26">
         <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
@@ -4024,15 +3834,15 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="130"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="132"/>
       <c r="H44" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -4066,417 +3876,417 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1">
-      <c r="A45" s="152">
+      <c r="A45" s="92">
         <v>1</v>
       </c>
-      <c r="B45" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="209" t="str">
+      <c r="B45" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="98"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
       </c>
-      <c r="I45" s="209"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="233"/>
-      <c r="L45" s="234"/>
-      <c r="M45" s="212"/>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
-      <c r="P45" s="212"/>
-      <c r="Q45" s="212"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1">
-      <c r="A46" s="153"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="213"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
-      <c r="H46" s="215" t="str">
+      <c r="A46" s="93"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
       </c>
-      <c r="I46" s="215"/>
-      <c r="J46" s="215"/>
-      <c r="K46" s="235"/>
-      <c r="L46" s="217"/>
-      <c r="M46" s="218"/>
-      <c r="N46" s="218"/>
-      <c r="O46" s="218"/>
-      <c r="P46" s="218"/>
-      <c r="Q46" s="218"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1">
-      <c r="A47" s="152"/>
-      <c r="B47" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="173" t="str">
+      <c r="A47" s="92"/>
+      <c r="B47" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="95"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
       </c>
-      <c r="I47" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="J47" s="173">
+      <c r="I47" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="51">
         <v>3</v>
       </c>
-      <c r="K47" s="184">
+      <c r="K47" s="53">
         <f>SUM(L47:Q47)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L47" s="150"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146">
-        <v>4.5</v>
-      </c>
-      <c r="O47" s="146"/>
-      <c r="P47" s="146"/>
-      <c r="Q47" s="146"/>
+        <v>3.5</v>
+      </c>
+      <c r="L47" s="47"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43">
+        <v>3.5</v>
+      </c>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1">
-      <c r="A48" s="153"/>
-      <c r="B48" s="142"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="177" t="str">
+      <c r="A48" s="93"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
       </c>
-      <c r="I48" s="177"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="185">
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="54">
         <f>SUM(L48:Q48)</f>
         <v>0</v>
       </c>
-      <c r="L48" s="147"/>
-      <c r="M48" s="148"/>
-      <c r="N48" s="148"/>
-      <c r="O48" s="148"/>
-      <c r="P48" s="148"/>
-      <c r="Q48" s="148"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="166"/>
-      <c r="B49" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="192"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="173" t="str">
+      <c r="A49" s="83"/>
+      <c r="B49" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="95"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
       </c>
-      <c r="I49" s="173" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="173">
+      <c r="I49" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" s="51">
         <v>2</v>
       </c>
-      <c r="K49" s="184">
+      <c r="K49" s="53">
         <f>SUM(L49:Q49)</f>
         <v>3</v>
       </c>
-      <c r="L49" s="150"/>
-      <c r="M49" s="146"/>
-      <c r="N49" s="146">
+      <c r="L49" s="47"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43">
         <v>3</v>
       </c>
-      <c r="O49" s="146"/>
-      <c r="P49" s="146"/>
-      <c r="Q49" s="146"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="167"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="177"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
-      <c r="H50" s="177" t="str">
+      <c r="A50" s="84"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
       </c>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="185">
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="54">
         <f>SUM(L50:Q50)</f>
         <v>0</v>
       </c>
-      <c r="L50" s="147"/>
-      <c r="M50" s="148"/>
-      <c r="N50" s="148"/>
-      <c r="O50" s="148"/>
-      <c r="P50" s="148"/>
-      <c r="Q50" s="148"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="152">
+      <c r="A51" s="92">
         <v>2</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="98"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="60" t="str">
+        <f>IF(E51="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+    </row>
+    <row r="52" spans="1:23" ht="12" customHeight="1">
+      <c r="A52" s="93"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="64" t="str">
+        <f>IF(E51="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+    </row>
+    <row r="53" spans="1:23" ht="12" customHeight="1">
+      <c r="A53" s="92"/>
+      <c r="B53" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="209" t="str">
-        <f>IF(E51="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I51" s="209"/>
-      <c r="J51" s="209"/>
-      <c r="K51" s="210"/>
-      <c r="L51" s="211"/>
-      <c r="M51" s="212"/>
-      <c r="N51" s="212"/>
-      <c r="O51" s="212"/>
-      <c r="P51" s="212"/>
-      <c r="Q51" s="212"/>
-    </row>
-    <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="153"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="213"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="214"/>
-      <c r="H52" s="215" t="str">
-        <f>IF(E51="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I52" s="215"/>
-      <c r="J52" s="215"/>
-      <c r="K52" s="216"/>
-      <c r="L52" s="217"/>
-      <c r="M52" s="218"/>
-      <c r="N52" s="218"/>
-      <c r="O52" s="218"/>
-      <c r="P52" s="218"/>
-      <c r="Q52" s="218"/>
-    </row>
-    <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="152"/>
-      <c r="B53" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="86"/>
-      <c r="E53" s="190"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="149" t="str">
+      <c r="C53" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="95"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
       </c>
-      <c r="I53" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="149">
+      <c r="I53" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="46">
         <v>5</v>
       </c>
-      <c r="K53" s="184">
+      <c r="K53" s="53">
         <f>SUM(L53:Q53)</f>
         <v>2.5</v>
       </c>
-      <c r="L53" s="150"/>
-      <c r="M53" s="146"/>
-      <c r="N53" s="146">
+      <c r="L53" s="47"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43">
         <v>2.5</v>
       </c>
-      <c r="O53" s="146"/>
-      <c r="P53" s="146"/>
-      <c r="Q53" s="146"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1">
-      <c r="A54" s="153"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="151" t="str">
+      <c r="A54" s="93"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
       </c>
-      <c r="I54" s="151"/>
-      <c r="J54" s="151"/>
-      <c r="K54" s="185">
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="54">
         <f>SUM(L54:Q54)</f>
         <v>0</v>
       </c>
-      <c r="L54" s="147"/>
-      <c r="M54" s="148"/>
-      <c r="N54" s="148"/>
-      <c r="O54" s="148"/>
-      <c r="P54" s="148"/>
-      <c r="Q54" s="148"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="A55" s="152"/>
-      <c r="B55" s="157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="86"/>
-      <c r="E55" s="202"/>
-      <c r="F55" s="202"/>
-      <c r="G55" s="202"/>
-      <c r="H55" s="173" t="str">
+      <c r="A55" s="92"/>
+      <c r="B55" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="95"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
       </c>
-      <c r="I55" s="173" t="s">
+      <c r="I55" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="51">
+        <v>5</v>
+      </c>
+      <c r="K55" s="53"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+    </row>
+    <row r="56" spans="1:23" ht="12" customHeight="1">
+      <c r="A56" s="93"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="57" t="str">
+        <f>IF(E55="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+    </row>
+    <row r="57" spans="1:23" ht="12" customHeight="1">
+      <c r="A57" s="92"/>
+      <c r="B57" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="J55" s="173">
-        <v>5</v>
-      </c>
-      <c r="K55" s="184"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="148"/>
-      <c r="N55" s="148">
-        <v>2.5</v>
-      </c>
-      <c r="O55" s="148"/>
-      <c r="P55" s="148"/>
-      <c r="Q55" s="148"/>
-    </row>
-    <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="A56" s="153"/>
-      <c r="B56" s="158"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="202"/>
-      <c r="F56" s="202"/>
-      <c r="G56" s="202"/>
-      <c r="H56" s="177" t="str">
-        <f>IF(E55="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I56" s="177"/>
-      <c r="J56" s="177"/>
-      <c r="K56" s="185"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="148"/>
-      <c r="N56" s="148"/>
-      <c r="O56" s="148"/>
-      <c r="P56" s="148"/>
-      <c r="Q56" s="148"/>
-    </row>
-    <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="A57" s="152"/>
-      <c r="B57" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="202"/>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="173" t="str">
+      <c r="C57" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="95"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
       </c>
-      <c r="I57" s="173"/>
-      <c r="J57" s="173">
+      <c r="I57" s="51"/>
+      <c r="J57" s="51">
         <v>1</v>
       </c>
-      <c r="K57" s="184">
+      <c r="K57" s="53">
         <f>SUM(L57:Q57)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L57" s="147"/>
-      <c r="M57" s="148"/>
-      <c r="N57" s="148">
-        <v>0.5</v>
-      </c>
-      <c r="O57" s="148"/>
-      <c r="P57" s="148"/>
-      <c r="Q57" s="148"/>
-      <c r="R57" s="145"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
-      <c r="U57" s="145"/>
-      <c r="V57" s="145"/>
-      <c r="W57" s="145"/>
+        <v>0.25</v>
+      </c>
+      <c r="L57" s="44"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="A58" s="153"/>
-      <c r="B58" s="158"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="202"/>
-      <c r="F58" s="202"/>
-      <c r="G58" s="202"/>
-      <c r="H58" s="175" t="str">
+      <c r="A58" s="93"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
       </c>
-      <c r="I58" s="175"/>
-      <c r="J58" s="175"/>
-      <c r="K58" s="185">
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="54">
         <f>SUM(L58:Q58)</f>
         <v>0</v>
       </c>
-      <c r="L58" s="147"/>
-      <c r="M58" s="148"/>
-      <c r="N58" s="148"/>
-      <c r="O58" s="148"/>
-      <c r="P58" s="148"/>
-      <c r="Q58" s="148"/>
-      <c r="R58" s="145"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="145"/>
-      <c r="U58" s="145"/>
-      <c r="V58" s="145"/>
-      <c r="W58" s="145"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="A59" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="135"/>
+      <c r="A59" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="119"/>
       <c r="H59" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -4510,15 +4320,15 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="A60" s="97"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="136"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="120"/>
       <c r="H60" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -4552,76 +4362,76 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="A61" s="81">
+      <c r="A61" s="156">
         <v>1</v>
       </c>
-      <c r="B61" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="208"/>
-      <c r="H61" s="209" t="str">
+      <c r="B61" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="98"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
       </c>
-      <c r="I61" s="209"/>
-      <c r="J61" s="209"/>
-      <c r="K61" s="210"/>
-      <c r="L61" s="211"/>
-      <c r="M61" s="212"/>
-      <c r="N61" s="212"/>
-      <c r="O61" s="212"/>
-      <c r="P61" s="212"/>
-      <c r="Q61" s="212"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1">
-      <c r="A62" s="82"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="213"/>
-      <c r="F62" s="213"/>
-      <c r="G62" s="214"/>
-      <c r="H62" s="215" t="str">
+      <c r="A62" s="157"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
       </c>
-      <c r="I62" s="215"/>
-      <c r="J62" s="215"/>
-      <c r="K62" s="216"/>
-      <c r="L62" s="217"/>
-      <c r="M62" s="218"/>
-      <c r="N62" s="218"/>
-      <c r="O62" s="218"/>
-      <c r="P62" s="218"/>
-      <c r="Q62" s="218"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1">
-      <c r="A63" s="81"/>
-      <c r="B63" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="190"/>
-      <c r="F63" s="190"/>
-      <c r="G63" s="176"/>
-      <c r="H63" s="173" t="str">
+      <c r="A63" s="156"/>
+      <c r="B63" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="95"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
       </c>
-      <c r="I63" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="173">
+      <c r="I63" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="51">
         <v>3</v>
       </c>
-      <c r="K63" s="184">
+      <c r="K63" s="53">
         <f>SUM(L63:Q63)</f>
         <v>3</v>
       </c>
@@ -4635,20 +4445,20 @@
       <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="A64" s="82"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="191"/>
-      <c r="F64" s="191"/>
-      <c r="G64" s="174"/>
-      <c r="H64" s="177" t="str">
+      <c r="A64" s="157"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
       </c>
-      <c r="I64" s="177"/>
-      <c r="J64" s="177"/>
-      <c r="K64" s="185">
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="54">
         <f>SUM(L64:Q64)</f>
         <v>0</v>
       </c>
@@ -4660,28 +4470,28 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1">
-      <c r="A65" s="81"/>
-      <c r="B65" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="86"/>
-      <c r="E65" s="190"/>
-      <c r="F65" s="190"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="173" t="str">
+      <c r="A65" s="156"/>
+      <c r="B65" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="95"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
       </c>
-      <c r="I65" s="173" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" s="173">
+      <c r="I65" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="51">
         <v>2</v>
       </c>
-      <c r="K65" s="184">
+      <c r="K65" s="53">
         <f>SUM(L65:Q65)</f>
         <v>3</v>
       </c>
@@ -4695,20 +4505,20 @@
       <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1">
-      <c r="A66" s="82"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="191"/>
-      <c r="F66" s="191"/>
-      <c r="G66" s="174"/>
-      <c r="H66" s="177" t="str">
+      <c r="A66" s="157"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
       </c>
-      <c r="I66" s="177"/>
-      <c r="J66" s="177"/>
-      <c r="K66" s="185">
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="54">
         <f>SUM(L66:Q66)</f>
         <v>0</v>
       </c>
@@ -4720,28 +4530,28 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
-      <c r="A67" s="81"/>
-      <c r="B67" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="85" t="s">
+      <c r="A67" s="156"/>
+      <c r="B67" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="86"/>
-      <c r="E67" s="190"/>
-      <c r="F67" s="190"/>
-      <c r="G67" s="176"/>
-      <c r="H67" s="173" t="str">
+      <c r="C67" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="95"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
       </c>
-      <c r="I67" s="173" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" s="173">
+      <c r="I67" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="51">
         <v>5</v>
       </c>
-      <c r="K67" s="184">
+      <c r="K67" s="53">
         <f>SUM(L67:Q67)</f>
         <v>2.5</v>
       </c>
@@ -4755,20 +4565,20 @@
       <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
-      <c r="A68" s="82"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="191"/>
-      <c r="F68" s="191"/>
-      <c r="G68" s="174"/>
-      <c r="H68" s="177" t="str">
+      <c r="A68" s="157"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
       </c>
-      <c r="I68" s="177"/>
-      <c r="J68" s="177"/>
-      <c r="K68" s="185">
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="54">
         <f>SUM(L68:Q68)</f>
         <v>0</v>
       </c>
@@ -4780,76 +4590,76 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
-      <c r="A69" s="81">
+      <c r="A69" s="156">
         <v>2</v>
       </c>
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="98"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="60" t="str">
+        <f>IF(E69="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+    </row>
+    <row r="70" spans="1:17" ht="12" customHeight="1">
+      <c r="A70" s="157"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="64" t="str">
+        <f>IF(E69="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+    </row>
+    <row r="71" spans="1:17" ht="12" customHeight="1">
+      <c r="A71" s="156"/>
+      <c r="B71" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="92"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="207"/>
-      <c r="F69" s="207"/>
-      <c r="G69" s="208"/>
-      <c r="H69" s="209" t="str">
-        <f>IF(E69="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I69" s="209"/>
-      <c r="J69" s="209"/>
-      <c r="K69" s="210"/>
-      <c r="L69" s="211"/>
-      <c r="M69" s="212"/>
-      <c r="N69" s="212"/>
-      <c r="O69" s="212"/>
-      <c r="P69" s="212"/>
-      <c r="Q69" s="212"/>
-    </row>
-    <row r="70" spans="1:17" ht="12" customHeight="1">
-      <c r="A70" s="82"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="213"/>
-      <c r="F70" s="213"/>
-      <c r="G70" s="214"/>
-      <c r="H70" s="215" t="str">
-        <f>IF(E69="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I70" s="215"/>
-      <c r="J70" s="215"/>
-      <c r="K70" s="216"/>
-      <c r="L70" s="217"/>
-      <c r="M70" s="218"/>
-      <c r="N70" s="218"/>
-      <c r="O70" s="218"/>
-      <c r="P70" s="218"/>
-      <c r="Q70" s="218"/>
-    </row>
-    <row r="71" spans="1:17" ht="12" customHeight="1">
-      <c r="A71" s="81"/>
-      <c r="B71" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="86"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="91"/>
+      <c r="C71" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="95"/>
+      <c r="E71" s="177"/>
+      <c r="F71" s="177"/>
+      <c r="G71" s="133"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
       </c>
       <c r="I71" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J71" s="8">
         <v>5</v>
       </c>
-      <c r="K71" s="184">
+      <c r="K71" s="53">
         <f>SUM(L71:Q71)</f>
         <v>2.5</v>
       </c>
@@ -4863,20 +4673,20 @@
       <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1">
-      <c r="A72" s="82"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="84"/>
+      <c r="A72" s="157"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="178"/>
+      <c r="F72" s="178"/>
+      <c r="G72" s="134"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
       </c>
       <c r="I72" s="41"/>
       <c r="J72" s="41"/>
-      <c r="K72" s="185">
+      <c r="K72" s="54">
         <f>SUM(L72:Q72)</f>
         <v>0</v>
       </c>
@@ -4888,28 +4698,28 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1">
-      <c r="A73" s="159"/>
-      <c r="B73" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="92"/>
-      <c r="E73" s="202"/>
-      <c r="F73" s="202"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="173" t="str">
+      <c r="A73" s="85"/>
+      <c r="B73" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="98"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
       </c>
-      <c r="I73" s="173" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="173">
+      <c r="I73" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="51">
         <v>5</v>
       </c>
-      <c r="K73" s="184">
+      <c r="K73" s="53">
         <f>SUM(L73:Q73)</f>
         <v>3.5</v>
       </c>
@@ -4920,23 +4730,23 @@
         <v>3.5</v>
       </c>
       <c r="P73" s="28"/>
-      <c r="Q73" s="232"/>
+      <c r="Q73" s="68"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1">
-      <c r="A74" s="161"/>
-      <c r="B74" s="162"/>
-      <c r="C74" s="143"/>
-      <c r="D74" s="203"/>
-      <c r="E74" s="202"/>
-      <c r="F74" s="202"/>
-      <c r="G74" s="170"/>
-      <c r="H74" s="175" t="str">
+      <c r="A74" s="126"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
       </c>
-      <c r="I74" s="175"/>
-      <c r="J74" s="175"/>
-      <c r="K74" s="186"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="55"/>
       <c r="L74" s="37"/>
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
@@ -4945,26 +4755,26 @@
       <c r="Q74" s="29"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1">
-      <c r="A75" s="205"/>
-      <c r="B75" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="204"/>
-      <c r="E75" s="202"/>
-      <c r="F75" s="202"/>
-      <c r="G75" s="170"/>
-      <c r="H75" s="149" t="str">
+      <c r="A75" s="175"/>
+      <c r="B75" s="173" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="174"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
       </c>
-      <c r="I75" s="149"/>
-      <c r="J75" s="149">
+      <c r="I75" s="46"/>
+      <c r="J75" s="46">
         <v>1</v>
       </c>
-      <c r="K75" s="184">
+      <c r="K75" s="53">
         <f>SUM(L75:Q75)</f>
         <v>0.5</v>
       </c>
@@ -4978,42 +4788,42 @@
       <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1">
-      <c r="A76" s="206"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="202"/>
-      <c r="F76" s="202"/>
-      <c r="G76" s="170"/>
-      <c r="H76" s="151" t="str">
+      <c r="A76" s="176"/>
+      <c r="B76" s="173"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="174"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
       </c>
-      <c r="I76" s="151"/>
-      <c r="J76" s="151"/>
-      <c r="K76" s="185">
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="54">
         <f>SUM(L76:Q76)</f>
         <v>0</v>
       </c>
-      <c r="L76" s="163"/>
-      <c r="M76" s="164"/>
-      <c r="N76" s="164"/>
-      <c r="O76" s="164"/>
-      <c r="P76" s="164"/>
-      <c r="Q76" s="164"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1">
-      <c r="A77" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="135"/>
+      <c r="A77" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="119"/>
       <c r="H77" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -5039,7 +4849,7 @@
       </c>
       <c r="P77" s="32">
         <f>SUMPRODUCT((MOD(ROW(P$79:P$84),2)=1)*P$79:P$84)</f>
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Q77" s="32">
         <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
@@ -5047,15 +4857,15 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1">
-      <c r="A78" s="97"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="101"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="136"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="120"/>
       <c r="H78" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -5089,96 +4899,96 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1">
-      <c r="A79" s="81">
+      <c r="A79" s="156">
         <v>1</v>
       </c>
-      <c r="B79" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="92"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="207"/>
-      <c r="F79" s="207"/>
-      <c r="G79" s="208"/>
-      <c r="H79" s="209" t="str">
+      <c r="B79" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="98"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
       </c>
-      <c r="I79" s="209"/>
-      <c r="J79" s="209"/>
-      <c r="K79" s="210"/>
-      <c r="L79" s="211"/>
-      <c r="M79" s="212"/>
-      <c r="N79" s="212"/>
-      <c r="O79" s="212"/>
-      <c r="P79" s="212"/>
-      <c r="Q79" s="212"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1">
-      <c r="A80" s="82"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="213"/>
-      <c r="F80" s="213"/>
-      <c r="G80" s="214"/>
-      <c r="H80" s="215" t="str">
+      <c r="A80" s="157"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="103"/>
+      <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
       </c>
-      <c r="I80" s="215"/>
-      <c r="J80" s="215"/>
-      <c r="K80" s="216"/>
-      <c r="L80" s="217"/>
-      <c r="M80" s="218"/>
-      <c r="N80" s="218"/>
-      <c r="O80" s="218"/>
-      <c r="P80" s="218"/>
-      <c r="Q80" s="218"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="66"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1">
-      <c r="A81" s="81"/>
-      <c r="B81" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="86"/>
-      <c r="E81" s="190"/>
-      <c r="F81" s="190"/>
-      <c r="G81" s="91"/>
+      <c r="A81" s="156"/>
+      <c r="B81" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="95"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="133"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
       </c>
       <c r="I81" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J81" s="8">
         <v>5</v>
       </c>
       <c r="K81" s="9">
         <f>SUM(L81:Q81)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L81" s="30"/>
       <c r="M81" s="28"/>
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
       <c r="P81" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1">
-      <c r="A82" s="82"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="88"/>
-      <c r="E82" s="191"/>
-      <c r="F82" s="191"/>
-      <c r="G82" s="84"/>
+      <c r="A82" s="157"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="134"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5197,50 +5007,50 @@
       <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1">
-      <c r="A83" s="81"/>
-      <c r="B83" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="86"/>
-      <c r="E83" s="190"/>
-      <c r="F83" s="190"/>
-      <c r="G83" s="91"/>
+      <c r="A83" s="156"/>
+      <c r="B83" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="95"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="133"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
       </c>
       <c r="I83" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J83" s="8">
         <v>5</v>
       </c>
       <c r="K83" s="9">
         <f>SUM(L83:Q83)</f>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L83" s="30"/>
       <c r="M83" s="28"/>
       <c r="N83" s="28"/>
       <c r="O83" s="28"/>
       <c r="P83" s="28">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q83" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1">
-      <c r="A84" s="82"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="191"/>
-      <c r="F84" s="191"/>
-      <c r="G84" s="84"/>
+      <c r="A84" s="157"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="134"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5259,439 +5069,439 @@
       <c r="Q84" s="29"/>
     </row>
     <row r="85" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A85" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43" cm="1">
+      <c r="A85" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="21" cm="1">
         <f t="array" ref="K85">SUMPRODUCT((MOD(ROW(K$87:K$98),2)=0)*K$87:K$98)</f>
         <v>0</v>
       </c>
-      <c r="L85" s="44">
+      <c r="L85" s="31">
         <f>SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
-      <c r="M85" s="45">
+      <c r="M85" s="32">
         <f>SUMPRODUCT((MOD(ROW(M$79:M$84),2)=1)*M$79:M$84)</f>
         <v>0</v>
       </c>
-      <c r="N85" s="45">
+      <c r="N85" s="32">
         <f>SUMPRODUCT((MOD(ROW(N$79:N$84),2)=1)*N$79:N$84)</f>
         <v>0</v>
       </c>
-      <c r="O85" s="45">
+      <c r="O85" s="32">
         <f>SUMPRODUCT((MOD(ROW(O$79:O$84),2)=1)*O$79:O$84)</f>
         <v>0</v>
       </c>
-      <c r="P85" s="45" cm="1">
+      <c r="P85" s="32" cm="1">
         <f t="array" ref="P85">SUMPRODUCT((MOD(ROW(P$87:P$98),2)=1)*P$87:P$98)</f>
         <v>0</v>
       </c>
-      <c r="Q85" s="45" cm="1">
+      <c r="Q85" s="32" cm="1">
         <f t="array" ref="Q85">SUMPRODUCT((MOD(ROW(Q$87:Q$98),2)=1)*Q$87:Q$98)</f>
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="47" cm="1">
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="22" cm="1">
         <f t="array" ref="K86">SUMPRODUCT((MOD(ROW(K$87:K$98),2)=0)*K$87:K$98)</f>
         <v>0</v>
       </c>
-      <c r="L86" s="48">
+      <c r="L86" s="35">
         <f>SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
-      <c r="M86" s="49">
+      <c r="M86" s="34">
         <f>SUMPRODUCT((MOD(ROW(M$79:M$84),2)=0)*M$79:M$84)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="49">
+      <c r="N86" s="34">
         <f>SUMPRODUCT((MOD(ROW(N$79:N$84),2)=0)*N$79:N$84)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="49">
+      <c r="O86" s="34">
         <f>SUMPRODUCT((MOD(ROW(O$79:O$84),2)=0)*O$79:O$84)</f>
         <v>0</v>
       </c>
-      <c r="P86" s="49" cm="1">
+      <c r="P86" s="34" cm="1">
         <f t="array" ref="P86">SUMPRODUCT((MOD(ROW(P$87:P$98),2)=0)*P$87:P$98)</f>
         <v>0</v>
       </c>
-      <c r="Q86" s="49" cm="1">
+      <c r="Q86" s="34" cm="1">
         <f t="array" ref="Q86">SUMPRODUCT((MOD(ROW(Q$87:Q$98),2)=0)*Q$87:Q$98)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A87" s="58">
+      <c r="A87" s="92">
         <v>1</v>
       </c>
-      <c r="B87" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="219"/>
-      <c r="F87" s="219"/>
-      <c r="G87" s="220"/>
-      <c r="H87" s="221" t="str">
+      <c r="B87" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="98"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="100"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
       </c>
-      <c r="I87" s="221"/>
-      <c r="J87" s="221"/>
-      <c r="K87" s="222"/>
-      <c r="L87" s="223"/>
-      <c r="M87" s="224"/>
-      <c r="N87" s="224"/>
-      <c r="O87" s="224"/>
-      <c r="P87" s="224"/>
-      <c r="Q87" s="224"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="63"/>
+      <c r="N87" s="63"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="63"/>
+      <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A88" s="59"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="225"/>
-      <c r="F88" s="225"/>
-      <c r="G88" s="226"/>
-      <c r="H88" s="227" t="str">
+      <c r="A88" s="93"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
       </c>
-      <c r="I88" s="227"/>
-      <c r="J88" s="227"/>
-      <c r="K88" s="228"/>
-      <c r="L88" s="229"/>
-      <c r="M88" s="230"/>
-      <c r="N88" s="230"/>
-      <c r="O88" s="230"/>
-      <c r="P88" s="230"/>
-      <c r="Q88" s="230"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="66"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="67"/>
+      <c r="Q88" s="67"/>
     </row>
     <row r="89" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A89" s="58"/>
-      <c r="B89" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="194"/>
-      <c r="F89" s="194"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="54" t="str">
+      <c r="A89" s="92"/>
+      <c r="B89" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="95"/>
+      <c r="E89" s="104"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
       </c>
-      <c r="I89" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="J89" s="54">
+      <c r="I89" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" s="46">
         <v>5</v>
       </c>
-      <c r="K89" s="187">
+      <c r="K89" s="53">
         <f>SUM(L89:Q89)</f>
         <v>2.5</v>
       </c>
-      <c r="L89" s="50"/>
-      <c r="M89" s="51"/>
-      <c r="N89" s="51"/>
-      <c r="O89" s="51"/>
-      <c r="P89" s="51"/>
-      <c r="Q89" s="51">
+      <c r="L89" s="47"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A90" s="59"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="195"/>
-      <c r="F90" s="195"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="56" t="str">
+      <c r="A90" s="93"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
       </c>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="188">
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="54">
         <f>SUM(L90:Q90)</f>
         <v>0</v>
       </c>
-      <c r="L90" s="52"/>
-      <c r="M90" s="53"/>
-      <c r="N90" s="53"/>
-      <c r="O90" s="53"/>
-      <c r="P90" s="53"/>
-      <c r="Q90" s="53"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="45"/>
+      <c r="Q90" s="45"/>
     </row>
     <row r="91" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="194"/>
-      <c r="F91" s="194"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="54" t="str">
+      <c r="A91" s="92"/>
+      <c r="B91" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="95"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
       </c>
-      <c r="I91" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="J91" s="54">
+      <c r="I91" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91" s="46">
         <v>3</v>
       </c>
-      <c r="K91" s="187">
+      <c r="K91" s="53">
         <f>SUM(L91:Q91)</f>
         <v>1.5</v>
       </c>
-      <c r="L91" s="50"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="51"/>
-      <c r="O91" s="51"/>
-      <c r="P91" s="51"/>
-      <c r="Q91" s="51">
+      <c r="L91" s="47"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43">
         <v>1.5</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A92" s="59"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="195"/>
-      <c r="F92" s="195"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="56" t="str">
+      <c r="A92" s="93"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
       </c>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="189">
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="56">
         <f>SUM(L92:Q92)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="52"/>
-      <c r="M92" s="53"/>
-      <c r="N92" s="53"/>
-      <c r="O92" s="53"/>
-      <c r="P92" s="53"/>
-      <c r="Q92" s="53"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
     </row>
     <row r="93" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A93" s="58">
+      <c r="A93" s="92">
         <v>2</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="98"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="100"/>
+      <c r="F93" s="100"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="60" t="str">
+        <f>IF(E93="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+    </row>
+    <row r="94" spans="1:17" ht="10.5" customHeight="1">
+      <c r="A94" s="93"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="64" t="str">
+        <f>IF(E93="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="66"/>
+      <c r="M94" s="67"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="67"/>
+      <c r="Q94" s="67"/>
+    </row>
+    <row r="95" spans="1:17" ht="10.5" customHeight="1">
+      <c r="A95" s="92"/>
+      <c r="B95" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="219"/>
-      <c r="F93" s="219"/>
-      <c r="G93" s="220"/>
-      <c r="H93" s="221" t="str">
-        <f>IF(E93="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I93" s="221"/>
-      <c r="J93" s="221"/>
-      <c r="K93" s="222"/>
-      <c r="L93" s="223"/>
-      <c r="M93" s="224"/>
-      <c r="N93" s="224"/>
-      <c r="O93" s="224"/>
-      <c r="P93" s="224"/>
-      <c r="Q93" s="224"/>
-    </row>
-    <row r="94" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A94" s="59"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="225"/>
-      <c r="F94" s="225"/>
-      <c r="G94" s="226"/>
-      <c r="H94" s="227" t="str">
-        <f>IF(E93="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I94" s="227"/>
-      <c r="J94" s="227"/>
-      <c r="K94" s="228"/>
-      <c r="L94" s="229"/>
-      <c r="M94" s="230"/>
-      <c r="N94" s="230"/>
-      <c r="O94" s="230"/>
-      <c r="P94" s="230"/>
-      <c r="Q94" s="230"/>
-    </row>
-    <row r="95" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A95" s="58"/>
-      <c r="B95" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="182"/>
-      <c r="H95" s="180" t="str">
+      <c r="C95" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="95"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="106"/>
+      <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
       </c>
-      <c r="I95" s="180" t="s">
-        <v>49</v>
-      </c>
-      <c r="J95" s="180">
+      <c r="I95" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J95" s="51">
         <v>5</v>
       </c>
-      <c r="K95" s="187">
+      <c r="K95" s="53">
         <f>SUM(L95:Q95)</f>
         <v>2.5</v>
       </c>
-      <c r="L95" s="50"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="51"/>
-      <c r="O95" s="51"/>
-      <c r="P95" s="51"/>
-      <c r="Q95" s="51">
+      <c r="L95" s="47"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A96" s="59"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="181"/>
-      <c r="H96" s="183" t="str">
+      <c r="A96" s="93"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="107"/>
+      <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
       </c>
-      <c r="I96" s="183"/>
-      <c r="J96" s="183"/>
-      <c r="K96" s="188">
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="54">
         <f>SUM(L96:Q96)</f>
         <v>0</v>
       </c>
-      <c r="L96" s="52"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="53"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="62" t="s">
+      <c r="A97" s="92"/>
+      <c r="B97" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="54" t="str">
+      <c r="C97" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="95"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
       </c>
-      <c r="I97" s="54" t="s">
+      <c r="I97" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J97" s="54">
+      <c r="J97" s="46">
         <v>1</v>
       </c>
-      <c r="K97" s="55">
+      <c r="K97" s="9">
         <f>SUM(L97:Q97)</f>
         <v>0.5</v>
       </c>
-      <c r="L97" s="50"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="51"/>
-      <c r="O97" s="51"/>
-      <c r="P97" s="51"/>
-      <c r="Q97" s="51">
+      <c r="L97" s="47"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43">
         <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A98" s="59"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="56" t="str">
+      <c r="A98" s="93"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
       </c>
-      <c r="I98" s="56"/>
-      <c r="J98" s="56"/>
-      <c r="K98" s="57">
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="10">
         <f>SUM(L98:Q98)</f>
         <v>0</v>
       </c>
-      <c r="L98" s="52"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="45"/>
+      <c r="P98" s="45"/>
+      <c r="Q98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A99" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="95"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="100"/>
-      <c r="G99" s="135"/>
+      <c r="A99" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -5723,23 +5533,23 @@
         <f t="array" ref="Q99">SUMPRODUCT((MOD(ROW(Q$101:Q$110),2)=1)*Q$101:Q$110)</f>
         <v>5.5</v>
       </c>
-      <c r="R99" s="145"/>
-      <c r="S99" s="145"/>
-      <c r="T99" s="145"/>
-      <c r="U99" s="145"/>
-      <c r="V99" s="145"/>
-      <c r="W99" s="145"/>
+      <c r="R99" s="42"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="42"/>
+      <c r="U99" s="42"/>
+      <c r="V99" s="42"/>
+      <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A100" s="97"/>
-      <c r="B100" s="98"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="136"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="120"/>
       <c r="H100" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -5771,345 +5581,345 @@
         <f t="array" ref="Q100">SUMPRODUCT((MOD(ROW(Q$101:Q$110),2)=0)*Q$101:Q$110)</f>
         <v>0</v>
       </c>
-      <c r="R100" s="145"/>
-      <c r="S100" s="145"/>
-      <c r="T100" s="145"/>
-      <c r="U100" s="145"/>
-      <c r="V100" s="145"/>
-      <c r="W100" s="145"/>
+      <c r="R100" s="42"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="42"/>
+      <c r="V100" s="42"/>
+      <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A101" s="152">
+      <c r="A101" s="92">
         <v>1</v>
       </c>
-      <c r="B101" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="92"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="207"/>
-      <c r="F101" s="207"/>
-      <c r="G101" s="208"/>
-      <c r="H101" s="209" t="str">
+      <c r="B101" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="98"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="100"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
       </c>
-      <c r="I101" s="209"/>
-      <c r="J101" s="209"/>
-      <c r="K101" s="210"/>
-      <c r="L101" s="211"/>
-      <c r="M101" s="212"/>
-      <c r="N101" s="212"/>
-      <c r="O101" s="212"/>
-      <c r="P101" s="212"/>
-      <c r="Q101" s="212"/>
-      <c r="R101" s="145"/>
-      <c r="S101" s="145"/>
-      <c r="T101" s="145"/>
-      <c r="U101" s="145"/>
-      <c r="V101" s="145"/>
-      <c r="W101" s="145"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="63"/>
+      <c r="O101" s="63"/>
+      <c r="P101" s="63"/>
+      <c r="Q101" s="63"/>
+      <c r="R101" s="42"/>
+      <c r="S101" s="42"/>
+      <c r="T101" s="42"/>
+      <c r="U101" s="42"/>
+      <c r="V101" s="42"/>
+      <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A102" s="153"/>
-      <c r="B102" s="87"/>
-      <c r="C102" s="93"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="213"/>
-      <c r="F102" s="213"/>
-      <c r="G102" s="214"/>
-      <c r="H102" s="215" t="str">
+      <c r="A102" s="93"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
+      <c r="G102" s="103"/>
+      <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
       </c>
-      <c r="I102" s="215"/>
-      <c r="J102" s="215"/>
-      <c r="K102" s="216"/>
-      <c r="L102" s="217"/>
-      <c r="M102" s="218"/>
-      <c r="N102" s="218"/>
-      <c r="O102" s="218"/>
-      <c r="P102" s="218"/>
-      <c r="Q102" s="218"/>
-      <c r="R102" s="145"/>
-      <c r="S102" s="145"/>
-      <c r="T102" s="145"/>
-      <c r="U102" s="145"/>
-      <c r="V102" s="145"/>
-      <c r="W102" s="145"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="67"/>
+      <c r="N102" s="67"/>
+      <c r="O102" s="67"/>
+      <c r="P102" s="67"/>
+      <c r="Q102" s="67"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="42"/>
+      <c r="U102" s="42"/>
+      <c r="V102" s="42"/>
+      <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A103" s="152"/>
-      <c r="B103" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D103" s="86"/>
-      <c r="E103" s="190"/>
-      <c r="F103" s="190"/>
-      <c r="G103" s="176"/>
-      <c r="H103" s="173" t="str">
+      <c r="A103" s="92"/>
+      <c r="B103" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="95"/>
+      <c r="E103" s="104"/>
+      <c r="F103" s="104"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
       </c>
-      <c r="I103" s="173" t="s">
-        <v>49</v>
-      </c>
-      <c r="J103" s="173">
+      <c r="I103" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J103" s="51">
         <v>5</v>
       </c>
-      <c r="K103" s="184">
+      <c r="K103" s="53">
         <f>SUM(L103:Q103)</f>
         <v>2.5</v>
       </c>
-      <c r="L103" s="150"/>
-      <c r="M103" s="146"/>
-      <c r="N103" s="146"/>
-      <c r="O103" s="146"/>
-      <c r="P103" s="146"/>
-      <c r="Q103" s="146">
+      <c r="L103" s="47"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43">
         <v>2.5</v>
       </c>
-      <c r="R103" s="145"/>
-      <c r="S103" s="145"/>
-      <c r="T103" s="145"/>
-      <c r="U103" s="145"/>
-      <c r="V103" s="145"/>
-      <c r="W103" s="145"/>
+      <c r="R103" s="42"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="42"/>
+      <c r="V103" s="42"/>
+      <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A104" s="153"/>
-      <c r="B104" s="142"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="191"/>
-      <c r="F104" s="191"/>
-      <c r="G104" s="174"/>
-      <c r="H104" s="177" t="str">
+      <c r="A104" s="93"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
       </c>
-      <c r="I104" s="177"/>
-      <c r="J104" s="177"/>
-      <c r="K104" s="185">
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="54">
         <f>SUM(L104:Q104)</f>
         <v>0</v>
       </c>
-      <c r="L104" s="147"/>
-      <c r="M104" s="148"/>
-      <c r="N104" s="148"/>
-      <c r="O104" s="148"/>
-      <c r="P104" s="148"/>
-      <c r="Q104" s="148"/>
-      <c r="R104" s="145"/>
-      <c r="S104" s="145"/>
-      <c r="T104" s="145"/>
-      <c r="U104" s="145"/>
-      <c r="V104" s="145"/>
-      <c r="W104" s="145"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="45"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
+      <c r="Q104" s="45"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="42"/>
+      <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A105" s="152">
+      <c r="A105" s="92">
         <v>2</v>
       </c>
-      <c r="B105" s="85" t="s">
+      <c r="B105" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="98"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="100"/>
+      <c r="G105" s="102"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="63"/>
+      <c r="N105" s="63"/>
+      <c r="O105" s="63"/>
+      <c r="P105" s="63"/>
+      <c r="Q105" s="63"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="42"/>
+      <c r="U105" s="42"/>
+      <c r="V105" s="42"/>
+      <c r="W105" s="42"/>
+    </row>
+    <row r="106" spans="1:23" ht="10.5" customHeight="1">
+      <c r="A106" s="93"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="64" t="str">
+        <f>IF(E105="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="65"/>
+      <c r="L106" s="66"/>
+      <c r="M106" s="67"/>
+      <c r="N106" s="67"/>
+      <c r="O106" s="67"/>
+      <c r="P106" s="67"/>
+      <c r="Q106" s="67"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="42"/>
+    </row>
+    <row r="107" spans="1:23" ht="10.5" customHeight="1">
+      <c r="A107" s="92"/>
+      <c r="B107" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="92"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="207"/>
-      <c r="F105" s="207"/>
-      <c r="G105" s="208"/>
-      <c r="H105" s="209"/>
-      <c r="I105" s="209"/>
-      <c r="J105" s="209"/>
-      <c r="K105" s="210"/>
-      <c r="L105" s="211"/>
-      <c r="M105" s="212"/>
-      <c r="N105" s="212"/>
-      <c r="O105" s="212"/>
-      <c r="P105" s="212"/>
-      <c r="Q105" s="212"/>
-      <c r="R105" s="145"/>
-      <c r="S105" s="145"/>
-      <c r="T105" s="145"/>
-      <c r="U105" s="145"/>
-      <c r="V105" s="145"/>
-      <c r="W105" s="145"/>
-    </row>
-    <row r="106" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A106" s="153"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="93"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="213"/>
-      <c r="F106" s="213"/>
-      <c r="G106" s="214"/>
-      <c r="H106" s="215" t="str">
-        <f>IF(E105="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I106" s="215"/>
-      <c r="J106" s="215"/>
-      <c r="K106" s="216"/>
-      <c r="L106" s="217"/>
-      <c r="M106" s="218"/>
-      <c r="N106" s="218"/>
-      <c r="O106" s="218"/>
-      <c r="P106" s="218"/>
-      <c r="Q106" s="218"/>
-      <c r="R106" s="145"/>
-      <c r="S106" s="145"/>
-      <c r="T106" s="145"/>
-      <c r="U106" s="145"/>
-      <c r="V106" s="145"/>
-      <c r="W106" s="145"/>
-    </row>
-    <row r="107" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A107" s="152"/>
-      <c r="B107" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="86"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="154"/>
-      <c r="G107" s="156"/>
-      <c r="H107" s="149" t="str">
+      <c r="C107" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="95"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
       </c>
-      <c r="I107" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="J107" s="149">
+      <c r="I107" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J107" s="46">
         <v>5</v>
       </c>
       <c r="K107" s="9">
         <f>SUM(L107:Q107)</f>
         <v>2.5</v>
       </c>
-      <c r="L107" s="150"/>
-      <c r="M107" s="146"/>
-      <c r="N107" s="146"/>
-      <c r="O107" s="146"/>
-      <c r="P107" s="146"/>
-      <c r="Q107" s="146">
+      <c r="L107" s="47"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="43">
         <v>2.5</v>
       </c>
-      <c r="R107" s="145"/>
-      <c r="S107" s="145"/>
-      <c r="T107" s="145"/>
-      <c r="U107" s="145"/>
-      <c r="V107" s="145"/>
-      <c r="W107" s="145"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="42"/>
+      <c r="U107" s="42"/>
+      <c r="V107" s="42"/>
+      <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A108" s="153"/>
-      <c r="B108" s="142"/>
-      <c r="C108" s="87"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="155"/>
-      <c r="F108" s="155"/>
-      <c r="G108" s="142"/>
-      <c r="H108" s="151" t="str">
+      <c r="A108" s="93"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
       </c>
-      <c r="I108" s="151"/>
-      <c r="J108" s="151"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
       <c r="K108" s="10">
         <f>SUM(L108:Q108)</f>
         <v>0</v>
       </c>
-      <c r="L108" s="147"/>
-      <c r="M108" s="148"/>
-      <c r="N108" s="148"/>
-      <c r="O108" s="148"/>
-      <c r="P108" s="148"/>
-      <c r="Q108" s="148"/>
-      <c r="R108" s="145"/>
-      <c r="S108" s="145"/>
-      <c r="T108" s="145"/>
-      <c r="U108" s="145"/>
-      <c r="V108" s="145"/>
-      <c r="W108" s="145"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="45"/>
+      <c r="O108" s="45"/>
+      <c r="P108" s="45"/>
+      <c r="Q108" s="45"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="42"/>
+      <c r="U108" s="42"/>
+      <c r="V108" s="42"/>
+      <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A109" s="152"/>
-      <c r="B109" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="85" t="s">
+      <c r="A109" s="92"/>
+      <c r="B109" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="86"/>
-      <c r="E109" s="154"/>
-      <c r="F109" s="154"/>
-      <c r="G109" s="156"/>
-      <c r="H109" s="149" t="str">
+      <c r="C109" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="95"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
       </c>
-      <c r="I109" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="J109" s="149">
+      <c r="I109" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="J109" s="46">
         <v>1</v>
       </c>
       <c r="K109" s="9">
         <f>SUM(L109:Q109)</f>
         <v>0.5</v>
       </c>
-      <c r="L109" s="150"/>
-      <c r="M109" s="146"/>
-      <c r="N109" s="146"/>
-      <c r="O109" s="146"/>
-      <c r="P109" s="146"/>
-      <c r="Q109" s="146">
+      <c r="L109" s="47"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+      <c r="Q109" s="43">
         <v>0.5</v>
       </c>
-      <c r="R109" s="145"/>
-      <c r="S109" s="145"/>
-      <c r="T109" s="145"/>
-      <c r="U109" s="145"/>
-      <c r="V109" s="145"/>
-      <c r="W109" s="145"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="42"/>
+      <c r="V109" s="42"/>
+      <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A110" s="153"/>
-      <c r="B110" s="142"/>
-      <c r="C110" s="87"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="155"/>
-      <c r="F110" s="155"/>
-      <c r="G110" s="142"/>
-      <c r="H110" s="151" t="str">
+      <c r="A110" s="93"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="75"/>
+      <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
       </c>
-      <c r="I110" s="151"/>
-      <c r="J110" s="151"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
       <c r="K110" s="10">
         <f>SUM(L110:Q110)</f>
         <v>0</v>
       </c>
-      <c r="L110" s="147"/>
-      <c r="M110" s="148"/>
-      <c r="N110" s="148"/>
-      <c r="O110" s="148"/>
-      <c r="P110" s="148"/>
-      <c r="Q110" s="148"/>
-      <c r="R110" s="145"/>
-      <c r="S110" s="145"/>
-      <c r="T110" s="145"/>
-      <c r="U110" s="145"/>
-      <c r="V110" s="145"/>
-      <c r="W110" s="145"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
+      <c r="Q110" s="45"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="42"/>
+      <c r="U110" s="42"/>
+      <c r="V110" s="42"/>
+      <c r="W110" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K84" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -6118,65 +5928,210 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="294">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="E99:E100"/>
     <mergeCell ref="F99:F100"/>
@@ -6201,217 +6156,72 @@
     <mergeCell ref="F53:F54"/>
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G49:G50"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:D14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28:Q28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41">
@@ -6501,9 +6311,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6691,45 +6504,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25BAD24-9659-4072-A41A-8AC80DB45F78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25BAD24-9659-4072-A41A-8AC80DB45F78}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}"/>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="511" documentId="13_ncr:1_{56FB1392-CC1F-47CA-9DFA-79977B1336B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC129E17-9577-4AD0-A1E1-7CF9B94DCBA1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4246BCD0-61C0-4F96-B20E-69D42945540F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="60" windowWidth="14790" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -54,14 +54,12 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$84</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$84</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,14 +94,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -456,11 +454,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1346,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,15 +1554,306 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1576,299 +1866,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2464,13 +2466,13 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P84" sqref="P84"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2485,109 +2487,109 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A1" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="135" t="s">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="151" t="s">
+      <c r="G1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="144">
+      <c r="L1" s="117">
         <v>43984</v>
       </c>
-      <c r="M1" s="145"/>
-      <c r="N1" s="144">
+      <c r="M1" s="118"/>
+      <c r="N1" s="117">
         <v>43985</v>
       </c>
-      <c r="O1" s="145"/>
-      <c r="P1" s="144">
+      <c r="O1" s="118"/>
+      <c r="P1" s="117">
         <v>43986</v>
       </c>
-      <c r="Q1" s="145"/>
-    </row>
-    <row r="2" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="168" t="s">
+      <c r="Q1" s="118"/>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="169"/>
-      <c r="N2" s="168" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="169"/>
-      <c r="P2" s="168" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="169"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="172" t="s">
+      <c r="Q2" s="116"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="171"/>
-      <c r="N3" s="170" t="s">
+      <c r="M3" s="120"/>
+      <c r="N3" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="171"/>
-      <c r="P3" s="170" t="s">
+      <c r="O3" s="120"/>
+      <c r="P3" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="171"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="150"/>
+      <c r="Q3" s="120"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="152"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2607,16 +2609,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="162" t="s">
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="140"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2648,14 +2650,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="165"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="141"/>
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2689,16 +2691,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="127" t="s">
+    <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2731,14 +2733,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="132"/>
+    <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2772,20 +2774,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="92">
+    <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="102"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2800,14 +2802,14 @@
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
     </row>
-    <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="103"/>
+    <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="75"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2822,18 +2824,18 @@
       <c r="P10" s="67"/>
       <c r="Q10" s="67"/>
     </row>
-    <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="74" t="s">
+    <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="74"/>
+      <c r="B11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2845,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="53">
-        <f>SUM(L11:Q11)</f>
+        <f t="shared" ref="K11:K22" si="0">SUM(L11:Q11)</f>
         <v>5</v>
       </c>
       <c r="L11" s="47">
@@ -2857,14 +2859,14 @@
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="93"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="75"/>
+    <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="75"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -2872,7 +2874,7 @@
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
       <c r="K12" s="53">
-        <f>SUM(L12:Q12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L12" s="44">
@@ -2884,18 +2886,18 @@
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
     </row>
-    <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="74" t="s">
+    <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="164"/>
+      <c r="B13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="58"/>
       <c r="F13" s="58"/>
-      <c r="G13" s="81"/>
+      <c r="G13" s="169"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2907,7 +2909,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="53">
-        <f>SUM(L13:Q13)</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="L13" s="47">
@@ -2921,14 +2923,14 @@
       <c r="P13" s="43"/>
       <c r="Q13" s="43"/>
     </row>
-    <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
+    <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="165"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="82"/>
+      <c r="G14" s="171"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -2936,30 +2938,32 @@
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="53">
-        <f>SUM(L14:Q14)</f>
-        <v>8.5</v>
+        <f t="shared" si="0"/>
+        <v>13.5</v>
       </c>
       <c r="L14" s="44">
         <v>8.5</v>
       </c>
-      <c r="M14" s="45"/>
+      <c r="M14" s="45">
+        <v>5</v>
+      </c>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
     </row>
-    <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="92">
+    <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="74">
         <v>2</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="102"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2967,7 +2971,7 @@
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="61">
-        <f>SUM(L15:Q15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="62"/>
@@ -2977,14 +2981,14 @@
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
     </row>
-    <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="103"/>
+    <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="75"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2992,7 +2996,7 @@
       <c r="I16" s="64"/>
       <c r="J16" s="64"/>
       <c r="K16" s="61">
-        <f>SUM(L16:Q16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="66"/>
@@ -3002,18 +3006,18 @@
       <c r="P16" s="67"/>
       <c r="Q16" s="67"/>
     </row>
-    <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="74" t="s">
+    <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="74"/>
+      <c r="B17" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="76"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3025,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="53">
-        <f>SUM(L17:Q17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L17" s="47">
@@ -3039,14 +3043,14 @@
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
     </row>
-    <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="75"/>
+    <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3054,30 +3058,32 @@
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
       <c r="K18" s="53">
-        <f>SUM(L18:Q18)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L18" s="44">
         <v>0.5</v>
       </c>
-      <c r="M18" s="45"/>
+      <c r="M18" s="45">
+        <v>0.5</v>
+      </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
     </row>
-    <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="121" t="s">
+    <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="156"/>
+      <c r="B19" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
-      <c r="G19" s="88"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3089,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="53">
-        <f>SUM(L19:Q19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L19" s="44">
@@ -3103,14 +3109,14 @@
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
     </row>
-    <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="87"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
+    <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="166"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="91"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3118,30 +3124,32 @@
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
       <c r="K20" s="53">
-        <f>SUM(L20:Q20)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L20" s="44">
         <v>0.5</v>
       </c>
-      <c r="M20" s="45"/>
+      <c r="M20" s="45">
+        <v>0.5</v>
+      </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
     </row>
-    <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="74" t="s">
+    <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="156"/>
+      <c r="B21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="81"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="169"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3153,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="53">
-        <f>SUM(L21:Q21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L21" s="47">
@@ -3167,14 +3175,14 @@
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
     </row>
-    <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A22" s="86"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
+    <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="167"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="170"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3182,116 +3190,118 @@
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
       <c r="K22" s="53">
-        <f>SUM(L22:Q22)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L22" s="44">
         <v>0.5</v>
       </c>
-      <c r="M22" s="45"/>
+      <c r="M22" s="45">
+        <v>0.5</v>
+      </c>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
     </row>
-    <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1">
-      <c r="A23" s="127" t="s">
+    <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="155"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="143"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <f t="shared" ref="K23:Q23" si="1">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>13.75</v>
       </c>
       <c r="L23" s="36">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="26">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=1)*M$25:M$42)</f>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="N23" s="26">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="O23" s="26">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P23" s="26">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="26">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=1)*Q$25:Q$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="12" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="132"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="98"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f t="shared" ref="K24:Q24" si="2">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>0</v>
       </c>
       <c r="L24" s="35">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="27">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=0)*M$25:M$42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24" s="27">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O24" s="27">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=0)*O$25:O$42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P24" s="27">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q24" s="27">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=0)*Q$25:Q$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="12" customHeight="1">
-      <c r="A25" s="156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="109">
         <v>1</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="102"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3306,14 +3316,14 @@
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
     </row>
-    <row r="26" spans="1:17" ht="12" customHeight="1">
-      <c r="A26" s="157"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="103"/>
+    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="110"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3328,18 +3338,18 @@
       <c r="P26" s="67"/>
       <c r="Q26" s="67"/>
     </row>
-    <row r="27" spans="1:17" ht="12" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="158" t="s">
+    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="109"/>
+      <c r="B27" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="133"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3361,14 +3371,14 @@
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
     </row>
-    <row r="28" spans="1:17" ht="12" customHeight="1">
-      <c r="A28" s="157"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="134"/>
+    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="110"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -3376,28 +3386,30 @@
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
       <c r="K28" s="54">
-        <f>SUM(L28:Q28)</f>
+        <f t="shared" ref="K28:K34" si="3">SUM(L28:Q28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="37"/>
-      <c r="M28" s="29"/>
+      <c r="M28" s="179">
+        <v>0</v>
+      </c>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
     </row>
-    <row r="29" spans="1:17" ht="12" customHeight="1">
-      <c r="A29" s="83"/>
-      <c r="B29" s="74" t="s">
+    <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="164"/>
+      <c r="B29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="95"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
-      <c r="G29" s="76"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3409,7 +3421,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="53">
-        <f>SUM(L29:Q29)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="L29" s="30"/>
@@ -3421,14 +3433,14 @@
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1">
-      <c r="A30" s="84"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="165"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
-      <c r="G30" s="77"/>
+      <c r="G30" s="174"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -3436,28 +3448,30 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="54">
-        <f>SUM(L30:Q30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30" s="37"/>
-      <c r="M30" s="29"/>
+      <c r="M30" s="29">
+        <v>0</v>
+      </c>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
     </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1">
-      <c r="A31" s="83"/>
-      <c r="B31" s="74" t="s">
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="164"/>
+      <c r="B31" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
-      <c r="G31" s="74"/>
+      <c r="G31" s="76"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3469,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="53">
-        <f>SUM(L31:Q31)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="L31" s="37"/>
@@ -3481,14 +3495,14 @@
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
     </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
+    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="165"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
-      <c r="G32" s="75"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -3496,28 +3510,30 @@
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
       <c r="K32" s="54">
-        <f>SUM(L32:Q32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L32" s="37"/>
-      <c r="M32" s="29"/>
+      <c r="M32" s="29">
+        <v>0</v>
+      </c>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
     </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="88" t="s">
+    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="156"/>
+      <c r="B33" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="95"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
-      <c r="G33" s="81"/>
+      <c r="G33" s="169"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3529,7 +3545,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="53">
-        <f>SUM(L33:Q33)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="L33" s="30"/>
@@ -3541,14 +3557,14 @@
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
     </row>
-    <row r="34" spans="1:17" ht="12" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
+    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="166"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-      <c r="G34" s="82"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -3556,7 +3572,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
       <c r="K34" s="54">
-        <f>SUM(L34:Q34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L34" s="37"/>
@@ -3566,18 +3582,18 @@
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
     </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1">
-      <c r="A35" s="156">
+    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="109">
         <v>2</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="102"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="89"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3592,14 +3608,14 @@
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
     </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1">
-      <c r="A36" s="157"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="103"/>
+    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="110"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3614,18 +3630,18 @@
       <c r="P36" s="67"/>
       <c r="Q36" s="67"/>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1">
-      <c r="A37" s="156"/>
-      <c r="B37" s="158" t="s">
+    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="109"/>
+      <c r="B37" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="106"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3649,14 +3665,14 @@
       <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
     </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1">
-      <c r="A38" s="157"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="107"/>
+    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="110"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="92"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3674,18 +3690,18 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1">
-      <c r="A39" s="85"/>
-      <c r="B39" s="74" t="s">
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="156"/>
+      <c r="B39" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="95"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3708,14 +3724,14 @@
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
     </row>
-    <row r="40" spans="1:17" ht="12" customHeight="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="79"/>
+    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="166"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -3730,18 +3746,18 @@
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
     </row>
-    <row r="41" spans="1:17" ht="12" customHeight="1">
-      <c r="A41" s="173"/>
-      <c r="B41" s="146" t="s">
+    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="105"/>
+      <c r="B41" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="177"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3764,14 +3780,14 @@
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
     </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1">
-      <c r="A42" s="173"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="80"/>
+    <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="105"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="177"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -3789,104 +3805,104 @@
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
     </row>
-    <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1">
-      <c r="A43" s="127" t="s">
+    <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="131"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="159"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="14">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <f t="shared" ref="K43:Q43" si="4">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>13.75</v>
       </c>
       <c r="L43" s="36">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M43" s="26">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=1)*M$25:M$42)</f>
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
       <c r="N43" s="26">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="O43" s="26">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43" s="26">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q43" s="26">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=1)*Q$25:Q$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="12" customHeight="1">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="132"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="144"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f t="shared" ref="K44:Q44" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>0</v>
       </c>
       <c r="L44" s="35">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M44" s="27">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=0)*M$25:M$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N44" s="27">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" s="27">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=0)*O$25:O$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P44" s="27">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q44" s="27">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=0)*Q$25:Q$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="12" customHeight="1">
-      <c r="A45" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="74">
         <v>1</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="102"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3901,14 +3917,14 @@
       <c r="P45" s="63"/>
       <c r="Q45" s="63"/>
     </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1">
-      <c r="A46" s="93"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="103"/>
+    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="75"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3923,18 +3939,18 @@
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
     </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="74" t="s">
+    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="74"/>
+      <c r="B47" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="106"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="91"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3958,14 +3974,14 @@
       <c r="P47" s="43"/>
       <c r="Q47" s="43"/>
     </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1">
-      <c r="A48" s="93"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="107"/>
+    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="75"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -3983,18 +3999,18 @@
       <c r="P48" s="45"/>
       <c r="Q48" s="45"/>
     </row>
-    <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="83"/>
-      <c r="B49" s="74" t="s">
+    <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="164"/>
+      <c r="B49" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="95"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
-      <c r="G49" s="109"/>
+      <c r="G49" s="172"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4018,14 +4034,14 @@
       <c r="P49" s="43"/>
       <c r="Q49" s="43"/>
     </row>
-    <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="97"/>
+    <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="165"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
-      <c r="G50" s="110"/>
+      <c r="G50" s="173"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4043,18 +4059,18 @@
       <c r="P50" s="45"/>
       <c r="Q50" s="45"/>
     </row>
-    <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="92">
+    <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="74">
         <v>2</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="102"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="89"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4069,14 +4085,14 @@
       <c r="P51" s="63"/>
       <c r="Q51" s="63"/>
     </row>
-    <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="93"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="103"/>
+    <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="75"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4091,18 +4107,18 @@
       <c r="P52" s="67"/>
       <c r="Q52" s="67"/>
     </row>
-    <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="92"/>
-      <c r="B53" s="74" t="s">
+    <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="74"/>
+      <c r="B53" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="95"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="76"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4126,14 +4142,14 @@
       <c r="P53" s="43"/>
       <c r="Q53" s="43"/>
     </row>
-    <row r="54" spans="1:23" ht="12" customHeight="1">
-      <c r="A54" s="93"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="75"/>
+    <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="75"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="77"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4151,18 +4167,18 @@
       <c r="P54" s="45"/>
       <c r="Q54" s="45"/>
     </row>
-    <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="A55" s="92"/>
-      <c r="B55" s="121" t="s">
+    <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="74"/>
+      <c r="B55" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="94" t="s">
+      <c r="C55" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="95"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4183,14 +4199,14 @@
       <c r="P55" s="45"/>
       <c r="Q55" s="45"/>
     </row>
-    <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="A56" s="93"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
+    <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="75"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4205,18 +4221,18 @@
       <c r="P56" s="45"/>
       <c r="Q56" s="45"/>
     </row>
-    <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="A57" s="92"/>
-      <c r="B57" s="121" t="s">
+    <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="74"/>
+      <c r="B57" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="94" t="s">
+      <c r="C57" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="95"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4244,14 +4260,14 @@
       <c r="V57" s="42"/>
       <c r="W57" s="42"/>
     </row>
-    <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="A58" s="93"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
+    <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="75"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4275,104 +4291,104 @@
       <c r="V58" s="42"/>
       <c r="W58" s="42"/>
     </row>
-    <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="A59" s="111" t="s">
+    <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="119"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="103"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="21">
-        <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
+        <f t="shared" ref="K59:Q59" si="6">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
         <v>15</v>
       </c>
       <c r="L59" s="31">
-        <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M59" s="32">
-        <f>SUMPRODUCT((MOD(ROW(M$61:M$76),2)=1)*M$61:M$76)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N59" s="32">
-        <f>SUMPRODUCT((MOD(ROW(N$61:N$76),2)=1)*N$61:N$76)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O59" s="32">
-        <f>SUMPRODUCT((MOD(ROW(O$61:O$76),2)=1)*O$61:O$76)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="P59" s="32">
-        <f>SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q59" s="32">
-        <f>SUMPRODUCT((MOD(ROW(Q$61:Q$76),2)=1)*Q$61:Q$76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="120"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="104"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
+        <f t="shared" ref="K60:Q60" si="7">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
         <v>0</v>
       </c>
       <c r="L60" s="38">
-        <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M60" s="33">
-        <f>SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N60" s="33">
-        <f>SUMPRODUCT((MOD(ROW(N$61:N$76),2)=0)*N$61:N$76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O60" s="33">
-        <f>SUMPRODUCT((MOD(ROW(O$61:O$76),2)=0)*O$61:O$76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P60" s="33">
-        <f>SUMPRODUCT((MOD(ROW(P$61:P$76),2)=0)*P$61:P$76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q60" s="33">
-        <f>SUMPRODUCT((MOD(ROW(Q$61:Q$76),2)=0)*Q$61:Q$76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="A61" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="109">
         <v>1</v>
       </c>
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="102"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="89"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4387,14 +4403,14 @@
       <c r="P61" s="63"/>
       <c r="Q61" s="63"/>
     </row>
-    <row r="62" spans="1:23" ht="12" customHeight="1">
-      <c r="A62" s="157"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="103"/>
+    <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="110"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="90"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4409,18 +4425,18 @@
       <c r="P62" s="67"/>
       <c r="Q62" s="67"/>
     </row>
-    <row r="63" spans="1:23" ht="12" customHeight="1">
-      <c r="A63" s="156"/>
-      <c r="B63" s="158" t="s">
+    <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="109"/>
+      <c r="B63" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="95"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="106"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4432,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="K63" s="53">
-        <f>SUM(L63:Q63)</f>
+        <f t="shared" ref="K63:K68" si="8">SUM(L63:Q63)</f>
         <v>3</v>
       </c>
       <c r="L63" s="30"/>
@@ -4444,14 +4460,14 @@
       <c r="P63" s="28"/>
       <c r="Q63" s="28"/>
     </row>
-    <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="A64" s="157"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="107"/>
+    <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="110"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4459,7 +4475,7 @@
       <c r="I64" s="57"/>
       <c r="J64" s="57"/>
       <c r="K64" s="54">
-        <f>SUM(L64:Q64)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L64" s="37"/>
@@ -4469,18 +4485,18 @@
       <c r="P64" s="29"/>
       <c r="Q64" s="29"/>
     </row>
-    <row r="65" spans="1:17" ht="12" customHeight="1">
-      <c r="A65" s="156"/>
-      <c r="B65" s="158" t="s">
+    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="109"/>
+      <c r="B65" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="95"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
-      <c r="G65" s="106"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="91"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4492,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="53">
-        <f>SUM(L65:Q65)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="L65" s="30"/>
@@ -4504,14 +4520,14 @@
       <c r="P65" s="28"/>
       <c r="Q65" s="28"/>
     </row>
-    <row r="66" spans="1:17" ht="12" customHeight="1">
-      <c r="A66" s="157"/>
-      <c r="B66" s="134"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="107"/>
+    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="110"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="92"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4519,7 +4535,7 @@
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
       <c r="K66" s="54">
-        <f>SUM(L66:Q66)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L66" s="37"/>
@@ -4529,18 +4545,18 @@
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
     </row>
-    <row r="67" spans="1:17" ht="12" customHeight="1">
-      <c r="A67" s="156"/>
-      <c r="B67" s="158" t="s">
+    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="109"/>
+      <c r="B67" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="94" t="s">
+      <c r="C67" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="95"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="106"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="91"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4552,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="53">
-        <f>SUM(L67:Q67)</f>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="L67" s="30"/>
@@ -4564,14 +4580,14 @@
       <c r="P67" s="28"/>
       <c r="Q67" s="28"/>
     </row>
-    <row r="68" spans="1:17" ht="12" customHeight="1">
-      <c r="A68" s="157"/>
-      <c r="B68" s="134"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="107"/>
+    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="110"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="92"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4579,7 +4595,7 @@
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="54">
-        <f>SUM(L68:Q68)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L68" s="37"/>
@@ -4589,18 +4605,18 @@
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
     </row>
-    <row r="69" spans="1:17" ht="12" customHeight="1">
-      <c r="A69" s="156">
+    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="109">
         <v>2</v>
       </c>
-      <c r="B69" s="94" t="s">
+      <c r="B69" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="98"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="102"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="89"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4615,14 +4631,14 @@
       <c r="P69" s="63"/>
       <c r="Q69" s="63"/>
     </row>
-    <row r="70" spans="1:17" ht="12" customHeight="1">
-      <c r="A70" s="157"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="103"/>
+    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="110"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="90"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4637,18 +4653,18 @@
       <c r="P70" s="67"/>
       <c r="Q70" s="67"/>
     </row>
-    <row r="71" spans="1:17" ht="12" customHeight="1">
-      <c r="A71" s="156"/>
-      <c r="B71" s="158" t="s">
+    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="109"/>
+      <c r="B71" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="95"/>
-      <c r="E71" s="177"/>
-      <c r="F71" s="177"/>
-      <c r="G71" s="133"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="122"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4672,14 +4688,14 @@
       <c r="P71" s="28"/>
       <c r="Q71" s="28"/>
     </row>
-    <row r="72" spans="1:17" ht="12" customHeight="1">
-      <c r="A72" s="157"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="178"/>
-      <c r="F72" s="178"/>
-      <c r="G72" s="134"/>
+    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="110"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="112"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4697,18 +4713,18 @@
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
     </row>
-    <row r="73" spans="1:17" ht="12" customHeight="1">
-      <c r="A73" s="85"/>
-      <c r="B73" s="74" t="s">
+    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="156"/>
+      <c r="B73" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="98"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="108"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="178"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4732,14 +4748,14 @@
       <c r="P73" s="28"/>
       <c r="Q73" s="68"/>
     </row>
-    <row r="74" spans="1:17" ht="12" customHeight="1">
-      <c r="A74" s="126"/>
-      <c r="B74" s="125"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="108"/>
+    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="157"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="153"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="178"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4754,18 +4770,18 @@
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
     </row>
-    <row r="75" spans="1:17" ht="12" customHeight="1">
-      <c r="A75" s="175"/>
-      <c r="B75" s="173" t="s">
+    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="107"/>
+      <c r="B75" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="173" t="s">
+      <c r="C75" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="174"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="108"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="178"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4787,14 +4803,14 @@
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
     </row>
-    <row r="76" spans="1:17" ht="12" customHeight="1">
-      <c r="A76" s="176"/>
-      <c r="B76" s="173"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="174"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="108"/>
+    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="108"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="178"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4812,16 +4828,16 @@
       <c r="P76" s="50"/>
       <c r="Q76" s="50"/>
     </row>
-    <row r="77" spans="1:17" ht="12" customHeight="1">
-      <c r="A77" s="111" t="s">
+    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="119"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4832,38 +4848,38 @@
         <v>0</v>
       </c>
       <c r="L77" s="31">
-        <f>SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:Q77" si="9">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="32">
-        <f>SUMPRODUCT((MOD(ROW(M$79:M$84),2)=1)*M$79:M$84)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N77" s="32">
-        <f>SUMPRODUCT((MOD(ROW(N$79:N$84),2)=1)*N$79:N$84)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O77" s="32">
-        <f>SUMPRODUCT((MOD(ROW(O$79:O$84),2)=1)*O$79:O$84)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P77" s="32">
-        <f>SUMPRODUCT((MOD(ROW(P$79:P$84),2)=1)*P$79:P$84)</f>
+        <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
       <c r="Q77" s="32">
-        <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="12" customHeight="1">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="120"/>
+    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="104"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -4874,42 +4890,42 @@
         <v>0</v>
       </c>
       <c r="L78" s="35">
-        <f>SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:Q78" si="10">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="34">
-        <f>SUMPRODUCT((MOD(ROW(M$79:M$84),2)=0)*M$79:M$84)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="34">
-        <f>SUMPRODUCT((MOD(ROW(N$79:N$84),2)=0)*N$79:N$84)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O78" s="34">
-        <f>SUMPRODUCT((MOD(ROW(O$79:O$84),2)=0)*O$79:O$84)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P78" s="34">
-        <f>SUMPRODUCT((MOD(ROW(P$79:P$84),2)=0)*P$79:P$84)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q78" s="34">
-        <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=0)*Q$79:Q$84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="12" customHeight="1">
-      <c r="A79" s="156">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="109">
         <v>1</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="98"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="100"/>
-      <c r="F79" s="100"/>
-      <c r="G79" s="102"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="89"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -4924,14 +4940,14 @@
       <c r="P79" s="63"/>
       <c r="Q79" s="63"/>
     </row>
-    <row r="80" spans="1:17" ht="12" customHeight="1">
-      <c r="A80" s="157"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="103"/>
+    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="110"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="90"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -4946,18 +4962,18 @@
       <c r="P80" s="67"/>
       <c r="Q80" s="67"/>
     </row>
-    <row r="81" spans="1:17" ht="12" customHeight="1">
-      <c r="A81" s="156"/>
-      <c r="B81" s="158" t="s">
+    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="109"/>
+      <c r="B81" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="95"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104"/>
-      <c r="G81" s="133"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="122"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -4981,14 +4997,14 @@
       </c>
       <c r="Q81" s="28"/>
     </row>
-    <row r="82" spans="1:17" ht="12" customHeight="1">
-      <c r="A82" s="157"/>
-      <c r="B82" s="134"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="134"/>
+    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="110"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="112"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5006,18 +5022,18 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="29"/>
     </row>
-    <row r="83" spans="1:17" ht="12" customHeight="1">
-      <c r="A83" s="156"/>
-      <c r="B83" s="158" t="s">
+    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="109"/>
+      <c r="B83" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="104"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="133"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="122"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5043,14 +5059,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="12" customHeight="1">
-      <c r="A84" s="157"/>
-      <c r="B84" s="134"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="134"/>
+    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="110"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="112"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5068,16 +5084,16 @@
       <c r="P84" s="29"/>
       <c r="Q84" s="29"/>
     </row>
-    <row r="85" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A85" s="111" t="s">
+    <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="112"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="119"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="103"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5112,14 +5128,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A86" s="114"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="120"/>
+    <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="104"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5154,18 +5170,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A87" s="92">
+    <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="74">
         <v>1</v>
       </c>
-      <c r="B87" s="94" t="s">
+      <c r="B87" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="98"/>
-      <c r="D87" s="95"/>
-      <c r="E87" s="100"/>
-      <c r="F87" s="100"/>
-      <c r="G87" s="102"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="89"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5180,14 +5196,14 @@
       <c r="P87" s="63"/>
       <c r="Q87" s="63"/>
     </row>
-    <row r="88" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A88" s="93"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="103"/>
+    <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="75"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="90"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5202,18 +5218,18 @@
       <c r="P88" s="67"/>
       <c r="Q88" s="67"/>
     </row>
-    <row r="89" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A89" s="92"/>
-      <c r="B89" s="74" t="s">
+    <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="74"/>
+      <c r="B89" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="104"/>
-      <c r="F89" s="104"/>
-      <c r="G89" s="76"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="84"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5237,14 +5253,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A90" s="93"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="75"/>
+    <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="75"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="77"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5262,18 +5278,18 @@
       <c r="P90" s="45"/>
       <c r="Q90" s="45"/>
     </row>
-    <row r="91" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A91" s="92"/>
-      <c r="B91" s="74" t="s">
+    <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="74"/>
+      <c r="B91" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="94" t="s">
+      <c r="C91" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
-      <c r="G91" s="76"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="84"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5297,14 +5313,14 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A92" s="93"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="75"/>
+    <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="75"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="77"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5322,18 +5338,18 @@
       <c r="P92" s="45"/>
       <c r="Q92" s="45"/>
     </row>
-    <row r="93" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A93" s="92">
+    <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="74">
         <v>2</v>
       </c>
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="98"/>
-      <c r="D93" s="95"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="100"/>
-      <c r="G93" s="102"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="89"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5348,14 +5364,14 @@
       <c r="P93" s="63"/>
       <c r="Q93" s="63"/>
     </row>
-    <row r="94" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A94" s="93"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="103"/>
+    <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="75"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="90"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5370,18 +5386,18 @@
       <c r="P94" s="67"/>
       <c r="Q94" s="67"/>
     </row>
-    <row r="95" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A95" s="92"/>
-      <c r="B95" s="74" t="s">
+    <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="74"/>
+      <c r="B95" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="94" t="s">
+      <c r="C95" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="95"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="106"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="91"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5405,14 +5421,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="10.5" customHeight="1">
-      <c r="A96" s="93"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="107"/>
+    <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="75"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5430,18 +5446,18 @@
       <c r="P96" s="45"/>
       <c r="Q96" s="45"/>
     </row>
-    <row r="97" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A97" s="92"/>
-      <c r="B97" s="74" t="s">
+    <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="74"/>
+      <c r="B97" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="94" t="s">
+      <c r="C97" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="76"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="84"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5465,14 +5481,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A98" s="93"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
-      <c r="G98" s="75"/>
+    <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="75"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="77"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5490,16 +5506,16 @@
       <c r="P98" s="45"/>
       <c r="Q98" s="45"/>
     </row>
-    <row r="99" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A99" s="111" t="s">
+    <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="119"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="103"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5540,14 +5556,14 @@
       <c r="V99" s="42"/>
       <c r="W99" s="42"/>
     </row>
-    <row r="100" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A100" s="114"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="120"/>
+    <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="104"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5588,18 +5604,18 @@
       <c r="V100" s="42"/>
       <c r="W100" s="42"/>
     </row>
-    <row r="101" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A101" s="92">
+    <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="74">
         <v>1</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="98"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="102"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="89"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5620,14 +5636,14 @@
       <c r="V101" s="42"/>
       <c r="W101" s="42"/>
     </row>
-    <row r="102" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A102" s="93"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="103"/>
+    <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="75"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="88"/>
+      <c r="G102" s="90"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5648,18 +5664,18 @@
       <c r="V102" s="42"/>
       <c r="W102" s="42"/>
     </row>
-    <row r="103" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A103" s="92"/>
-      <c r="B103" s="74" t="s">
+    <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="74"/>
+      <c r="B103" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="94" t="s">
+      <c r="C103" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="95"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="104"/>
-      <c r="G103" s="106"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="91"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5689,14 +5705,14 @@
       <c r="V103" s="42"/>
       <c r="W103" s="42"/>
     </row>
-    <row r="104" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A104" s="93"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="107"/>
+    <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="75"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="92"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5720,18 +5736,18 @@
       <c r="V104" s="42"/>
       <c r="W104" s="42"/>
     </row>
-    <row r="105" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A105" s="92">
+    <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="74">
         <v>2</v>
       </c>
-      <c r="B105" s="94" t="s">
+      <c r="B105" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="98"/>
-      <c r="D105" s="95"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="100"/>
-      <c r="G105" s="102"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5749,14 +5765,14 @@
       <c r="V105" s="42"/>
       <c r="W105" s="42"/>
     </row>
-    <row r="106" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A106" s="93"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="103"/>
+    <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="75"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5777,18 +5793,18 @@
       <c r="V106" s="42"/>
       <c r="W106" s="42"/>
     </row>
-    <row r="107" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A107" s="92"/>
-      <c r="B107" s="74" t="s">
+    <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="74"/>
+      <c r="B107" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="94" t="s">
+      <c r="C107" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="95"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="76"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="84"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5818,14 +5834,14 @@
       <c r="V107" s="42"/>
       <c r="W107" s="42"/>
     </row>
-    <row r="108" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A108" s="93"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="96"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="91"/>
-      <c r="G108" s="75"/>
+    <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="75"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="77"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5849,18 +5865,18 @@
       <c r="V108" s="42"/>
       <c r="W108" s="42"/>
     </row>
-    <row r="109" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A109" s="92"/>
-      <c r="B109" s="74" t="s">
+    <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="74"/>
+      <c r="B109" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="94" t="s">
+      <c r="C109" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="95"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="76"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="84"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5890,14 +5906,14 @@
       <c r="V109" s="42"/>
       <c r="W109" s="42"/>
     </row>
-    <row r="110" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A110" s="93"/>
-      <c r="B110" s="75"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="97"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="91"/>
-      <c r="G110" s="75"/>
+    <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="75"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="77"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -5928,94 +5944,179 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="294">
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A37:A38"/>
@@ -6040,188 +6141,103 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
     <mergeCell ref="C73:D74"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28:Q28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41">
@@ -6311,12 +6327,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6504,19 +6517,52 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25BAD24-9659-4072-A41A-8AC80DB45F78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25BAD24-9659-4072-A41A-8AC80DB45F78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4246BCD0-61C0-4F96-B20E-69D42945540F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D35E5F-AF85-4B14-AF45-19A47262725B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,10 +454,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1345,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,56 +1553,110 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1611,12 +1664,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1647,9 +1694,156 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1659,140 +1853,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1800,83 +1865,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2466,10 +2476,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2488,108 +2498,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="123" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="I1" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="117">
+      <c r="L1" s="138">
         <v>43984</v>
       </c>
-      <c r="M1" s="118"/>
-      <c r="N1" s="117">
+      <c r="M1" s="139"/>
+      <c r="N1" s="138">
         <v>43985</v>
       </c>
-      <c r="O1" s="118"/>
-      <c r="P1" s="117">
+      <c r="O1" s="139"/>
+      <c r="P1" s="138">
         <v>43986</v>
       </c>
-      <c r="Q1" s="118"/>
+      <c r="Q1" s="139"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="154"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="116"/>
-      <c r="N2" s="115" t="s">
+      <c r="M2" s="147"/>
+      <c r="N2" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="115" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="116"/>
+      <c r="Q2" s="147"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="121" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="119" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="119" t="s">
+      <c r="O3" s="165"/>
+      <c r="P3" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="120"/>
+      <c r="Q3" s="165"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="130"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="152"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="142"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2610,15 +2620,15 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="148"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2651,13 +2661,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="149"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2665,14 +2675,14 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K24,K60,K78)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L6" s="24">
         <v>15</v>
       </c>
       <c r="M6" s="25">
         <f>SUM(M24,M60,M78)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N6" s="25">
         <f>SUM(N24,N60,N78)</f>
@@ -2692,15 +2702,15 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="143"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2734,13 +2744,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="144"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2748,14 +2758,14 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L8" s="35">
         <v>15</v>
       </c>
       <c r="M8" s="27">
         <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=0)*M$25:M$42)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N8" s="27">
         <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
@@ -2775,19 +2785,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74">
+      <c r="A9" s="95">
         <v>1</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87" t="s">
+      <c r="C9" s="97"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="89"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2803,13 +2813,13 @@
       <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="90"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2825,17 +2835,17 @@
       <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="84"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="103"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2860,13 +2870,13 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="77"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -2887,17 +2897,17 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="164"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="58"/>
       <c r="F13" s="58"/>
-      <c r="G13" s="169"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2924,13 +2934,13 @@
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="165"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="171"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -2953,17 +2963,17 @@
       <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74">
+      <c r="A15" s="95">
         <v>2</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="89"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2982,13 +2992,13 @@
       <c r="Q15" s="63"/>
     </row>
     <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="90"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="102"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3007,17 +3017,17 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="84"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3044,13 +3054,13 @@
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="77"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3073,17 +3083,17 @@
       <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="156"/>
-      <c r="B19" s="160" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
-      <c r="G19" s="82"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3110,13 +3120,13 @@
       <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="166"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="83"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3139,17 +3149,17 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="156"/>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="169"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3176,13 +3186,13 @@
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="167"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="170"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3205,15 +3215,15 @@
       <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="143"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
@@ -3249,13 +3259,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="144"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3263,7 +3273,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:Q24" si="2">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L24" s="35">
         <f t="shared" si="2"/>
@@ -3271,7 +3281,7 @@
       </c>
       <c r="M24" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N24" s="27">
         <f t="shared" si="2"/>
@@ -3291,17 +3301,17 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="109">
+      <c r="A25" s="123">
         <v>1</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="89"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="101"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3317,13 +3327,13 @@
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="110"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="90"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="102"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3339,17 +3349,17 @@
       <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="109"/>
-      <c r="B27" s="111" t="s">
+      <c r="A27" s="123"/>
+      <c r="B27" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="122"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="135"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3372,13 +3382,13 @@
       <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="110"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="112"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -3387,11 +3397,11 @@
       <c r="J28" s="41"/>
       <c r="K28" s="54">
         <f t="shared" ref="K28:K34" si="3">SUM(L28:Q28)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L28" s="37"/>
-      <c r="M28" s="179">
-        <v>0</v>
+      <c r="M28" s="29">
+        <v>1.5</v>
       </c>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
@@ -3399,17 +3409,17 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="164"/>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="79"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
-      <c r="G29" s="84"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3434,13 +3444,13 @@
       <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="165"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
-      <c r="G30" s="174"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -3449,11 +3459,11 @@
       <c r="J30" s="41"/>
       <c r="K30" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L30" s="37"/>
       <c r="M30" s="29">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
@@ -3461,17 +3471,17 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="164"/>
-      <c r="B31" s="76" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
-      <c r="G31" s="76"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3496,13 +3506,13 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="165"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
-      <c r="G32" s="77"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -3511,11 +3521,11 @@
       <c r="J32" s="48"/>
       <c r="K32" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L32" s="37"/>
       <c r="M32" s="29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
@@ -3523,17 +3533,17 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="156"/>
-      <c r="B33" s="82" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="79"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
-      <c r="G33" s="169"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3558,13 +3568,13 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="166"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-      <c r="G34" s="171"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -3583,17 +3593,17 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="109">
+      <c r="A35" s="123">
         <v>2</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="89"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="101"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3609,13 +3619,13 @@
       <c r="Q35" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="110"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="90"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="102"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3631,17 +3641,17 @@
       <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="109"/>
-      <c r="B37" s="111" t="s">
+      <c r="A37" s="123"/>
+      <c r="B37" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="109"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3666,13 +3676,13 @@
       <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="110"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="92"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="110"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3691,17 +3701,17 @@
       <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="156"/>
-      <c r="B39" s="76" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="176"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3725,13 +3735,13 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="166"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="176"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -3747,17 +3757,17 @@
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="105"/>
-      <c r="B41" s="162" t="s">
+      <c r="A41" s="128"/>
+      <c r="B41" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="177"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="74"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3781,13 +3791,13 @@
       <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="177"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -3806,15 +3816,15 @@
       <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="140" t="s">
+      <c r="A43" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="159"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
@@ -3850,13 +3860,13 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="98"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="144"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="134"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3874,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f t="shared" ref="K44:Q44" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L44" s="35">
         <f t="shared" si="5"/>
@@ -3872,7 +3882,7 @@
       </c>
       <c r="M44" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N44" s="27">
         <f t="shared" si="5"/>
@@ -3892,17 +3902,17 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="74">
+      <c r="A45" s="95">
         <v>1</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="89"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="101"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3918,13 +3928,13 @@
       <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="75"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="90"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="102"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3940,17 +3950,17 @@
       <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="74"/>
-      <c r="B47" s="76" t="s">
+      <c r="A47" s="95"/>
+      <c r="B47" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="109"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3975,13 +3985,13 @@
       <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="75"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="92"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4000,17 +4010,17 @@
       <c r="Q48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="164"/>
-      <c r="B49" s="76" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="79"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
-      <c r="G49" s="172"/>
+      <c r="G49" s="87"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4035,13 +4045,13 @@
       <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="165"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
-      <c r="G50" s="173"/>
+      <c r="G50" s="88"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4060,17 +4070,17 @@
       <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="74">
+      <c r="A51" s="95">
         <v>2</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="89"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="101"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4086,13 +4096,13 @@
       <c r="Q51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="75"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="90"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="102"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4108,17 +4118,17 @@
       <c r="Q52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="74"/>
-      <c r="B53" s="76" t="s">
+      <c r="A53" s="95"/>
+      <c r="B53" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="84"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="103"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4143,13 +4153,13 @@
       <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="75"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="77"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4168,17 +4178,17 @@
       <c r="Q54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="74"/>
-      <c r="B55" s="160" t="s">
+      <c r="A55" s="95"/>
+      <c r="B55" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4200,13 +4210,13 @@
       <c r="Q55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="75"/>
-      <c r="B56" s="161"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4222,17 +4232,17 @@
       <c r="Q56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="74"/>
-      <c r="B57" s="160" t="s">
+      <c r="A57" s="95"/>
+      <c r="B57" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4261,13 +4271,13 @@
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="75"/>
-      <c r="B58" s="161"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="177"/>
-      <c r="G58" s="177"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4292,15 +4302,15 @@
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="103"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="119"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
@@ -4336,13 +4346,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="98"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="104"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="120"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
@@ -4378,17 +4388,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="109">
+      <c r="A61" s="123">
         <v>1</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="85"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="89"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="101"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4404,13 +4414,13 @@
       <c r="Q61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="110"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="90"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="102"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4426,17 +4436,17 @@
       <c r="Q62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="109"/>
-      <c r="B63" s="111" t="s">
+      <c r="A63" s="123"/>
+      <c r="B63" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="91"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="109"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4461,13 +4471,13 @@
       <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="110"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="92"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="110"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4486,17 +4496,17 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="109"/>
-      <c r="B65" s="111" t="s">
+      <c r="A65" s="123"/>
+      <c r="B65" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="109"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4521,13 +4531,13 @@
       <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="110"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="92"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="110"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4546,17 +4556,17 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="109"/>
-      <c r="B67" s="111" t="s">
+      <c r="A67" s="123"/>
+      <c r="B67" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="91"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="109"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4581,13 +4591,13 @@
       <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="110"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="92"/>
+      <c r="A68" s="124"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4606,17 +4616,17 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="109">
+      <c r="A69" s="123">
         <v>2</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="89"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="101"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4632,13 +4642,13 @@
       <c r="Q69" s="63"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="110"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="90"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="102"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4654,17 +4664,17 @@
       <c r="Q70" s="67"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="109"/>
-      <c r="B71" s="111" t="s">
+      <c r="A71" s="123"/>
+      <c r="B71" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="122"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="135"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4689,13 +4699,13 @@
       <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="110"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="112"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="136"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4714,17 +4724,17 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="156"/>
-      <c r="B73" s="76" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="85"/>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="178"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4749,13 +4759,13 @@
       <c r="Q73" s="68"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="157"/>
-      <c r="B74" s="155"/>
-      <c r="C74" s="153"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="178"/>
+      <c r="A74" s="178"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4771,17 +4781,17 @@
       <c r="Q74" s="29"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="107"/>
-      <c r="B75" s="105" t="s">
+      <c r="A75" s="172"/>
+      <c r="B75" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="105" t="s">
+      <c r="C75" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="178"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4804,13 +4814,13 @@
       <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="108"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="178"/>
+      <c r="A76" s="173"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4829,15 +4839,15 @@
       <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="103"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="119"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4873,13 +4883,13 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="98"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="104"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="120"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -4915,17 +4925,17 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="109">
+      <c r="A79" s="123">
         <v>1</v>
       </c>
-      <c r="B79" s="78" t="s">
+      <c r="B79" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="85"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="89"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="101"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -4941,13 +4951,13 @@
       <c r="Q79" s="63"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="110"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="90"/>
+      <c r="A80" s="124"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="102"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -4963,17 +4973,17 @@
       <c r="Q80" s="67"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="109"/>
-      <c r="B81" s="111" t="s">
+      <c r="A81" s="123"/>
+      <c r="B81" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="122"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="135"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -4998,13 +5008,13 @@
       <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="110"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="112"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="136"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5023,17 +5033,17 @@
       <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="109"/>
-      <c r="B83" s="111" t="s">
+      <c r="A83" s="123"/>
+      <c r="B83" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C83" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="122"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="135"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5060,13 +5070,13 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="110"/>
-      <c r="B84" s="112"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="112"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="136"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5085,15 +5095,15 @@
       <c r="Q84" s="29"/>
     </row>
     <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="103"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="119"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5129,13 +5139,13 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="98"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="104"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="120"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5171,17 +5181,17 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="74">
+      <c r="A87" s="95">
         <v>1</v>
       </c>
-      <c r="B87" s="78" t="s">
+      <c r="B87" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="85"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="89"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="101"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5197,13 +5207,13 @@
       <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="75"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="90"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="100"/>
+      <c r="G88" s="102"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5219,17 +5229,17 @@
       <c r="Q88" s="67"/>
     </row>
     <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="74"/>
-      <c r="B89" s="76" t="s">
+      <c r="A89" s="95"/>
+      <c r="B89" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="79"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="84"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="103"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5254,13 +5264,13 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="75"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="77"/>
+      <c r="A90" s="96"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5279,17 +5289,17 @@
       <c r="Q90" s="45"/>
     </row>
     <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="74"/>
-      <c r="B91" s="76" t="s">
+      <c r="A91" s="95"/>
+      <c r="B91" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C91" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="79"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="84"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="103"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5314,13 +5324,13 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="75"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="77"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5339,17 +5349,17 @@
       <c r="Q92" s="45"/>
     </row>
     <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="74">
+      <c r="A93" s="95">
         <v>2</v>
       </c>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="89"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="101"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5365,13 +5375,13 @@
       <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="75"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="90"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="102"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5387,17 +5397,17 @@
       <c r="Q94" s="67"/>
     </row>
     <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="74"/>
-      <c r="B95" s="76" t="s">
+      <c r="A95" s="95"/>
+      <c r="B95" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="78" t="s">
+      <c r="C95" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="79"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="91"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="109"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5422,13 +5432,13 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="75"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="92"/>
+      <c r="A96" s="96"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="110"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5447,17 +5457,17 @@
       <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="74"/>
-      <c r="B97" s="76" t="s">
+      <c r="A97" s="95"/>
+      <c r="B97" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="78" t="s">
+      <c r="C97" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="79"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="84"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="103"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5482,13 +5492,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="75"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="80"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="77"/>
+      <c r="A98" s="96"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5507,15 +5517,15 @@
       <c r="Q98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="95" t="s">
+      <c r="A99" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="103"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5557,13 +5567,13 @@
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="98"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="104"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="120"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5605,17 +5615,17 @@
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="74">
+      <c r="A101" s="95">
         <v>1</v>
       </c>
-      <c r="B101" s="78" t="s">
+      <c r="B101" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="85"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="87"/>
-      <c r="G101" s="89"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="101"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5637,13 +5647,13 @@
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="75"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="88"/>
-      <c r="F102" s="88"/>
-      <c r="G102" s="90"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="100"/>
+      <c r="G102" s="102"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5665,17 +5675,17 @@
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="74"/>
-      <c r="B103" s="76" t="s">
+      <c r="A103" s="95"/>
+      <c r="B103" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="91"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="109"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5706,13 +5716,13 @@
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="75"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="80"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="94"/>
-      <c r="F104" s="94"/>
-      <c r="G104" s="92"/>
+      <c r="A104" s="96"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="110"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5737,17 +5747,17 @@
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="74">
+      <c r="A105" s="95">
         <v>2</v>
       </c>
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="89"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="101"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5766,13 +5776,13 @@
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="75"/>
-      <c r="B106" s="80"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="90"/>
+      <c r="A106" s="96"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="100"/>
+      <c r="G106" s="102"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5794,17 +5804,17 @@
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="74"/>
-      <c r="B107" s="76" t="s">
+      <c r="A107" s="95"/>
+      <c r="B107" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="78" t="s">
+      <c r="C107" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="84"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="103"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5835,13 +5845,13 @@
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="75"/>
-      <c r="B108" s="77"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="77"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="90"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5866,17 +5876,17 @@
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="74"/>
-      <c r="B109" s="76" t="s">
+      <c r="A109" s="95"/>
+      <c r="B109" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="78" t="s">
+      <c r="C109" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="79"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="84"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="103"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5907,13 +5917,13 @@
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="75"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="77"/>
+      <c r="A110" s="96"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -5944,19 +5954,263 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="294">
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A19:A20"/>
@@ -5981,327 +6235,91 @@
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28:Q28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:Q32">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:Q98">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:Q12">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:Q14">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:Q48">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:Q50">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:Q58">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L57), L57&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L57), L57&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(M28), M28&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M28), M28&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6333,6 +6351,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6516,15 +6543,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -6542,6 +6560,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25BAD24-9659-4072-A41A-8AC80DB45F78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6557,12 +6583,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D35E5F-AF85-4B14-AF45-19A47262725B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD804A24-FFE4-41AC-883F-E1B0B39C1552}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2476,10 +2476,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6345,21 +6345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6543,7 +6528,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25BAD24-9659-4072-A41A-8AC80DB45F78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6559,28 +6577,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25BAD24-9659-4072-A41A-8AC80DB45F78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD804A24-FFE4-41AC-883F-E1B0B39C1552}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4126D52-A29C-475B-9626-182028275A77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="45" windowWidth="12405" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -1553,320 +1553,320 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2476,10 +2476,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R38" sqref="R38"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2498,108 +2498,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="150" t="s">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="138">
+      <c r="L1" s="122">
         <v>43984</v>
       </c>
-      <c r="M1" s="139"/>
-      <c r="N1" s="138">
+      <c r="M1" s="123"/>
+      <c r="N1" s="122">
         <v>43985</v>
       </c>
-      <c r="O1" s="139"/>
-      <c r="P1" s="138">
+      <c r="O1" s="123"/>
+      <c r="P1" s="122">
         <v>43986</v>
       </c>
-      <c r="Q1" s="139"/>
+      <c r="Q1" s="123"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="146" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="147"/>
-      <c r="N2" s="146" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="146" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="147"/>
+      <c r="Q2" s="121"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="154"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="166" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="164" t="s">
+      <c r="M3" s="125"/>
+      <c r="N3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="165"/>
-      <c r="P3" s="164" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="165"/>
+      <c r="Q3" s="125"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="142"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2620,15 +2620,15 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2661,13 +2661,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="170"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K24,K60,K78)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="L6" s="24">
         <v>15</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="N6" s="25">
         <f>SUM(N24,N60,N78)</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="O6" s="25">
         <f>SUM(O24,O60,O78)</f>
@@ -2702,15 +2702,15 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2744,13 +2744,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="134"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="153"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="L8" s="35">
         <v>15</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="N8" s="27">
         <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="O8" s="27">
         <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=0)*O$25:O$42)</f>
@@ -2785,19 +2785,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95">
+      <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="101"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2813,13 +2813,13 @@
       <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="96"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2835,17 +2835,17 @@
       <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="95"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="103"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2870,13 +2870,13 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="96"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -2897,17 +2897,17 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="89" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="58"/>
       <c r="F13" s="58"/>
-      <c r="G13" s="83"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2934,13 +2934,13 @@
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="86"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -2963,17 +2963,17 @@
       <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="95">
+      <c r="A15" s="74">
         <v>2</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="101"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2992,13 +2992,13 @@
       <c r="Q15" s="63"/>
     </row>
     <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="96"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="102"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3017,17 +3017,17 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="103"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3054,13 +3054,13 @@
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="96"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3083,17 +3083,17 @@
       <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="121" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
-      <c r="G19" s="81"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3120,13 +3120,13 @@
       <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="85"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3149,17 +3149,17 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="89" t="s">
+      <c r="A21" s="118"/>
+      <c r="B21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="83"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="158"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3186,13 +3186,13 @@
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="84"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="171"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3215,15 +3215,15 @@
       <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
@@ -3259,13 +3259,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="134"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:Q24" si="2">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="L24" s="35">
         <f t="shared" si="2"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="N24" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="O24" s="27">
         <f t="shared" si="2"/>
@@ -3301,17 +3301,17 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="123">
+      <c r="A25" s="109">
         <v>1</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="101"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3327,13 +3327,13 @@
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="124"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="102"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3349,17 +3349,17 @@
       <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="123"/>
-      <c r="B27" s="137" t="s">
+      <c r="A27" s="109"/>
+      <c r="B27" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="135"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3382,13 +3382,13 @@
       <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="124"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="136"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -3409,17 +3409,17 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="89" t="s">
+      <c r="A29" s="166"/>
+      <c r="B29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="92"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
-      <c r="G29" s="103"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3444,13 +3444,13 @@
       <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
-      <c r="G30" s="104"/>
+      <c r="G30" s="174"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -3471,17 +3471,17 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="166"/>
+      <c r="B31" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="92"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
-      <c r="G31" s="89"/>
+      <c r="G31" s="76"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3506,13 +3506,13 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
-      <c r="G32" s="90"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -3533,17 +3533,17 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="81" t="s">
+      <c r="A33" s="118"/>
+      <c r="B33" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="92"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
-      <c r="G33" s="83"/>
+      <c r="G33" s="158"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3568,13 +3568,13 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
+      <c r="A34" s="168"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-      <c r="G34" s="86"/>
+      <c r="G34" s="159"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -3593,17 +3593,17 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="123">
+      <c r="A35" s="109">
         <v>2</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="101"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="89"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3619,13 +3619,13 @@
       <c r="Q35" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="124"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="102"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3641,17 +3641,17 @@
       <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="123"/>
-      <c r="B37" s="137" t="s">
+      <c r="A37" s="109"/>
+      <c r="B37" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="109"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3676,13 +3676,13 @@
       <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="124"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="110"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="92"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3691,27 +3691,29 @@
       <c r="J38" s="57"/>
       <c r="K38" s="54">
         <f>SUM(L38:Q38)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L38" s="37"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="N38" s="29">
+        <v>2.5</v>
+      </c>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="118"/>
+      <c r="B39" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3735,13 +3737,13 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="80"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -3751,23 +3753,25 @@
       <c r="K40" s="54"/>
       <c r="L40" s="37"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="N40" s="29">
+        <v>10.5</v>
+      </c>
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="128"/>
-      <c r="B41" s="125" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="74"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="177"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3791,13 +3795,13 @@
       <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="74"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="177"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -3806,25 +3810,27 @@
       <c r="J42" s="57"/>
       <c r="K42" s="54">
         <f>SUM(L42:Q42)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="N42" s="29">
+        <v>0.5</v>
+      </c>
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="129" t="s">
+      <c r="A43" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="161"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
@@ -3860,13 +3866,13 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="134"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="153"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -3874,7 +3880,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f t="shared" ref="K44:Q44" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="L44" s="35">
         <f t="shared" si="5"/>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="N44" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="O44" s="27">
         <f t="shared" si="5"/>
@@ -3902,17 +3908,17 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="95">
+      <c r="A45" s="74">
         <v>1</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="101"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3928,13 +3934,13 @@
       <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="96"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="102"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3950,17 +3956,17 @@
       <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="95"/>
-      <c r="B47" s="89" t="s">
+      <c r="A47" s="74"/>
+      <c r="B47" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="109"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="91"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3985,13 +3991,13 @@
       <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="96"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="110"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4010,17 +4016,17 @@
       <c r="Q48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="76"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="166"/>
+      <c r="B49" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="92"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
-      <c r="G49" s="87"/>
+      <c r="G49" s="172"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4045,13 +4051,13 @@
       <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="77"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="94"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
-      <c r="G50" s="88"/>
+      <c r="G50" s="173"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4070,17 +4076,17 @@
       <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="95">
+      <c r="A51" s="74">
         <v>2</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="101"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="89"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4096,13 +4102,13 @@
       <c r="Q51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="96"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="102"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4118,17 +4124,17 @@
       <c r="Q52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="95"/>
-      <c r="B53" s="89" t="s">
+      <c r="A53" s="74"/>
+      <c r="B53" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C53" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="103"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4153,13 +4159,13 @@
       <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="96"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="90"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="77"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4178,17 +4184,17 @@
       <c r="Q54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="95"/>
-      <c r="B55" s="121" t="s">
+      <c r="A55" s="74"/>
+      <c r="B55" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="92"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4210,13 +4216,13 @@
       <c r="Q55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="96"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4232,17 +4238,17 @@
       <c r="Q56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="95"/>
-      <c r="B57" s="121" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4271,13 +4277,13 @@
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="96"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4302,15 +4308,15 @@
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="119"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="103"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
@@ -4346,13 +4352,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="120"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="104"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
@@ -4388,17 +4394,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="123">
+      <c r="A61" s="109">
         <v>1</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="97"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="101"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="89"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4414,13 +4420,13 @@
       <c r="Q61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="124"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="102"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="90"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4436,17 +4442,17 @@
       <c r="Q62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="123"/>
-      <c r="B63" s="137" t="s">
+      <c r="A63" s="109"/>
+      <c r="B63" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="91" t="s">
+      <c r="C63" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="92"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="109"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4471,13 +4477,13 @@
       <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="124"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="110"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4496,17 +4502,17 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="123"/>
-      <c r="B65" s="137" t="s">
+      <c r="A65" s="109"/>
+      <c r="B65" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="91" t="s">
+      <c r="C65" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="92"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="109"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="91"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4531,13 +4537,13 @@
       <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="124"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="110"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="92"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4556,17 +4562,17 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="123"/>
-      <c r="B67" s="137" t="s">
+      <c r="A67" s="109"/>
+      <c r="B67" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="92"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="109"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="91"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4591,13 +4597,13 @@
       <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="124"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="110"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="92"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4616,17 +4622,17 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="123">
+      <c r="A69" s="109">
         <v>2</v>
       </c>
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="101"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="89"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4642,13 +4648,13 @@
       <c r="Q69" s="63"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="124"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="102"/>
+      <c r="A70" s="110"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="90"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4664,17 +4670,17 @@
       <c r="Q70" s="67"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="123"/>
-      <c r="B71" s="137" t="s">
+      <c r="A71" s="109"/>
+      <c r="B71" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="91" t="s">
+      <c r="C71" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="92"/>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="135"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="127"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4699,13 +4705,13 @@
       <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="124"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="175"/>
-      <c r="F72" s="175"/>
-      <c r="G72" s="136"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="112"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4724,17 +4730,17 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="89" t="s">
+      <c r="A73" s="118"/>
+      <c r="B73" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="91" t="s">
+      <c r="C73" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="97"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="178"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4759,13 +4765,13 @@
       <c r="Q73" s="68"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="178"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="126"/>
-      <c r="D74" s="176"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="A74" s="119"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="178"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4781,17 +4787,17 @@
       <c r="Q74" s="29"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="172"/>
-      <c r="B75" s="128" t="s">
+      <c r="A75" s="107"/>
+      <c r="B75" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="128" t="s">
+      <c r="C75" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="171"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="178"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4814,13 +4820,13 @@
       <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="173"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="178"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4839,15 +4845,15 @@
       <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="119"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4883,13 +4889,13 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="120"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="104"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -4925,17 +4931,17 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="123">
+      <c r="A79" s="109">
         <v>1</v>
       </c>
-      <c r="B79" s="91" t="s">
+      <c r="B79" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="101"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="89"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -4951,13 +4957,13 @@
       <c r="Q79" s="63"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="124"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="100"/>
-      <c r="F80" s="100"/>
-      <c r="G80" s="102"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="90"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -4973,17 +4979,17 @@
       <c r="Q80" s="67"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="123"/>
-      <c r="B81" s="137" t="s">
+      <c r="A81" s="109"/>
+      <c r="B81" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="135"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="127"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5008,13 +5014,13 @@
       <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="124"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="136"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="112"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5033,17 +5039,17 @@
       <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="123"/>
-      <c r="B83" s="137" t="s">
+      <c r="A83" s="109"/>
+      <c r="B83" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="135"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5070,13 +5076,13 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="124"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="136"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="112"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5095,15 +5101,15 @@
       <c r="Q84" s="29"/>
     </row>
     <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="111" t="s">
+      <c r="A85" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="112"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="119"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="103"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5139,13 +5145,13 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="114"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="120"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="104"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5181,17 +5187,17 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="95">
+      <c r="A87" s="74">
         <v>1</v>
       </c>
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="97"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="101"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="89"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5207,13 +5213,13 @@
       <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="96"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="102"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="90"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5229,17 +5235,17 @@
       <c r="Q88" s="67"/>
     </row>
     <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="95"/>
-      <c r="B89" s="89" t="s">
+      <c r="A89" s="74"/>
+      <c r="B89" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="92"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="103"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="84"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5264,13 +5270,13 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="96"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="94"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="90"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="77"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5289,17 +5295,17 @@
       <c r="Q90" s="45"/>
     </row>
     <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="95"/>
-      <c r="B91" s="89" t="s">
+      <c r="A91" s="74"/>
+      <c r="B91" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="92"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="103"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="84"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5324,13 +5330,13 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="96"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="90"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="77"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5349,17 +5355,17 @@
       <c r="Q92" s="45"/>
     </row>
     <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="95">
+      <c r="A93" s="74">
         <v>2</v>
       </c>
-      <c r="B93" s="91" t="s">
+      <c r="B93" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="97"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="101"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="89"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5375,13 +5381,13 @@
       <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="96"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="100"/>
-      <c r="G94" s="102"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="90"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5397,17 +5403,17 @@
       <c r="Q94" s="67"/>
     </row>
     <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="95"/>
-      <c r="B95" s="89" t="s">
+      <c r="A95" s="74"/>
+      <c r="B95" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="92"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="109"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="91"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5432,13 +5438,13 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="96"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="110"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5457,17 +5463,17 @@
       <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="95"/>
-      <c r="B97" s="89" t="s">
+      <c r="A97" s="74"/>
+      <c r="B97" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="91" t="s">
+      <c r="C97" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="92"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="103"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="84"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5492,13 +5498,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="96"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="93"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="90"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="77"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5517,15 +5523,15 @@
       <c r="Q98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="111" t="s">
+      <c r="A99" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="119"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="103"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5567,13 +5573,13 @@
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="114"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="120"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="104"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5615,17 +5621,17 @@
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="95">
+      <c r="A101" s="74">
         <v>1</v>
       </c>
-      <c r="B101" s="91" t="s">
+      <c r="B101" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="97"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="101"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="89"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5647,13 +5653,13 @@
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="96"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="102"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="88"/>
+      <c r="G102" s="90"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5675,17 +5681,17 @@
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="95"/>
-      <c r="B103" s="89" t="s">
+      <c r="A103" s="74"/>
+      <c r="B103" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="91" t="s">
+      <c r="C103" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="92"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="109"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="91"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5716,13 +5722,13 @@
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="96"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="110"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="92"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5747,17 +5753,17 @@
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="95">
+      <c r="A105" s="74">
         <v>2</v>
       </c>
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="97"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="101"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5776,13 +5782,13 @@
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="96"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="100"/>
-      <c r="G106" s="102"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5804,17 +5810,17 @@
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="95"/>
-      <c r="B107" s="89" t="s">
+      <c r="A107" s="74"/>
+      <c r="B107" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="91" t="s">
+      <c r="C107" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="92"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="103"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="84"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5845,13 +5851,13 @@
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="96"/>
-      <c r="B108" s="90"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="90"/>
+      <c r="A108" s="75"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="77"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5876,17 +5882,17 @@
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="95"/>
-      <c r="B109" s="89" t="s">
+      <c r="A109" s="74"/>
+      <c r="B109" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="91" t="s">
+      <c r="C109" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="92"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="103"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="84"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5917,13 +5923,13 @@
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="96"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="94"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="90"/>
+      <c r="A110" s="75"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="77"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -5954,44 +5960,238 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="294">
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
     <mergeCell ref="C75:D76"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="A75:A76"/>
@@ -6016,238 +6216,44 @@
     <mergeCell ref="C73:D74"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
@@ -6529,18 +6535,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6562,6 +6568,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6575,12 +6589,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4126D52-A29C-475B-9626-182028275A77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD58A82-7C1F-41F7-80FD-9F0798B13E42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="45" windowWidth="12405" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>チケット予約システム</t>
     <rPh sb="4" eb="6">
@@ -448,6 +448,16 @@
   </si>
   <si>
     <t>韓</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
   </si>
 </sst>
 </file>
@@ -1553,56 +1563,110 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1610,12 +1674,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1646,9 +1704,156 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1658,26 +1863,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1685,188 +1875,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2476,10 +2486,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39:D40"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2498,108 +2508,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="128" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="122">
+      <c r="L1" s="138">
         <v>43984</v>
       </c>
-      <c r="M1" s="123"/>
-      <c r="N1" s="122">
+      <c r="M1" s="139"/>
+      <c r="N1" s="138">
         <v>43985</v>
       </c>
-      <c r="O1" s="123"/>
-      <c r="P1" s="122">
+      <c r="O1" s="139"/>
+      <c r="P1" s="138">
         <v>43986</v>
       </c>
-      <c r="Q1" s="123"/>
+      <c r="Q1" s="139"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="120" t="s">
+      <c r="A2" s="154"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="120" t="s">
+      <c r="M2" s="147"/>
+      <c r="N2" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="120" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="121"/>
+      <c r="Q2" s="147"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="126" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="124" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="124" t="s">
+      <c r="O3" s="165"/>
+      <c r="P3" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="125"/>
+      <c r="Q3" s="165"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="141"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="157"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="142"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2620,15 +2630,15 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="133"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2661,13 +2671,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="134"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2702,15 +2712,15 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="152"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2744,13 +2754,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="153"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2785,19 +2795,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74">
+      <c r="A9" s="95">
         <v>1</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="89"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="101"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2813,13 +2823,13 @@
       <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="90"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2835,20 +2845,22 @@
       <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="84"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="107"/>
+      <c r="G11" s="103"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>24</v>
@@ -2870,16 +2882,16 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="77"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
@@ -2897,20 +2909,22 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="166"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="58"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="107" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="58"/>
-      <c r="G13" s="158"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I13" s="46" t="s">
         <v>24</v>
@@ -2934,16 +2948,16 @@
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="167"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="57"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="159"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -2963,17 +2977,19 @@
       <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74">
+      <c r="A15" s="95">
         <v>2</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="89"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="101"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2992,13 +3008,13 @@
       <c r="Q15" s="63"/>
     </row>
     <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="90"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="102"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3017,20 +3033,22 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="84"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="107"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I17" s="46" t="s">
         <v>24</v>
@@ -3054,16 +3072,16 @@
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="77"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
@@ -3083,20 +3101,22 @@
       <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="162" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="107" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="82"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I19" s="46" t="s">
         <v>24</v>
@@ -3120,16 +3140,16 @@
       <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="168"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="59"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="83"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
@@ -3149,20 +3169,22 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="118"/>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="158"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I21" s="46" t="s">
         <v>31</v>
@@ -3186,16 +3208,16 @@
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="169"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="171"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
@@ -3215,15 +3237,15 @@
       <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="150"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
@@ -3259,13 +3281,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="153"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3301,17 +3323,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="109">
+      <c r="A25" s="123">
         <v>1</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="89"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="101"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3327,13 +3351,13 @@
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="110"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="90"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="102"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3349,20 +3373,24 @@
       <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="109"/>
-      <c r="B27" s="111" t="s">
+      <c r="A27" s="123"/>
+      <c r="B27" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="127"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="135"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>35</v>
@@ -3382,16 +3410,16 @@
       <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="110"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="112"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
@@ -3409,20 +3437,24 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="166"/>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="84"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="103"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>35</v>
@@ -3444,16 +3476,16 @@
       <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="167"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="174"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
@@ -3471,20 +3503,24 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="166"/>
-      <c r="B31" s="76" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="76"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="89"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I31" s="46" t="s">
         <v>39</v>
@@ -3506,16 +3542,16 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="167"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="77"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
@@ -3533,20 +3569,24 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="118"/>
-      <c r="B33" s="82" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="158"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="83"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>42</v>
@@ -3568,16 +3608,16 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="168"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="159"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
@@ -3593,17 +3633,19 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="109">
+      <c r="A35" s="123">
         <v>2</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="89"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="101"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3619,13 +3661,13 @@
       <c r="Q35" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="110"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="90"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="102"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3641,20 +3683,24 @@
       <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="109"/>
-      <c r="B37" s="111" t="s">
+      <c r="A37" s="123"/>
+      <c r="B37" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="109"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I37" s="51" t="s">
         <v>24</v>
@@ -3676,16 +3722,16 @@
       <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="110"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="92"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="110"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
@@ -3703,20 +3749,24 @@
       <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="118"/>
-      <c r="B39" s="76" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="176"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="106"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I39" s="51" t="s">
         <v>24</v>
@@ -3737,16 +3787,16 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="168"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="176"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I40" s="52"/>
       <c r="J40" s="57"/>
@@ -3761,20 +3811,24 @@
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="105"/>
-      <c r="B41" s="164" t="s">
+      <c r="A41" s="128"/>
+      <c r="B41" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="177"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="74"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I41" s="46" t="s">
         <v>45</v>
@@ -3795,16 +3849,16 @@
       <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="177"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="57"/>
@@ -3822,15 +3876,15 @@
       <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="161"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
@@ -3866,13 +3920,13 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="98"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="153"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="134"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -3908,17 +3962,17 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="74">
+      <c r="A45" s="95">
         <v>1</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="89"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="101"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3934,13 +3988,13 @@
       <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="75"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="90"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="102"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3956,17 +4010,17 @@
       <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="74"/>
-      <c r="B47" s="76" t="s">
+      <c r="A47" s="95"/>
+      <c r="B47" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="109"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3991,13 +4045,13 @@
       <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="75"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="92"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4016,17 +4070,17 @@
       <c r="Q48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="166"/>
-      <c r="B49" s="76" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="79"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
-      <c r="G49" s="172"/>
+      <c r="G49" s="87"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4051,13 +4105,13 @@
       <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="167"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
-      <c r="G50" s="173"/>
+      <c r="G50" s="88"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4076,17 +4130,17 @@
       <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="74">
+      <c r="A51" s="95">
         <v>2</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="89"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="101"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4102,13 +4156,13 @@
       <c r="Q51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="75"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="90"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="102"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4124,17 +4178,17 @@
       <c r="Q52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="74"/>
-      <c r="B53" s="76" t="s">
+      <c r="A53" s="95"/>
+      <c r="B53" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="84"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="103"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4159,13 +4213,13 @@
       <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="75"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="77"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4184,17 +4238,17 @@
       <c r="Q54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="74"/>
-      <c r="B55" s="162" t="s">
+      <c r="A55" s="95"/>
+      <c r="B55" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4216,13 +4270,13 @@
       <c r="Q55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="75"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4238,17 +4292,17 @@
       <c r="Q56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="74"/>
-      <c r="B57" s="162" t="s">
+      <c r="A57" s="95"/>
+      <c r="B57" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4277,13 +4331,13 @@
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="75"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="177"/>
-      <c r="G58" s="177"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4308,15 +4362,15 @@
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="103"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="119"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
@@ -4352,13 +4406,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="98"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="104"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="120"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
@@ -4394,17 +4448,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="109">
+      <c r="A61" s="123">
         <v>1</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="85"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="89"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="101"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4420,13 +4474,13 @@
       <c r="Q61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="110"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="90"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="102"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4442,17 +4496,17 @@
       <c r="Q62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="109"/>
-      <c r="B63" s="111" t="s">
+      <c r="A63" s="123"/>
+      <c r="B63" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="91"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="109"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4477,13 +4531,13 @@
       <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="110"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="92"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="110"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4502,17 +4556,17 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="109"/>
-      <c r="B65" s="111" t="s">
+      <c r="A65" s="123"/>
+      <c r="B65" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="109"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4537,13 +4591,13 @@
       <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="110"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="92"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="110"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4562,17 +4616,17 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="109"/>
-      <c r="B67" s="111" t="s">
+      <c r="A67" s="123"/>
+      <c r="B67" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="91"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="109"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4597,13 +4651,13 @@
       <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="110"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="92"/>
+      <c r="A68" s="124"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4622,17 +4676,17 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="109">
+      <c r="A69" s="123">
         <v>2</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="89"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="101"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4648,13 +4702,13 @@
       <c r="Q69" s="63"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="110"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="90"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="102"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4670,17 +4724,17 @@
       <c r="Q70" s="67"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="109"/>
-      <c r="B71" s="111" t="s">
+      <c r="A71" s="123"/>
+      <c r="B71" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="127"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="135"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4705,13 +4759,13 @@
       <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="110"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="112"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="136"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4730,17 +4784,17 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="118"/>
-      <c r="B73" s="76" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="85"/>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="178"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4765,13 +4819,13 @@
       <c r="Q73" s="68"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="119"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="178"/>
+      <c r="A74" s="178"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4787,17 +4841,17 @@
       <c r="Q74" s="29"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="107"/>
-      <c r="B75" s="105" t="s">
+      <c r="A75" s="172"/>
+      <c r="B75" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="105" t="s">
+      <c r="C75" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="178"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4820,13 +4874,13 @@
       <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="108"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="178"/>
+      <c r="A76" s="173"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4845,15 +4899,15 @@
       <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="103"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="119"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4889,13 +4943,13 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="98"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="104"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="120"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -4931,17 +4985,17 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="109">
+      <c r="A79" s="123">
         <v>1</v>
       </c>
-      <c r="B79" s="78" t="s">
+      <c r="B79" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="85"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="89"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="101"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -4957,13 +5011,13 @@
       <c r="Q79" s="63"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="110"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="90"/>
+      <c r="A80" s="124"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="102"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -4979,17 +5033,17 @@
       <c r="Q80" s="67"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="109"/>
-      <c r="B81" s="111" t="s">
+      <c r="A81" s="123"/>
+      <c r="B81" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="127"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="135"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5014,13 +5068,13 @@
       <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="110"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="112"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="136"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5039,17 +5093,17 @@
       <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="109"/>
-      <c r="B83" s="111" t="s">
+      <c r="A83" s="123"/>
+      <c r="B83" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C83" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="127"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="135"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5076,13 +5130,13 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="110"/>
-      <c r="B84" s="112"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="112"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="136"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5101,15 +5155,15 @@
       <c r="Q84" s="29"/>
     </row>
     <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="103"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="119"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5145,13 +5199,13 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="98"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="104"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="120"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5187,17 +5241,17 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="74">
+      <c r="A87" s="95">
         <v>1</v>
       </c>
-      <c r="B87" s="78" t="s">
+      <c r="B87" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="85"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="89"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="101"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5213,13 +5267,13 @@
       <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="75"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="90"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="100"/>
+      <c r="G88" s="102"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5235,17 +5289,17 @@
       <c r="Q88" s="67"/>
     </row>
     <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="74"/>
-      <c r="B89" s="76" t="s">
+      <c r="A89" s="95"/>
+      <c r="B89" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="79"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="84"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="103"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5270,13 +5324,13 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="75"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="77"/>
+      <c r="A90" s="96"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5295,17 +5349,17 @@
       <c r="Q90" s="45"/>
     </row>
     <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="74"/>
-      <c r="B91" s="76" t="s">
+      <c r="A91" s="95"/>
+      <c r="B91" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C91" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="79"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="84"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="103"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5330,13 +5384,13 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="75"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="77"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5355,17 +5409,17 @@
       <c r="Q92" s="45"/>
     </row>
     <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="74">
+      <c r="A93" s="95">
         <v>2</v>
       </c>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="89"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="101"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5381,13 +5435,13 @@
       <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="75"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="90"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="102"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5403,17 +5457,17 @@
       <c r="Q94" s="67"/>
     </row>
     <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="74"/>
-      <c r="B95" s="76" t="s">
+      <c r="A95" s="95"/>
+      <c r="B95" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="78" t="s">
+      <c r="C95" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="79"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="91"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="109"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5438,13 +5492,13 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="75"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="92"/>
+      <c r="A96" s="96"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="110"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5463,17 +5517,17 @@
       <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="74"/>
-      <c r="B97" s="76" t="s">
+      <c r="A97" s="95"/>
+      <c r="B97" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="78" t="s">
+      <c r="C97" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="79"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="84"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="103"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5498,13 +5552,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="75"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="80"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="77"/>
+      <c r="A98" s="96"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5523,15 +5577,15 @@
       <c r="Q98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="95" t="s">
+      <c r="A99" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="103"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5573,13 +5627,13 @@
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="98"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="104"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="120"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5621,17 +5675,17 @@
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="74">
+      <c r="A101" s="95">
         <v>1</v>
       </c>
-      <c r="B101" s="78" t="s">
+      <c r="B101" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="85"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="87"/>
-      <c r="G101" s="89"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="101"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5653,13 +5707,13 @@
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="75"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="88"/>
-      <c r="F102" s="88"/>
-      <c r="G102" s="90"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="100"/>
+      <c r="G102" s="102"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5681,17 +5735,17 @@
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="74"/>
-      <c r="B103" s="76" t="s">
+      <c r="A103" s="95"/>
+      <c r="B103" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="91"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="109"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5722,13 +5776,13 @@
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="75"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="80"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="94"/>
-      <c r="F104" s="94"/>
-      <c r="G104" s="92"/>
+      <c r="A104" s="96"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="110"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5753,17 +5807,17 @@
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="74">
+      <c r="A105" s="95">
         <v>2</v>
       </c>
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="89"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="101"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5782,13 +5836,13 @@
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="75"/>
-      <c r="B106" s="80"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="90"/>
+      <c r="A106" s="96"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="100"/>
+      <c r="G106" s="102"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5810,17 +5864,17 @@
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="74"/>
-      <c r="B107" s="76" t="s">
+      <c r="A107" s="95"/>
+      <c r="B107" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="78" t="s">
+      <c r="C107" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="84"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="103"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5851,13 +5905,13 @@
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="75"/>
-      <c r="B108" s="77"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="77"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="90"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5882,17 +5936,17 @@
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="74"/>
-      <c r="B109" s="76" t="s">
+      <c r="A109" s="95"/>
+      <c r="B109" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="78" t="s">
+      <c r="C109" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="79"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="84"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="103"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5923,13 +5977,13 @@
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="75"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="77"/>
+      <c r="A110" s="96"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -5959,20 +6013,272 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="294">
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
+  <mergeCells count="302">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A19:A20"/>
@@ -5997,263 +6303,19 @@
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
@@ -6332,13 +6394,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E111:E65576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"新規作成,更新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F84 F41 F101:F110 F9:F21 F61:F69 F75 F87:F98 F25:F39 F71:F73 F45:F55 F57" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F84 F41 F101:F110 F9:F21 F61:F69 F75 F87:F98 F57 F71:F73 F45:F55 F25:F29 F31 F33 F35:F39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"着手,完了"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E69 E35 E25 E59:E61 E77:E79 E85:E87 E93 E15 E9 E51 E45 E99:E101 E105" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"新規作成,更新,レビュー参加"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E84 E63:E68 E41 E11:E14 E27:E34 E89:E92 E17:E21 E103:E104 E47:E50 E75 E95:E98 E107:E110 E37:E39 E71:E73 E53:E55 E57" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E84 E63:E68 E41 E21 E57 E89:E92 E33 E103:E104 E47:E50 E75 E95:E98 E107:E110 E37:E39 E71:E73 E53:E55 E27:E29 E31 E17:E19 E11:E13" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"新規作成,更新,レビュー参加,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6535,18 +6597,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6568,14 +6630,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6589,4 +6643,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD58A82-7C1F-41F7-80FD-9F0798B13E42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CAED53-369E-4160-987E-02059C1AD32D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,326 +1563,340 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2486,10 +2500,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41:E42"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2508,108 +2522,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="150" t="s">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="138">
+      <c r="L1" s="122">
         <v>43984</v>
       </c>
-      <c r="M1" s="139"/>
-      <c r="N1" s="138">
+      <c r="M1" s="123"/>
+      <c r="N1" s="122">
         <v>43985</v>
       </c>
-      <c r="O1" s="139"/>
-      <c r="P1" s="138">
+      <c r="O1" s="123"/>
+      <c r="P1" s="122">
         <v>43986</v>
       </c>
-      <c r="Q1" s="139"/>
+      <c r="Q1" s="123"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="146" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="147"/>
-      <c r="N2" s="146" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="146" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="147"/>
+      <c r="Q2" s="121"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="154"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="166" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="164" t="s">
+      <c r="M3" s="125"/>
+      <c r="N3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="165"/>
-      <c r="P3" s="164" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="165"/>
+      <c r="Q3" s="125"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="142"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2630,15 +2644,15 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2671,13 +2685,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="170"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2699,8 +2713,7 @@
         <v>13.5</v>
       </c>
       <c r="O6" s="25">
-        <f>SUM(O24,O60,O78)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P6" s="25">
         <f>SUM(P8,P24,P44,P60,P78,P86,P100)</f>
@@ -2712,15 +2725,15 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2754,13 +2767,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="134"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="153"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2783,7 +2796,7 @@
       </c>
       <c r="O8" s="27">
         <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=0)*O$25:O$42)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P8" s="27">
         <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
@@ -2795,19 +2808,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95">
+      <c r="A9" s="76">
         <v>1</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="101"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2823,13 +2836,13 @@
       <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="96"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2845,19 +2858,19 @@
       <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="95"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="107" t="s">
+      <c r="D11" s="81"/>
+      <c r="E11" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="103"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2882,13 +2895,13 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="96"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2909,19 +2922,19 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="89" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="107" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="58"/>
-      <c r="G13" s="83"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2948,13 +2961,13 @@
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="108"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="86"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2977,19 +2990,19 @@
       <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="95">
+      <c r="A15" s="76">
         <v>2</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3008,13 +3021,13 @@
       <c r="Q15" s="63"/>
     </row>
     <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="96"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="102"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3033,19 +3046,19 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="107" t="s">
+      <c r="D17" s="81"/>
+      <c r="E17" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="103"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3072,13 +3085,13 @@
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="96"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3101,19 +3114,19 @@
       <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="121" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="107" t="s">
+      <c r="D19" s="81"/>
+      <c r="E19" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="81"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3140,11 +3153,11 @@
       <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="108"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="59"/>
       <c r="G20" s="85"/>
       <c r="H20" s="48" t="str">
@@ -3169,19 +3182,19 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="89" t="s">
+      <c r="A21" s="118"/>
+      <c r="B21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="158"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3208,13 +3221,13 @@
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="84"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="171"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3237,15 +3250,15 @@
       <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
@@ -3281,13 +3294,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="134"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3311,7 +3324,7 @@
       </c>
       <c r="O24" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P24" s="27">
         <f t="shared" si="2"/>
@@ -3323,19 +3336,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="123">
+      <c r="A25" s="109">
         <v>1</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99" t="s">
+      <c r="C25" s="87"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="101"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3351,13 +3364,13 @@
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="124"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="102"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3373,21 +3386,21 @@
       <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="123"/>
-      <c r="B27" s="137" t="s">
+      <c r="A27" s="109"/>
+      <c r="B27" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="107" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="107" t="s">
+      <c r="F27" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="135"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3410,13 +3423,13 @@
       <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="124"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="136"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3437,21 +3450,21 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="89" t="s">
+      <c r="A29" s="166"/>
+      <c r="B29" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="107" t="s">
+      <c r="D29" s="81"/>
+      <c r="E29" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="103"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3476,13 +3489,13 @@
       <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="104"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="174"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3503,21 +3516,21 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="166"/>
+      <c r="B31" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="107" t="s">
+      <c r="D31" s="81"/>
+      <c r="E31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="107" t="s">
+      <c r="F31" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="89"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3542,13 +3555,13 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="90"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3569,21 +3582,21 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="81" t="s">
+      <c r="A33" s="118"/>
+      <c r="B33" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="107" t="s">
+      <c r="D33" s="81"/>
+      <c r="E33" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="107" t="s">
+      <c r="F33" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="158"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3608,13 +3621,13 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="86"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="159"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3633,19 +3646,19 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="123">
+      <c r="A35" s="109">
         <v>2</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="101"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3661,13 +3674,13 @@
       <c r="Q35" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="124"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="102"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3683,21 +3696,21 @@
       <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="123"/>
-      <c r="B37" s="137" t="s">
+      <c r="A37" s="109"/>
+      <c r="B37" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="107" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="109"/>
+      <c r="G37" s="93"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3722,13 +3735,13 @@
       <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="124"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="110"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3749,21 +3762,21 @@
       <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="118"/>
+      <c r="B39" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="105" t="s">
+      <c r="D39" s="81"/>
+      <c r="E39" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="105" t="s">
+      <c r="F39" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="106"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3787,13 +3800,13 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="80"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3806,26 +3819,28 @@
       <c r="N40" s="29">
         <v>10.5</v>
       </c>
-      <c r="O40" s="29"/>
+      <c r="O40" s="29">
+        <v>0.5</v>
+      </c>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="128"/>
-      <c r="B41" s="125" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="105" t="s">
+      <c r="D41" s="81"/>
+      <c r="E41" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="74"/>
+      <c r="G41" s="177"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3849,13 +3864,13 @@
       <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="74"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="177"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3876,15 +3891,15 @@
       <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="129" t="s">
+      <c r="A43" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="161"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
@@ -3920,13 +3935,13 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="134"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="153"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -3949,8 +3964,7 @@
         <v>13.5</v>
       </c>
       <c r="O44" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="P44" s="27">
         <f t="shared" si="5"/>
@@ -3962,17 +3976,17 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="95">
+      <c r="A45" s="76">
         <v>1</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="101"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3988,13 +4002,13 @@
       <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="96"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="102"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4010,17 +4024,17 @@
       <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="95"/>
-      <c r="B47" s="89" t="s">
+      <c r="A47" s="76"/>
+      <c r="B47" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="109"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="93"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4045,13 +4059,13 @@
       <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="96"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="110"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="94"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4060,27 +4074,29 @@
       <c r="J48" s="57"/>
       <c r="K48" s="54">
         <f>SUM(L48:Q48)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L48" s="44"/>
       <c r="M48" s="45"/>
       <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
+      <c r="O48" s="45">
+        <v>6.5</v>
+      </c>
       <c r="P48" s="45"/>
       <c r="Q48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="76"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="166"/>
+      <c r="B49" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="92"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
-      <c r="G49" s="87"/>
+      <c r="G49" s="172"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4105,13 +4121,13 @@
       <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="77"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="94"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
-      <c r="G50" s="88"/>
+      <c r="G50" s="173"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4120,27 +4136,29 @@
       <c r="J50" s="57"/>
       <c r="K50" s="54">
         <f>SUM(L50:Q50)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L50" s="44"/>
       <c r="M50" s="45"/>
       <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
+      <c r="O50" s="45">
+        <v>6.5</v>
+      </c>
       <c r="P50" s="45"/>
       <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="95">
+      <c r="A51" s="76">
         <v>2</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="101"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="91"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4156,13 +4174,13 @@
       <c r="Q51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="96"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="102"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4178,17 +4196,17 @@
       <c r="Q52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="95"/>
-      <c r="B53" s="89" t="s">
+      <c r="A53" s="76"/>
+      <c r="B53" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C53" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="103"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4213,13 +4231,13 @@
       <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="96"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="90"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4228,27 +4246,29 @@
       <c r="J54" s="48"/>
       <c r="K54" s="54">
         <f>SUM(L54:Q54)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L54" s="44"/>
       <c r="M54" s="45"/>
       <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
+      <c r="O54" s="45">
+        <v>1.5</v>
+      </c>
       <c r="P54" s="45"/>
       <c r="Q54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="95"/>
-      <c r="B55" s="121" t="s">
+      <c r="A55" s="76"/>
+      <c r="B55" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="92"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4270,13 +4290,13 @@
       <c r="Q55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="96"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4292,17 +4312,17 @@
       <c r="Q56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="95"/>
-      <c r="B57" s="121" t="s">
+      <c r="A57" s="76"/>
+      <c r="B57" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4331,13 +4351,13 @@
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="96"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4362,15 +4382,15 @@
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="119"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="103"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
@@ -4406,13 +4426,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="120"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="104"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
@@ -4448,17 +4468,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="123">
+      <c r="A61" s="109">
         <v>1</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="97"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="101"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4474,13 +4494,13 @@
       <c r="Q61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="124"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="102"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="92"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4496,17 +4516,17 @@
       <c r="Q62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="123"/>
-      <c r="B63" s="137" t="s">
+      <c r="A63" s="109"/>
+      <c r="B63" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="91" t="s">
+      <c r="C63" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="92"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="109"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="93"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4531,13 +4551,13 @@
       <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="124"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="110"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="94"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4556,17 +4576,17 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="123"/>
-      <c r="B65" s="137" t="s">
+      <c r="A65" s="109"/>
+      <c r="B65" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="91" t="s">
+      <c r="C65" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="92"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="109"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="93"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4591,13 +4611,13 @@
       <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="124"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="110"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="94"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4616,17 +4636,17 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="123"/>
-      <c r="B67" s="137" t="s">
+      <c r="A67" s="109"/>
+      <c r="B67" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="92"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="109"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="93"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4651,13 +4671,13 @@
       <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="124"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="110"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="94"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4676,17 +4696,17 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="123">
+      <c r="A69" s="109">
         <v>2</v>
       </c>
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="101"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="91"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4702,13 +4722,13 @@
       <c r="Q69" s="63"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="124"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="102"/>
+      <c r="A70" s="110"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="92"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4724,17 +4744,17 @@
       <c r="Q70" s="67"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="123"/>
-      <c r="B71" s="137" t="s">
+      <c r="A71" s="109"/>
+      <c r="B71" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="91" t="s">
+      <c r="C71" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="92"/>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="135"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="127"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4759,13 +4779,13 @@
       <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="124"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="175"/>
-      <c r="F72" s="175"/>
-      <c r="G72" s="136"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="112"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4784,17 +4804,17 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="89" t="s">
+      <c r="A73" s="118"/>
+      <c r="B73" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="91" t="s">
+      <c r="C73" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="97"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="178"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4819,13 +4839,13 @@
       <c r="Q73" s="68"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="178"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="126"/>
-      <c r="D74" s="176"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="A74" s="119"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="178"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4841,17 +4861,17 @@
       <c r="Q74" s="29"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="172"/>
-      <c r="B75" s="128" t="s">
+      <c r="A75" s="107"/>
+      <c r="B75" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="128" t="s">
+      <c r="C75" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="171"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="178"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4874,13 +4894,13 @@
       <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="173"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="178"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4899,15 +4919,15 @@
       <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="119"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4943,13 +4963,13 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="120"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="104"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -4985,17 +5005,17 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="123">
+      <c r="A79" s="109">
         <v>1</v>
       </c>
-      <c r="B79" s="91" t="s">
+      <c r="B79" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="101"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="91"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5011,13 +5031,13 @@
       <c r="Q79" s="63"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="124"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="100"/>
-      <c r="F80" s="100"/>
-      <c r="G80" s="102"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="92"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5033,17 +5053,17 @@
       <c r="Q80" s="67"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="123"/>
-      <c r="B81" s="137" t="s">
+      <c r="A81" s="109"/>
+      <c r="B81" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="135"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="127"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5068,13 +5088,13 @@
       <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="124"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="136"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="112"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5093,17 +5113,17 @@
       <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="123"/>
-      <c r="B83" s="137" t="s">
+      <c r="A83" s="109"/>
+      <c r="B83" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="135"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5130,13 +5150,13 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="124"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="136"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="112"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5155,15 +5175,15 @@
       <c r="Q84" s="29"/>
     </row>
     <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="111" t="s">
+      <c r="A85" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="112"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="119"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="103"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5199,13 +5219,13 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="114"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="120"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="104"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5241,17 +5261,17 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="95">
+      <c r="A87" s="76">
         <v>1</v>
       </c>
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="97"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="101"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="91"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5267,13 +5287,13 @@
       <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="96"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="102"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5289,17 +5309,17 @@
       <c r="Q88" s="67"/>
     </row>
     <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="95"/>
-      <c r="B89" s="89" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="92"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="103"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="86"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5324,13 +5344,13 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="96"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="94"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="90"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5349,17 +5369,17 @@
       <c r="Q90" s="45"/>
     </row>
     <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="95"/>
-      <c r="B91" s="89" t="s">
+      <c r="A91" s="76"/>
+      <c r="B91" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="92"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="103"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="86"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5384,13 +5404,13 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="96"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="90"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="79"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5409,17 +5429,17 @@
       <c r="Q92" s="45"/>
     </row>
     <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="95">
+      <c r="A93" s="76">
         <v>2</v>
       </c>
-      <c r="B93" s="91" t="s">
+      <c r="B93" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="97"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="101"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5435,13 +5455,13 @@
       <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="96"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="100"/>
-      <c r="G94" s="102"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5457,17 +5477,17 @@
       <c r="Q94" s="67"/>
     </row>
     <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="95"/>
-      <c r="B95" s="89" t="s">
+      <c r="A95" s="76"/>
+      <c r="B95" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="92"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="109"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="93"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5492,13 +5512,13 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="96"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="94"/>
+      <c r="A96" s="77"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="85"/>
       <c r="F96" s="85"/>
-      <c r="G96" s="110"/>
+      <c r="G96" s="94"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5517,17 +5537,17 @@
       <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="95"/>
-      <c r="B97" s="89" t="s">
+      <c r="A97" s="76"/>
+      <c r="B97" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="91" t="s">
+      <c r="C97" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="92"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="103"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="86"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5552,13 +5572,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="96"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="93"/>
-      <c r="D98" s="94"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="85"/>
       <c r="F98" s="85"/>
-      <c r="G98" s="90"/>
+      <c r="G98" s="79"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5577,15 +5597,15 @@
       <c r="Q98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="111" t="s">
+      <c r="A99" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="119"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="103"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5627,13 +5647,13 @@
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="114"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="120"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="104"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5675,17 +5695,17 @@
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="95">
+      <c r="A101" s="76">
         <v>1</v>
       </c>
-      <c r="B101" s="91" t="s">
+      <c r="B101" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="97"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="101"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="91"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5707,13 +5727,13 @@
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="96"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="102"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="92"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5735,17 +5755,17 @@
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="95"/>
-      <c r="B103" s="89" t="s">
+      <c r="A103" s="76"/>
+      <c r="B103" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="91" t="s">
+      <c r="C103" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="92"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="109"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="93"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5776,13 +5796,13 @@
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="96"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="110"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="94"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5807,17 +5827,17 @@
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="95">
+      <c r="A105" s="76">
         <v>2</v>
       </c>
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="97"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="101"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="89"/>
+      <c r="G105" s="91"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5836,13 +5856,13 @@
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="96"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="100"/>
-      <c r="G106" s="102"/>
+      <c r="A106" s="77"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="92"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5864,17 +5884,17 @@
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="95"/>
-      <c r="B107" s="89" t="s">
+      <c r="A107" s="76"/>
+      <c r="B107" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="91" t="s">
+      <c r="C107" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="92"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="103"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="86"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5905,13 +5925,13 @@
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="96"/>
-      <c r="B108" s="90"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="94"/>
+      <c r="A108" s="77"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="83"/>
       <c r="E108" s="85"/>
       <c r="F108" s="85"/>
-      <c r="G108" s="90"/>
+      <c r="G108" s="79"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5936,17 +5956,17 @@
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="95"/>
-      <c r="B109" s="89" t="s">
+      <c r="A109" s="76"/>
+      <c r="B109" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="91" t="s">
+      <c r="C109" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="92"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="103"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="86"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5977,13 +5997,13 @@
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="96"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="94"/>
+      <c r="A110" s="77"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="83"/>
       <c r="E110" s="85"/>
       <c r="F110" s="85"/>
-      <c r="G110" s="90"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6014,6 +6034,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="302">
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A97:A98"/>
@@ -6038,356 +6336,86 @@
     <mergeCell ref="C89:D90"/>
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:Q32">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:Q98">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:Q12">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:Q14">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:Q48">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="L45:Q47 L48:N48 P48:Q48">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:Q50">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:Q58">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L57), L57&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L57), L57&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(M28), M28&gt;0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M28), M28&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(O48), O48&gt;0)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M28), M28&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O48), O48&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6597,18 +6625,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6630,6 +6658,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6643,12 +6679,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CAED53-369E-4160-987E-02059C1AD32D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C00A962-9C18-460E-BDC2-7F825943E7C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>チケット予約システム</t>
     <rPh sb="4" eb="6">
@@ -1563,11 +1563,68 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1575,50 +1632,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1656,9 +1704,156 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1668,26 +1863,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1695,188 +1875,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,10 +2500,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2522,108 +2522,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="128" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="122">
+      <c r="L1" s="138">
         <v>43984</v>
       </c>
-      <c r="M1" s="123"/>
-      <c r="N1" s="122">
+      <c r="M1" s="139"/>
+      <c r="N1" s="138">
         <v>43985</v>
       </c>
-      <c r="O1" s="123"/>
-      <c r="P1" s="122">
+      <c r="O1" s="139"/>
+      <c r="P1" s="138">
         <v>43986</v>
       </c>
-      <c r="Q1" s="123"/>
+      <c r="Q1" s="139"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="120" t="s">
+      <c r="A2" s="154"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="120" t="s">
+      <c r="M2" s="147"/>
+      <c r="N2" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="120" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="121"/>
+      <c r="Q2" s="147"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="126" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="124" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="124" t="s">
+      <c r="O3" s="165"/>
+      <c r="P3" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="125"/>
+      <c r="Q3" s="165"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="141"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="157"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="142"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2644,15 +2644,15 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="133"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2685,13 +2685,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="134"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2725,15 +2725,15 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="152"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2767,13 +2767,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="153"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2808,19 +2808,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76">
+      <c r="A9" s="95">
         <v>1</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89" t="s">
+      <c r="C9" s="97"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2836,13 +2836,13 @@
       <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="92"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2858,19 +2858,19 @@
       <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="74" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="86"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="103"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2895,13 +2895,13 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="79"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2922,19 +2922,19 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="166"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="74" t="s">
+      <c r="D13" s="92"/>
+      <c r="E13" s="107" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="58"/>
-      <c r="G13" s="158"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2961,13 +2961,13 @@
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="167"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="75"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="159"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2990,19 +2990,19 @@
       <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76">
+      <c r="A15" s="95">
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89" t="s">
+      <c r="C15" s="97"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="91"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3021,13 +3021,13 @@
       <c r="Q15" s="63"/>
     </row>
     <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="92"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="102"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3046,19 +3046,19 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="74" t="s">
+      <c r="D17" s="92"/>
+      <c r="E17" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="86"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3085,13 +3085,13 @@
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="79"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3114,19 +3114,19 @@
       <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="162" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="74" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="107" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="84"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3153,11 +3153,11 @@
       <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="168"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="75"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="59"/>
       <c r="G20" s="85"/>
       <c r="H20" s="48" t="str">
@@ -3182,19 +3182,19 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="118"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="158"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3221,13 +3221,13 @@
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="169"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="171"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3250,15 +3250,15 @@
       <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="150"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
@@ -3294,13 +3294,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="153"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3336,19 +3336,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="109">
+      <c r="A25" s="123">
         <v>1</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89" t="s">
+      <c r="C25" s="97"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="91"/>
+      <c r="G25" s="101"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3364,13 +3364,13 @@
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="110"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="92"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="102"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3386,21 +3386,21 @@
       <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="109"/>
-      <c r="B27" s="111" t="s">
+      <c r="A27" s="123"/>
+      <c r="B27" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="74" t="s">
+      <c r="D27" s="92"/>
+      <c r="E27" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="127"/>
+      <c r="G27" s="135"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3423,13 +3423,13 @@
       <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="110"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="112"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3450,21 +3450,21 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="166"/>
-      <c r="B29" s="78" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="74" t="s">
+      <c r="D29" s="92"/>
+      <c r="E29" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="86"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3489,13 +3489,13 @@
       <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="167"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="174"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3516,21 +3516,21 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="166"/>
-      <c r="B31" s="78" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="74" t="s">
+      <c r="D31" s="92"/>
+      <c r="E31" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3555,13 +3555,13 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="167"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="79"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3582,21 +3582,21 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="118"/>
-      <c r="B33" s="84" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="74" t="s">
+      <c r="D33" s="92"/>
+      <c r="E33" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="158"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3621,13 +3621,13 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="168"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="159"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3646,19 +3646,19 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="109">
+      <c r="A35" s="123">
         <v>2</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="91"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="101"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3674,13 +3674,13 @@
       <c r="Q35" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="110"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="92"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="102"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3696,21 +3696,21 @@
       <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="109"/>
-      <c r="B37" s="111" t="s">
+      <c r="A37" s="123"/>
+      <c r="B37" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="74" t="s">
+      <c r="D37" s="92"/>
+      <c r="E37" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="93"/>
+      <c r="F37" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="109"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3735,13 +3735,13 @@
       <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="110"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="94"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="110"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3762,21 +3762,21 @@
       <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="118"/>
-      <c r="B39" s="78" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="175" t="s">
+      <c r="D39" s="92"/>
+      <c r="E39" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="176"/>
+      <c r="F39" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="106"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3800,13 +3800,13 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="168"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="176"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3826,21 +3826,21 @@
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="105"/>
-      <c r="B41" s="164" t="s">
+      <c r="A41" s="128"/>
+      <c r="B41" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="175" t="s">
+      <c r="D41" s="92"/>
+      <c r="E41" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="177"/>
+      <c r="F41" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="74"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3864,13 +3864,13 @@
       <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="177"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3891,15 +3891,15 @@
       <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="161"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
@@ -3935,13 +3935,13 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="98"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="153"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="134"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -3976,20 +3976,24 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="76">
+      <c r="A45" s="95">
         <v>1</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="91"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="101"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I45" s="60"/>
       <c r="J45" s="60"/>
@@ -4002,16 +4006,16 @@
       <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="77"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="92"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="102"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I46" s="64"/>
       <c r="J46" s="64"/>
@@ -4024,20 +4028,24 @@
       <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="76"/>
-      <c r="B47" s="78" t="s">
+      <c r="A47" s="95"/>
+      <c r="B47" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="93"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="109"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I47" s="51" t="s">
         <v>48</v>
@@ -4059,16 +4067,16 @@
       <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="77"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="94"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
@@ -4086,20 +4094,24 @@
       <c r="Q48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="166"/>
-      <c r="B49" s="78" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="172"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="87"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I49" s="51" t="s">
         <v>50</v>
@@ -4121,16 +4133,16 @@
       <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="167"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="173"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="88"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
@@ -4148,20 +4160,24 @@
       <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="76">
+      <c r="A51" s="95">
         <v>2</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="91"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="101"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I51" s="60"/>
       <c r="J51" s="60"/>
@@ -4174,16 +4190,16 @@
       <c r="Q51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="77"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="92"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="102"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I52" s="64"/>
       <c r="J52" s="64"/>
@@ -4196,17 +4212,19 @@
       <c r="Q52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="76"/>
-      <c r="B53" s="78" t="s">
+      <c r="A53" s="95"/>
+      <c r="B53" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="86"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="103"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4231,13 +4249,13 @@
       <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="77"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4258,17 +4276,19 @@
       <c r="Q54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="76"/>
-      <c r="B55" s="162" t="s">
+      <c r="A55" s="95"/>
+      <c r="B55" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="74"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4290,13 +4310,13 @@
       <c r="Q55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="77"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4312,17 +4332,19 @@
       <c r="Q56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="76"/>
-      <c r="B57" s="162" t="s">
+      <c r="A57" s="95"/>
+      <c r="B57" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="74"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4351,13 +4373,13 @@
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="77"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="177"/>
-      <c r="G58" s="177"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4382,15 +4404,15 @@
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="103"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="119"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
@@ -4426,13 +4448,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="98"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="104"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="120"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
@@ -4468,17 +4490,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="109">
+      <c r="A61" s="123">
         <v>1</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="91"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="101"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4494,13 +4516,13 @@
       <c r="Q61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="110"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="92"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="102"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4516,17 +4538,17 @@
       <c r="Q62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="109"/>
-      <c r="B63" s="111" t="s">
+      <c r="A63" s="123"/>
+      <c r="B63" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="93"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="109"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4551,13 +4573,13 @@
       <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="110"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="94"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="110"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4576,17 +4598,17 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="109"/>
-      <c r="B65" s="111" t="s">
+      <c r="A65" s="123"/>
+      <c r="B65" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="81"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="93"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="109"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4611,13 +4633,13 @@
       <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="110"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="94"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="110"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4636,17 +4658,17 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="109"/>
-      <c r="B67" s="111" t="s">
+      <c r="A67" s="123"/>
+      <c r="B67" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="81"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="93"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="109"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4671,13 +4693,13 @@
       <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="110"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="94"/>
+      <c r="A68" s="124"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4696,17 +4718,17 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="109">
+      <c r="A69" s="123">
         <v>2</v>
       </c>
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="91"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="101"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4722,13 +4744,13 @@
       <c r="Q69" s="63"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="110"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="92"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="102"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4744,17 +4766,17 @@
       <c r="Q70" s="67"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="109"/>
-      <c r="B71" s="111" t="s">
+      <c r="A71" s="123"/>
+      <c r="B71" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="81"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="127"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="135"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4779,13 +4801,13 @@
       <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="110"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="112"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="136"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4804,17 +4826,17 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="118"/>
-      <c r="B73" s="78" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="178"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4839,13 +4861,13 @@
       <c r="Q73" s="68"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="119"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="178"/>
+      <c r="A74" s="178"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4861,17 +4883,17 @@
       <c r="Q74" s="29"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="107"/>
-      <c r="B75" s="105" t="s">
+      <c r="A75" s="172"/>
+      <c r="B75" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="105" t="s">
+      <c r="C75" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="178"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4894,13 +4916,13 @@
       <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="108"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="178"/>
+      <c r="A76" s="173"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4919,15 +4941,15 @@
       <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="103"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="119"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4963,13 +4985,13 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="98"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="104"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="120"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -5005,17 +5027,17 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="109">
+      <c r="A79" s="123">
         <v>1</v>
       </c>
-      <c r="B79" s="80" t="s">
+      <c r="B79" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="91"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="101"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5031,13 +5053,13 @@
       <c r="Q79" s="63"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="110"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="92"/>
+      <c r="A80" s="124"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="102"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5053,17 +5075,17 @@
       <c r="Q80" s="67"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="109"/>
-      <c r="B81" s="111" t="s">
+      <c r="A81" s="123"/>
+      <c r="B81" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="127"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="135"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5088,13 +5110,13 @@
       <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="110"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="112"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="136"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5113,17 +5135,17 @@
       <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="109"/>
-      <c r="B83" s="111" t="s">
+      <c r="A83" s="123"/>
+      <c r="B83" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="127"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="135"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5150,13 +5172,13 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="110"/>
-      <c r="B84" s="112"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="112"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="136"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5175,15 +5197,15 @@
       <c r="Q84" s="29"/>
     </row>
     <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="103"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="119"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5219,13 +5241,13 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="98"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="104"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="120"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5261,17 +5283,17 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="76">
+      <c r="A87" s="95">
         <v>1</v>
       </c>
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
-      <c r="G87" s="91"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="101"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5287,13 +5309,13 @@
       <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="77"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="92"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="100"/>
+      <c r="G88" s="102"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5309,17 +5331,17 @@
       <c r="Q88" s="67"/>
     </row>
     <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="76"/>
-      <c r="B89" s="78" t="s">
+      <c r="A89" s="95"/>
+      <c r="B89" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="81"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="86"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="103"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5344,13 +5366,13 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="77"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="96"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5369,17 +5391,17 @@
       <c r="Q90" s="45"/>
     </row>
     <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="76"/>
-      <c r="B91" s="78" t="s">
+      <c r="A91" s="95"/>
+      <c r="B91" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="86"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="103"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5404,13 +5426,13 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="77"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="79"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5429,17 +5451,17 @@
       <c r="Q92" s="45"/>
     </row>
     <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="76">
+      <c r="A93" s="95">
         <v>2</v>
       </c>
-      <c r="B93" s="80" t="s">
+      <c r="B93" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="91"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="101"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5455,13 +5477,13 @@
       <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="77"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="92"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="102"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5477,17 +5499,17 @@
       <c r="Q94" s="67"/>
     </row>
     <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="76"/>
-      <c r="B95" s="78" t="s">
+      <c r="A95" s="95"/>
+      <c r="B95" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="93"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="109"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5512,13 +5534,13 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="77"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="83"/>
+      <c r="A96" s="96"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="94"/>
       <c r="E96" s="85"/>
       <c r="F96" s="85"/>
-      <c r="G96" s="94"/>
+      <c r="G96" s="110"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5537,17 +5559,17 @@
       <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="76"/>
-      <c r="B97" s="78" t="s">
+      <c r="A97" s="95"/>
+      <c r="B97" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="80" t="s">
+      <c r="C97" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="81"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="86"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="103"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5572,13 +5594,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="77"/>
-      <c r="B98" s="79"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="83"/>
+      <c r="A98" s="96"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="94"/>
       <c r="E98" s="85"/>
       <c r="F98" s="85"/>
-      <c r="G98" s="79"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5597,15 +5619,15 @@
       <c r="Q98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="95" t="s">
+      <c r="A99" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="103"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5647,13 +5669,13 @@
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="98"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="104"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="120"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5695,17 +5717,17 @@
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="76">
+      <c r="A101" s="95">
         <v>1</v>
       </c>
-      <c r="B101" s="80" t="s">
+      <c r="B101" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="87"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="91"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="101"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5727,13 +5749,13 @@
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="77"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="92"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="100"/>
+      <c r="G102" s="102"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5755,17 +5777,17 @@
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="76"/>
-      <c r="B103" s="78" t="s">
+      <c r="A103" s="95"/>
+      <c r="B103" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="93"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="109"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5796,13 +5818,13 @@
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="77"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="94"/>
+      <c r="A104" s="96"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="110"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5827,17 +5849,17 @@
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="76">
+      <c r="A105" s="95">
         <v>2</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B105" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="87"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="89"/>
-      <c r="F105" s="89"/>
-      <c r="G105" s="91"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="101"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5856,13 +5878,13 @@
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="77"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="92"/>
+      <c r="A106" s="96"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="100"/>
+      <c r="G106" s="102"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5884,17 +5906,17 @@
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="76"/>
-      <c r="B107" s="78" t="s">
+      <c r="A107" s="95"/>
+      <c r="B107" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="80" t="s">
+      <c r="C107" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="81"/>
-      <c r="E107" s="84"/>
-      <c r="F107" s="84"/>
-      <c r="G107" s="86"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="103"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5925,13 +5947,13 @@
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="77"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="83"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="94"/>
       <c r="E108" s="85"/>
       <c r="F108" s="85"/>
-      <c r="G108" s="79"/>
+      <c r="G108" s="90"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5956,17 +5978,17 @@
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="76"/>
-      <c r="B109" s="78" t="s">
+      <c r="A109" s="95"/>
+      <c r="B109" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="81"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="86"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="103"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5997,13 +6019,13 @@
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="77"/>
-      <c r="B110" s="79"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="83"/>
+      <c r="A110" s="96"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="94"/>
       <c r="E110" s="85"/>
       <c r="F110" s="85"/>
-      <c r="G110" s="79"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6033,20 +6055,272 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="302">
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
+  <mergeCells count="304">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A19:A20"/>
@@ -6071,271 +6345,21 @@
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
@@ -6422,13 +6446,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E111:E65576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"新規作成,更新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F84 F41 F101:F110 F9:F21 F61:F69 F75 F87:F98 F57 F71:F73 F45:F55 F25:F29 F31 F33 F35:F39" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F84 F41 F101:F110 F9:F21 F61:F69 F75 F87:F98 F57 F71:F73 F35:F39 F25:F29 F31 F33 F45:F49 F51:F55" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"着手,完了"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E69 E35 E25 E59:E61 E77:E79 E85:E87 E93 E15 E9 E51 E45 E99:E101 E105" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"新規作成,更新,レビュー参加"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E84 E63:E68 E41 E21 E57 E89:E92 E33 E103:E104 E47:E50 E75 E95:E98 E107:E110 E37:E39 E71:E73 E53:E55 E27:E29 E31 E17:E19 E11:E13" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E84 E63:E68 E41 E21 E57 E89:E92 E33 E103:E104 E11:E13 E75 E95:E98 E107:E110 E37:E39 E71:E73 E53:E55 E27:E29 E31 E17:E19 E47:E49" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"新規作成,更新,レビュー参加,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6625,18 +6649,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6658,14 +6682,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6679,4 +6695,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C00A962-9C18-460E-BDC2-7F825943E7C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4848D403-BB65-445E-938B-A261ED7B3151}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
   <si>
     <t>チケット予約システム</t>
     <rPh sb="4" eb="6">
@@ -1563,320 +1563,320 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,10 +2500,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F57" sqref="F57:F58"/>
+      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2522,108 +2522,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="150" t="s">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="138">
+      <c r="L1" s="122">
         <v>43984</v>
       </c>
-      <c r="M1" s="139"/>
-      <c r="N1" s="138">
+      <c r="M1" s="123"/>
+      <c r="N1" s="122">
         <v>43985</v>
       </c>
-      <c r="O1" s="139"/>
-      <c r="P1" s="138">
+      <c r="O1" s="123"/>
+      <c r="P1" s="122">
         <v>43986</v>
       </c>
-      <c r="Q1" s="139"/>
+      <c r="Q1" s="123"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="146" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="147"/>
-      <c r="N2" s="146" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="146" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="147"/>
+      <c r="Q2" s="121"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="154"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="166" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="164" t="s">
+      <c r="M3" s="125"/>
+      <c r="N3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="165"/>
-      <c r="P3" s="164" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="165"/>
+      <c r="Q3" s="125"/>
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="142"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2644,15 +2644,15 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2685,13 +2685,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="170"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="P6" s="25">
         <f>SUM(P8,P24,P44,P60,P78,P86,P100)</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q6" s="25">
         <f>SUM(Q8,Q24,Q44,Q60,Q78,Q86,Q100)</f>
@@ -2725,15 +2725,15 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2767,13 +2767,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="134"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="153"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2808,19 +2808,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95">
+      <c r="A9" s="76">
         <v>1</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="101"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2836,13 +2836,13 @@
       <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="96"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2858,19 +2858,19 @@
       <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="95"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="107" t="s">
+      <c r="D11" s="81"/>
+      <c r="E11" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="103"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2895,13 +2895,13 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="96"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2922,19 +2922,19 @@
       <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="89" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="107" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="58"/>
-      <c r="G13" s="83"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2961,13 +2961,13 @@
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="108"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="86"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2990,19 +2990,19 @@
       <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="95">
+      <c r="A15" s="76">
         <v>2</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3021,13 +3021,13 @@
       <c r="Q15" s="63"/>
     </row>
     <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="96"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="102"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3046,19 +3046,19 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="107" t="s">
+      <c r="D17" s="81"/>
+      <c r="E17" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="103"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3085,13 +3085,13 @@
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="96"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3114,19 +3114,19 @@
       <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="121" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="107" t="s">
+      <c r="D19" s="81"/>
+      <c r="E19" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="81"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3153,11 +3153,11 @@
       <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="108"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="59"/>
       <c r="G20" s="85"/>
       <c r="H20" s="48" t="str">
@@ -3182,19 +3182,19 @@
       <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="89" t="s">
+      <c r="A21" s="118"/>
+      <c r="B21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="158"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3221,13 +3221,13 @@
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="84"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="171"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3250,15 +3250,15 @@
       <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
@@ -3294,13 +3294,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="134"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3336,19 +3336,19 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="123">
+      <c r="A25" s="109">
         <v>1</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99" t="s">
+      <c r="C25" s="87"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="101"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3364,13 +3364,13 @@
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="124"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="102"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3386,21 +3386,21 @@
       <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="123"/>
-      <c r="B27" s="137" t="s">
+      <c r="A27" s="109"/>
+      <c r="B27" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="107" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="107" t="s">
+      <c r="F27" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="135"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3423,13 +3423,13 @@
       <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="124"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="136"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3450,21 +3450,21 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="89" t="s">
+      <c r="A29" s="166"/>
+      <c r="B29" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="107" t="s">
+      <c r="D29" s="81"/>
+      <c r="E29" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="103"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3489,13 +3489,13 @@
       <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="104"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="174"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3516,21 +3516,21 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="166"/>
+      <c r="B31" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="107" t="s">
+      <c r="D31" s="81"/>
+      <c r="E31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="107" t="s">
+      <c r="F31" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="89"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3555,13 +3555,13 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="90"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3582,21 +3582,21 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="81" t="s">
+      <c r="A33" s="118"/>
+      <c r="B33" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="107" t="s">
+      <c r="D33" s="81"/>
+      <c r="E33" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="107" t="s">
+      <c r="F33" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="158"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3621,13 +3621,13 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="86"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="159"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3646,19 +3646,19 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="123">
+      <c r="A35" s="109">
         <v>2</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="101"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3674,13 +3674,13 @@
       <c r="Q35" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="124"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="102"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3696,21 +3696,21 @@
       <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="123"/>
-      <c r="B37" s="137" t="s">
+      <c r="A37" s="109"/>
+      <c r="B37" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="107" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="109"/>
+      <c r="G37" s="93"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3735,13 +3735,13 @@
       <c r="Q37" s="28"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="124"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="110"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3762,21 +3762,21 @@
       <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="118"/>
+      <c r="B39" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="105" t="s">
+      <c r="D39" s="81"/>
+      <c r="E39" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="105" t="s">
+      <c r="F39" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="106"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3800,13 +3800,13 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="80"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3826,21 +3826,21 @@
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="128"/>
-      <c r="B41" s="125" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="105" t="s">
+      <c r="D41" s="81"/>
+      <c r="E41" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="74"/>
+      <c r="G41" s="177"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3864,13 +3864,13 @@
       <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="74"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="177"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3891,15 +3891,15 @@
       <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="129" t="s">
+      <c r="A43" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="161"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
@@ -3935,13 +3935,13 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="134"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="153"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -3967,8 +3967,7 @@
         <v>12.5</v>
       </c>
       <c r="P44" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q44" s="27">
         <f t="shared" si="5"/>
@@ -3976,21 +3975,21 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="95">
+      <c r="A45" s="76">
         <v>1</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="99" t="s">
+      <c r="C45" s="87"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="101"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4006,13 +4005,13 @@
       <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="96"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="102"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4028,21 +4027,21 @@
       <c r="Q46" s="67"/>
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="95"/>
-      <c r="B47" s="89" t="s">
+      <c r="A47" s="76"/>
+      <c r="B47" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="107" t="s">
+      <c r="D47" s="81"/>
+      <c r="E47" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="107" t="s">
+      <c r="F47" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="109"/>
+      <c r="G47" s="93"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4067,13 +4066,13 @@
       <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="96"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="110"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="94"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4082,7 +4081,7 @@
       <c r="J48" s="57"/>
       <c r="K48" s="54">
         <f>SUM(L48:Q48)</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="L48" s="44"/>
       <c r="M48" s="45"/>
@@ -4090,25 +4089,27 @@
       <c r="O48" s="45">
         <v>6.5</v>
       </c>
-      <c r="P48" s="45"/>
+      <c r="P48" s="45">
+        <v>4</v>
+      </c>
       <c r="Q48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="76"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="166"/>
+      <c r="B49" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="107" t="s">
+      <c r="D49" s="81"/>
+      <c r="E49" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="107" t="s">
+      <c r="F49" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="87"/>
+      <c r="G49" s="172"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4133,13 +4134,13 @@
       <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="77"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="88"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="173"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4148,7 +4149,7 @@
       <c r="J50" s="57"/>
       <c r="K50" s="54">
         <f>SUM(L50:Q50)</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="L50" s="44"/>
       <c r="M50" s="45"/>
@@ -4156,25 +4157,27 @@
       <c r="O50" s="45">
         <v>6.5</v>
       </c>
-      <c r="P50" s="45"/>
+      <c r="P50" s="45">
+        <v>4</v>
+      </c>
       <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="95">
+      <c r="A51" s="76">
         <v>2</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="99" t="s">
+      <c r="C51" s="87"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="99" t="s">
+      <c r="F51" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="101"/>
+      <c r="G51" s="91"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4190,13 +4193,13 @@
       <c r="Q51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="96"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="102"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4212,22 +4215,24 @@
       <c r="Q52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="95"/>
-      <c r="B53" s="89" t="s">
+      <c r="A53" s="76"/>
+      <c r="B53" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C53" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107" t="s">
+      <c r="D53" s="81"/>
+      <c r="E53" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="103"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I53" s="46" t="s">
         <v>24</v>
@@ -4249,22 +4254,22 @@
       <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="96"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="90"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="K54" s="54">
         <f>SUM(L54:Q54)</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L54" s="44"/>
       <c r="M54" s="45"/>
@@ -4272,23 +4277,25 @@
       <c r="O54" s="45">
         <v>1.5</v>
       </c>
-      <c r="P54" s="45"/>
+      <c r="P54" s="45">
+        <v>2.5</v>
+      </c>
       <c r="Q54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="95"/>
-      <c r="B55" s="121" t="s">
+      <c r="A55" s="76"/>
+      <c r="B55" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="92"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74" t="s">
+      <c r="D55" s="81"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="74"/>
+      <c r="G55" s="177"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4310,13 +4317,13 @@
       <c r="Q55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="96"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4328,23 +4335,25 @@
       <c r="M56" s="45"/>
       <c r="N56" s="45"/>
       <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
+      <c r="P56" s="45">
+        <v>2.5</v>
+      </c>
       <c r="Q56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="95"/>
-      <c r="B57" s="121" t="s">
+      <c r="A57" s="76"/>
+      <c r="B57" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74" t="s">
+      <c r="D57" s="81"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="74"/>
+      <c r="G57" s="177"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4373,13 +4382,13 @@
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="96"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4388,13 +4397,15 @@
       <c r="J58" s="52"/>
       <c r="K58" s="54">
         <f>SUM(L58:Q58)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L58" s="44"/>
       <c r="M58" s="45"/>
       <c r="N58" s="45"/>
       <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
+      <c r="P58" s="45">
+        <v>0.5</v>
+      </c>
       <c r="Q58" s="45"/>
       <c r="R58" s="42"/>
       <c r="S58" s="42"/>
@@ -4404,15 +4415,15 @@
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="119"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="103"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
@@ -4448,13 +4459,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="120"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="104"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
@@ -4490,17 +4501,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="123">
+      <c r="A61" s="109">
         <v>1</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="97"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="101"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4516,13 +4527,13 @@
       <c r="Q61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="124"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="102"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="92"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4538,17 +4549,17 @@
       <c r="Q62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="123"/>
-      <c r="B63" s="137" t="s">
+      <c r="A63" s="109"/>
+      <c r="B63" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="91" t="s">
+      <c r="C63" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="92"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="109"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="93"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4573,13 +4584,13 @@
       <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="124"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="110"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="94"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4598,17 +4609,17 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="123"/>
-      <c r="B65" s="137" t="s">
+      <c r="A65" s="109"/>
+      <c r="B65" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="91" t="s">
+      <c r="C65" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="92"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="109"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="93"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4633,13 +4644,13 @@
       <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="124"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="110"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="94"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4658,17 +4669,17 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="123"/>
-      <c r="B67" s="137" t="s">
+      <c r="A67" s="109"/>
+      <c r="B67" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="92"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="109"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="93"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4693,13 +4704,13 @@
       <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="124"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="110"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="94"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4718,17 +4729,17 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="123">
+      <c r="A69" s="109">
         <v>2</v>
       </c>
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="101"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="91"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4744,13 +4755,13 @@
       <c r="Q69" s="63"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="124"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="102"/>
+      <c r="A70" s="110"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="92"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4766,17 +4777,17 @@
       <c r="Q70" s="67"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="123"/>
-      <c r="B71" s="137" t="s">
+      <c r="A71" s="109"/>
+      <c r="B71" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="91" t="s">
+      <c r="C71" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="92"/>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="135"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="127"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4801,13 +4812,13 @@
       <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="124"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="175"/>
-      <c r="F72" s="175"/>
-      <c r="G72" s="136"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="112"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4826,17 +4837,17 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="89" t="s">
+      <c r="A73" s="118"/>
+      <c r="B73" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="91" t="s">
+      <c r="C73" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="97"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="178"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4861,13 +4872,13 @@
       <c r="Q73" s="68"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="178"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="126"/>
-      <c r="D74" s="176"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="A74" s="119"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="178"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4883,17 +4894,17 @@
       <c r="Q74" s="29"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="172"/>
-      <c r="B75" s="128" t="s">
+      <c r="A75" s="107"/>
+      <c r="B75" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="128" t="s">
+      <c r="C75" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="171"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="75"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="178"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4916,13 +4927,13 @@
       <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="173"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="178"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4941,15 +4952,15 @@
       <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="119"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4985,13 +4996,13 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="120"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="104"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -5027,17 +5038,17 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="123">
+      <c r="A79" s="109">
         <v>1</v>
       </c>
-      <c r="B79" s="91" t="s">
+      <c r="B79" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="101"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="91"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5053,13 +5064,13 @@
       <c r="Q79" s="63"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="124"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="100"/>
-      <c r="F80" s="100"/>
-      <c r="G80" s="102"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="92"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5075,17 +5086,17 @@
       <c r="Q80" s="67"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="123"/>
-      <c r="B81" s="137" t="s">
+      <c r="A81" s="109"/>
+      <c r="B81" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="135"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="127"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5110,13 +5121,13 @@
       <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="124"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="136"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="112"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5135,17 +5146,17 @@
       <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="123"/>
-      <c r="B83" s="137" t="s">
+      <c r="A83" s="109"/>
+      <c r="B83" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="135"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5172,13 +5183,13 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="124"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="136"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="112"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5197,15 +5208,15 @@
       <c r="Q84" s="29"/>
     </row>
     <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="111" t="s">
+      <c r="A85" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="112"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="119"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="103"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5241,13 +5252,13 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="114"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="120"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="104"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5283,17 +5294,17 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="95">
+      <c r="A87" s="76">
         <v>1</v>
       </c>
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="97"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="101"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="91"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5309,13 +5320,13 @@
       <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="96"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="102"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5331,17 +5342,17 @@
       <c r="Q88" s="67"/>
     </row>
     <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="95"/>
-      <c r="B89" s="89" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="92"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="103"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="86"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5366,13 +5377,13 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="96"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="94"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="90"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5391,17 +5402,17 @@
       <c r="Q90" s="45"/>
     </row>
     <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="95"/>
-      <c r="B91" s="89" t="s">
+      <c r="A91" s="76"/>
+      <c r="B91" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="92"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="103"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="86"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5426,13 +5437,13 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="96"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="90"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="79"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5451,17 +5462,17 @@
       <c r="Q92" s="45"/>
     </row>
     <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="95">
+      <c r="A93" s="76">
         <v>2</v>
       </c>
-      <c r="B93" s="91" t="s">
+      <c r="B93" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="97"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="101"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5477,13 +5488,13 @@
       <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="96"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="100"/>
-      <c r="G94" s="102"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5499,17 +5510,17 @@
       <c r="Q94" s="67"/>
     </row>
     <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="95"/>
-      <c r="B95" s="89" t="s">
+      <c r="A95" s="76"/>
+      <c r="B95" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="92"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="109"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="93"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5534,13 +5545,13 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="96"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="94"/>
+      <c r="A96" s="77"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="85"/>
       <c r="F96" s="85"/>
-      <c r="G96" s="110"/>
+      <c r="G96" s="94"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5559,17 +5570,17 @@
       <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="95"/>
-      <c r="B97" s="89" t="s">
+      <c r="A97" s="76"/>
+      <c r="B97" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="91" t="s">
+      <c r="C97" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="92"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="103"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="86"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5594,13 +5605,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="96"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="93"/>
-      <c r="D98" s="94"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="85"/>
       <c r="F98" s="85"/>
-      <c r="G98" s="90"/>
+      <c r="G98" s="79"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5619,15 +5630,15 @@
       <c r="Q98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="111" t="s">
+      <c r="A99" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="119"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="103"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5669,13 +5680,13 @@
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="114"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="120"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="104"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5717,17 +5728,17 @@
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="95">
+      <c r="A101" s="76">
         <v>1</v>
       </c>
-      <c r="B101" s="91" t="s">
+      <c r="B101" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="97"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="101"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="91"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5749,13 +5760,13 @@
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="96"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="102"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="92"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5777,17 +5788,17 @@
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="95"/>
-      <c r="B103" s="89" t="s">
+      <c r="A103" s="76"/>
+      <c r="B103" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="91" t="s">
+      <c r="C103" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="92"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="109"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="93"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5818,13 +5829,13 @@
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="96"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="110"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="94"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5849,17 +5860,17 @@
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="95">
+      <c r="A105" s="76">
         <v>2</v>
       </c>
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="97"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="101"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="89"/>
+      <c r="G105" s="91"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5878,13 +5889,13 @@
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="96"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="100"/>
-      <c r="G106" s="102"/>
+      <c r="A106" s="77"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="92"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5906,17 +5917,17 @@
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="95"/>
-      <c r="B107" s="89" t="s">
+      <c r="A107" s="76"/>
+      <c r="B107" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="91" t="s">
+      <c r="C107" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="92"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="103"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="86"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5947,13 +5958,13 @@
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="96"/>
-      <c r="B108" s="90"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="94"/>
+      <c r="A108" s="77"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="83"/>
       <c r="E108" s="85"/>
       <c r="F108" s="85"/>
-      <c r="G108" s="90"/>
+      <c r="G108" s="79"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5978,17 +5989,17 @@
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="95"/>
-      <c r="B109" s="89" t="s">
+      <c r="A109" s="76"/>
+      <c r="B109" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="91" t="s">
+      <c r="C109" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="92"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="103"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="86"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6019,13 +6030,13 @@
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="96"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="94"/>
+      <c r="A110" s="77"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="83"/>
       <c r="E110" s="85"/>
       <c r="F110" s="85"/>
-      <c r="G110" s="90"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6056,6 +6067,286 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="304">
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A97:A98"/>
@@ -6080,286 +6371,6 @@
     <mergeCell ref="C89:D90"/>
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
@@ -6649,18 +6660,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6682,6 +6693,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6695,12 +6714,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4848D403-BB65-445E-938B-A261ED7B3151}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30528B6-DD59-4A68-92D0-50E64672767A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
   <si>
     <t>チケット予約システム</t>
     <rPh sb="4" eb="6">
@@ -2500,10 +2500,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2699,7 +2699,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K24,K60,K78)</f>
-        <v>11.5</v>
+        <v>26.5</v>
       </c>
       <c r="L6" s="24">
         <v>15</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="Q6" s="25">
         <f>SUM(Q8,Q24,Q44,Q60,Q78,Q86,Q100)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3987,7 +3987,7 @@
         <v>67</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G45" s="91"/>
       <c r="H45" s="60" t="str">
@@ -4038,8 +4038,8 @@
       <c r="E47" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="74" t="s">
-        <v>21</v>
+      <c r="F47" s="89" t="s">
+        <v>65</v>
       </c>
       <c r="G47" s="93"/>
       <c r="H47" s="51" t="str">
@@ -4071,7 +4071,7 @@
       <c r="C48" s="82"/>
       <c r="D48" s="83"/>
       <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
+      <c r="F48" s="90"/>
       <c r="G48" s="94"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4106,8 +4106,8 @@
       <c r="E49" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="74" t="s">
-        <v>21</v>
+      <c r="F49" s="89" t="s">
+        <v>65</v>
       </c>
       <c r="G49" s="172"/>
       <c r="H49" s="51" t="str">
@@ -4139,7 +4139,7 @@
       <c r="C50" s="82"/>
       <c r="D50" s="83"/>
       <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
+      <c r="F50" s="90"/>
       <c r="G50" s="173"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4175,7 +4175,7 @@
         <v>67</v>
       </c>
       <c r="F51" s="89" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G51" s="91"/>
       <c r="H51" s="60" t="str">
@@ -4226,8 +4226,8 @@
       <c r="E53" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="74" t="s">
-        <v>21</v>
+      <c r="F53" s="89" t="s">
+        <v>65</v>
       </c>
       <c r="G53" s="86"/>
       <c r="H53" s="46" t="str">
@@ -4259,7 +4259,7 @@
       <c r="C54" s="82"/>
       <c r="D54" s="83"/>
       <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
+      <c r="F54" s="90"/>
       <c r="G54" s="79"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4291,14 +4291,16 @@
         <v>44</v>
       </c>
       <c r="D55" s="81"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177" t="s">
-        <v>21</v>
+      <c r="E55" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="89" t="s">
+        <v>65</v>
       </c>
       <c r="G55" s="177"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I55" s="51" t="s">
         <v>24</v>
@@ -4321,12 +4323,12 @@
       <c r="B56" s="163"/>
       <c r="C56" s="82"/>
       <c r="D56" s="83"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="177"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="90"/>
       <c r="G56" s="177"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I56" s="57"/>
       <c r="J56" s="57"/>
@@ -4349,14 +4351,16 @@
         <v>30</v>
       </c>
       <c r="D57" s="81"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177" t="s">
-        <v>21</v>
+      <c r="E57" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="89" t="s">
+        <v>65</v>
       </c>
       <c r="G57" s="177"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I57" s="51"/>
       <c r="J57" s="51">
@@ -4386,12 +4390,12 @@
       <c r="B58" s="163"/>
       <c r="C58" s="82"/>
       <c r="D58" s="83"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="177"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="90"/>
       <c r="G58" s="177"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
@@ -4473,7 +4477,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f t="shared" ref="K60:Q60" si="7">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L60" s="38">
         <f t="shared" si="7"/>
@@ -4497,7 +4501,7 @@
       </c>
       <c r="Q60" s="33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4509,12 +4513,14 @@
       </c>
       <c r="C61" s="87"/>
       <c r="D61" s="81"/>
-      <c r="E61" s="89"/>
+      <c r="E61" s="89" t="s">
+        <v>67</v>
+      </c>
       <c r="F61" s="89"/>
       <c r="G61" s="91"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I61" s="60"/>
       <c r="J61" s="60"/>
@@ -4536,7 +4542,7 @@
       <c r="G62" s="92"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I62" s="64"/>
       <c r="J62" s="64"/>
@@ -4557,12 +4563,16 @@
         <v>47</v>
       </c>
       <c r="D63" s="81"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
+      <c r="E63" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="74" t="s">
+        <v>21</v>
+      </c>
       <c r="G63" s="93"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I63" s="51" t="s">
         <v>48</v>
@@ -4593,20 +4603,22 @@
       <c r="G64" s="94"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I64" s="57"/>
       <c r="J64" s="57"/>
       <c r="K64" s="54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L64" s="37"/>
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
+      <c r="Q64" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="109"/>
@@ -4617,12 +4629,16 @@
         <v>49</v>
       </c>
       <c r="D65" s="81"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
+      <c r="E65" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="74" t="s">
+        <v>21</v>
+      </c>
       <c r="G65" s="93"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I65" s="51" t="s">
         <v>50</v>
@@ -4653,20 +4669,22 @@
       <c r="G66" s="94"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
       <c r="K66" s="54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L66" s="37"/>
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
+      <c r="Q66" s="29">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="109"/>
@@ -6457,13 +6475,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E111:E65576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"新規作成,更新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F84 F41 F101:F110 F9:F21 F61:F69 F75 F87:F98 F57 F71:F73 F35:F39 F25:F29 F31 F33 F45:F49 F51:F55" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F84 F41 F101:F110 F9:F21 F61:F69 F75 F87:F98 F45:F58 F71:F73 F35:F39 F25:F29 F31 F33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"着手,完了"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E69 E35 E25 E59:E61 E77:E79 E85:E87 E93 E15 E9 E51 E45 E99:E101 E105" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"新規作成,更新,レビュー参加"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E84 E63:E68 E41 E21 E57 E89:E92 E33 E103:E104 E11:E13 E75 E95:E98 E107:E110 E37:E39 E71:E73 E53:E55 E27:E29 E31 E17:E19 E47:E49" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E84 E17:E19 E41 E21 E53:E58 E89:E92 E33 E103:E104 E11:E13 E75 E95:E98 E107:E110 E37:E39 E71:E73 E47:E49 E27:E29 E31 E63:E68" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"新規作成,更新,レビュー参加,その他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30528B6-DD59-4A68-92D0-50E64672767A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5288E-592F-477D-8854-22D758063CC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
   <si>
     <t>チケット予約システム</t>
     <rPh sb="4" eb="6">
@@ -459,6 +459,23 @@
   <si>
     <t>新規作成</t>
   </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4日目</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1563,11 +1580,80 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1575,50 +1661,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1656,9 +1721,156 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1668,26 +1880,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1695,194 +1892,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2500,10 +2629,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65:F66"/>
+      <selection pane="bottomRight" activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2521,109 +2650,121 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="128" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="122">
+      <c r="L1" s="138">
         <v>43984</v>
       </c>
-      <c r="M1" s="123"/>
-      <c r="N1" s="122">
+      <c r="M1" s="139"/>
+      <c r="N1" s="138">
         <v>43985</v>
       </c>
-      <c r="O1" s="123"/>
-      <c r="P1" s="122">
+      <c r="O1" s="139"/>
+      <c r="P1" s="138">
         <v>43986</v>
       </c>
-      <c r="Q1" s="123"/>
-    </row>
-    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="120" t="s">
+      <c r="Q1" s="139"/>
+      <c r="R1" s="138">
+        <v>43987</v>
+      </c>
+      <c r="S1" s="139"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="154"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="120" t="s">
+      <c r="M2" s="147"/>
+      <c r="N2" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="120" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="121"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="126" t="s">
+      <c r="Q2" s="147"/>
+      <c r="R2" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="147"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="154"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="124" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="124" t="s">
+      <c r="O3" s="165"/>
+      <c r="P3" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="125"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="141"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="157"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="164" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="165"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="155"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="142"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2642,17 +2783,23 @@
       <c r="Q4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="133"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2683,15 +2830,22 @@
         <f>SUM(Q7,Q23,Q43,Q59,Q77,Q85,Q99)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="134"/>
+      <c r="R5" s="17">
+        <v>15</v>
+      </c>
+      <c r="S5" s="17">
+        <f>SUM(S7,S23,S43,S59,S77,S85,S99)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2723,17 +2877,25 @@
         <f>SUM(Q8,Q24,Q44,Q60,Q78,Q86,Q100)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="149" t="s">
+      <c r="R6" s="25">
+        <f>SUM(R8,R24,R44,R60,R78,R86,R100)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="25">
+        <f>SUM(S8,S24,S44,S60,S78,S86,S100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="152"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2765,15 +2927,23 @@
         <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=1)*Q$25:Q$42)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="153"/>
+      <c r="R7" s="26">
+        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="26">
+        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=1)*S$25:S$42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2806,21 +2976,29 @@
         <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=0)*Q$25:Q$42)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76">
+      <c r="R8" s="27">
+        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=0)*R$25:R$42)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="27">
+        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=0)*S$25:S$42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="99">
         <v>1</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="103"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2834,15 +3012,17 @@
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
-    </row>
-    <row r="10" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="92"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+    </row>
+    <row r="10" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="100"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2856,21 +3036,23 @@
       <c r="O10" s="67"/>
       <c r="P10" s="67"/>
       <c r="Q10" s="67"/>
-    </row>
-    <row r="11" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="78" t="s">
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+    </row>
+    <row r="11" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="99"/>
+      <c r="B11" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="74" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="86"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2893,15 +3075,17 @@
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
-    </row>
-    <row r="12" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="79"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+    </row>
+    <row r="12" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="100"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2920,21 +3104,23 @@
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
-    </row>
-    <row r="13" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="166"/>
-      <c r="B13" s="78" t="s">
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+    </row>
+    <row r="13" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="80"/>
+      <c r="B13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="74" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="75" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="58"/>
-      <c r="G13" s="158"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2959,15 +3145,17 @@
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="43"/>
-    </row>
-    <row r="14" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="167"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="75"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+    </row>
+    <row r="14" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="81"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="159"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2988,21 +3176,23 @@
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
-    </row>
-    <row r="15" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76">
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+    </row>
+    <row r="15" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="99">
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89" t="s">
+      <c r="C15" s="101"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="91"/>
+      <c r="G15" s="103"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3019,15 +3209,17 @@
       <c r="O15" s="63"/>
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
-    </row>
-    <row r="16" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="92"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+    </row>
+    <row r="16" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="100"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3044,21 +3236,23 @@
       <c r="O16" s="67"/>
       <c r="P16" s="67"/>
       <c r="Q16" s="67"/>
-    </row>
-    <row r="17" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="78" t="s">
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+    </row>
+    <row r="17" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="99"/>
+      <c r="B17" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="74" t="s">
+      <c r="D17" s="96"/>
+      <c r="E17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="86"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3083,15 +3277,17 @@
       <c r="O17" s="43"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
-    </row>
-    <row r="18" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="79"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+    </row>
+    <row r="18" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="100"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3112,21 +3308,23 @@
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
-    </row>
-    <row r="19" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="162" t="s">
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+    </row>
+    <row r="19" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="82"/>
+      <c r="B19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="74" t="s">
+      <c r="D19" s="96"/>
+      <c r="E19" s="75" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="84"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3151,15 +3349,17 @@
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
-    </row>
-    <row r="20" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="168"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="75"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+    </row>
+    <row r="20" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="84"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="85"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3180,21 +3380,23 @@
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
-    </row>
-    <row r="21" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="118"/>
-      <c r="B21" s="78" t="s">
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+    </row>
+    <row r="21" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="82"/>
+      <c r="B21" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="96"/>
+      <c r="E21" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="158"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3219,15 +3421,17 @@
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
-    </row>
-    <row r="22" spans="1:17" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="169"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="171"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+    </row>
+    <row r="22" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="83"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3248,24 +3452,26 @@
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
-    </row>
-    <row r="23" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="149" t="s">
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+    </row>
+    <row r="23" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="150"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14">
-        <f t="shared" ref="K23:Q23" si="1">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <f t="shared" ref="K23:S23" si="1">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>13.75</v>
       </c>
       <c r="L23" s="36">
@@ -3292,22 +3498,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="153"/>
+      <c r="R23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f t="shared" ref="K24:Q24" si="2">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f t="shared" ref="K24:S24" si="2">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>11.5</v>
       </c>
       <c r="L24" s="35">
@@ -3334,21 +3548,29 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="109">
+      <c r="R24" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="123">
         <v>1</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89" t="s">
+      <c r="C25" s="101"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="91"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3362,15 +3584,17 @@
       <c r="O25" s="63"/>
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
-    </row>
-    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="110"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="92"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+    </row>
+    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="124"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3384,23 +3608,25 @@
       <c r="O26" s="67"/>
       <c r="P26" s="67"/>
       <c r="Q26" s="67"/>
-    </row>
-    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="109"/>
-      <c r="B27" s="111" t="s">
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+    </row>
+    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="123"/>
+      <c r="B27" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="74" t="s">
+      <c r="D27" s="96"/>
+      <c r="E27" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="127"/>
+      <c r="G27" s="135"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3421,15 +3647,17 @@
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
-    </row>
-    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="110"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="112"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+    </row>
+    <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="124"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3448,23 +3676,25 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
-    </row>
-    <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="166"/>
-      <c r="B29" s="78" t="s">
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+    </row>
+    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="80"/>
+      <c r="B29" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="74" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="86"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3487,15 +3717,17 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
-    </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="167"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="174"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+    </row>
+    <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="81"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="106"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3514,23 +3746,25 @@
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
-    </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="166"/>
-      <c r="B31" s="78" t="s">
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+    </row>
+    <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="80"/>
+      <c r="B31" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="74" t="s">
+      <c r="D31" s="96"/>
+      <c r="E31" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="93"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3553,15 +3787,17 @@
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
-    </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="167"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="79"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+    </row>
+    <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="81"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="94"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3580,23 +3816,25 @@
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
-    </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="118"/>
-      <c r="B33" s="84" t="s">
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+    </row>
+    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="82"/>
+      <c r="B33" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="74" t="s">
+      <c r="D33" s="96"/>
+      <c r="E33" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="158"/>
+      <c r="G33" s="87"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3619,15 +3857,17 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
-    </row>
-    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="168"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="159"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+    </row>
+    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="84"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3644,21 +3884,23 @@
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
-    </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="109">
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+    </row>
+    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="123">
         <v>2</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="C35" s="101"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="91"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3672,15 +3914,17 @@
       <c r="O35" s="63"/>
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
-    </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="110"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="92"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+    </row>
+    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="124"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3694,23 +3938,25 @@
       <c r="O36" s="67"/>
       <c r="P36" s="67"/>
       <c r="Q36" s="67"/>
-    </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="109"/>
-      <c r="B37" s="111" t="s">
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+    </row>
+    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="123"/>
+      <c r="B37" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="74" t="s">
+      <c r="D37" s="96"/>
+      <c r="E37" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="74" t="s">
+      <c r="F37" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="93"/>
+      <c r="G37" s="109"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3733,15 +3979,17 @@
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
-    </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="110"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="94"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+    </row>
+    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="124"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="110"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3760,23 +4008,25 @@
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
-    </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="118"/>
-      <c r="B39" s="78" t="s">
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+    </row>
+    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="82"/>
+      <c r="B39" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="175" t="s">
+      <c r="D39" s="96"/>
+      <c r="E39" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="175" t="s">
+      <c r="F39" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="176"/>
+      <c r="G39" s="108"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3798,15 +4048,17 @@
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
-    </row>
-    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="168"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="176"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+    </row>
+    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="84"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3824,23 +4076,25 @@
       </c>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
-    </row>
-    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="105"/>
-      <c r="B41" s="164" t="s">
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+    </row>
+    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="128"/>
+      <c r="B41" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="175" t="s">
+      <c r="D41" s="96"/>
+      <c r="E41" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="175" t="s">
+      <c r="F41" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="177"/>
+      <c r="G41" s="74"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3862,15 +4116,17 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
-    </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="177"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+    </row>
+    <row r="42" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="128"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3889,24 +4145,26 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
-    </row>
-    <row r="43" spans="1:17" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="149" t="s">
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+    </row>
+    <row r="43" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="161"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="14">
-        <f t="shared" ref="K43:Q43" si="4">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <f t="shared" ref="K43:S43" si="4">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>13.75</v>
       </c>
       <c r="L43" s="36">
@@ -3933,22 +4191,30 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="98"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="153"/>
+      <c r="R43" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="134"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="15">
-        <f t="shared" ref="K44:Q44" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f t="shared" ref="K44:S44" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>11.5</v>
       </c>
       <c r="L44" s="35">
@@ -3973,23 +4239,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="76">
+      <c r="R44" s="27"/>
+      <c r="S44" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="99">
         <v>1</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="89" t="s">
+      <c r="C45" s="101"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="89" t="s">
+      <c r="F45" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="91"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4003,15 +4274,17 @@
       <c r="O45" s="63"/>
       <c r="P45" s="63"/>
       <c r="Q45" s="63"/>
-    </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="77"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="92"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+    </row>
+    <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="100"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="104"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4025,23 +4298,25 @@
       <c r="O46" s="67"/>
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
-    </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="76"/>
-      <c r="B47" s="78" t="s">
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+    </row>
+    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="99"/>
+      <c r="B47" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="74" t="s">
+      <c r="D47" s="96"/>
+      <c r="E47" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="93"/>
+      <c r="G47" s="109"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4064,15 +4339,17 @@
       <c r="O47" s="43"/>
       <c r="P47" s="43"/>
       <c r="Q47" s="43"/>
-    </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="77"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="94"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+    </row>
+    <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="100"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4093,23 +4370,25 @@
         <v>4</v>
       </c>
       <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="166"/>
-      <c r="B49" s="78" t="s">
+      <c r="A49" s="80"/>
+      <c r="B49" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="74" t="s">
+      <c r="D49" s="96"/>
+      <c r="E49" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="89" t="s">
+      <c r="F49" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="172"/>
+      <c r="G49" s="91"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4132,15 +4411,17 @@
       <c r="O49" s="43"/>
       <c r="P49" s="43"/>
       <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="167"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="173"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4161,23 +4442,25 @@
         <v>4</v>
       </c>
       <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="76">
+      <c r="A51" s="99">
         <v>2</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="89" t="s">
+      <c r="C51" s="101"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="89" t="s">
+      <c r="F51" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="91"/>
+      <c r="G51" s="103"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4191,15 +4474,17 @@
       <c r="O51" s="63"/>
       <c r="P51" s="63"/>
       <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="77"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="92"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="104"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4213,23 +4498,25 @@
       <c r="O52" s="67"/>
       <c r="P52" s="67"/>
       <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="76"/>
-      <c r="B53" s="78" t="s">
+      <c r="A53" s="99"/>
+      <c r="B53" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="74" t="s">
+      <c r="D53" s="96"/>
+      <c r="E53" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="89" t="s">
+      <c r="F53" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="86"/>
+      <c r="G53" s="105"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4252,15 +4539,17 @@
       <c r="O53" s="43"/>
       <c r="P53" s="43"/>
       <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="77"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="94"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4281,23 +4570,25 @@
         <v>2.5</v>
       </c>
       <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="76"/>
-      <c r="B55" s="162" t="s">
+      <c r="A55" s="99"/>
+      <c r="B55" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="74" t="s">
+      <c r="D55" s="96"/>
+      <c r="E55" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="89" t="s">
+      <c r="F55" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="177"/>
+      <c r="G55" s="74"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4317,15 +4608,17 @@
       <c r="O55" s="45"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="77"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="177"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="74"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4341,23 +4634,25 @@
         <v>2.5</v>
       </c>
       <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="76"/>
-      <c r="B57" s="162" t="s">
+      <c r="A57" s="99"/>
+      <c r="B57" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="74" t="s">
+      <c r="D57" s="96"/>
+      <c r="E57" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="89" t="s">
+      <c r="F57" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G57" s="177"/>
+      <c r="G57" s="74"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4378,21 +4673,21 @@
       <c r="O57" s="45"/>
       <c r="P57" s="45"/>
       <c r="Q57" s="45"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="45"/>
       <c r="T57" s="42"/>
       <c r="U57" s="42"/>
       <c r="V57" s="42"/>
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="77"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="177"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="74"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4411,30 +4706,30 @@
         <v>0.5</v>
       </c>
       <c r="Q58" s="45"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
       <c r="T58" s="42"/>
       <c r="U58" s="42"/>
       <c r="V58" s="42"/>
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="103"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="119"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="21">
-        <f t="shared" ref="K59:Q59" si="6">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
+        <f t="shared" ref="K59:S59" si="6">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
         <v>15</v>
       </c>
       <c r="L59" s="31">
@@ -4461,22 +4756,29 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="R59" s="32">
+        <v>3</v>
+      </c>
+      <c r="S59" s="32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="98"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="104"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="120"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="15">
-        <f t="shared" ref="K60:Q60" si="7">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
+        <f t="shared" ref="K60:S60" si="7">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
         <v>15</v>
       </c>
       <c r="L60" s="38">
@@ -4503,21 +4805,26 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
+      <c r="R60" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="33"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="109">
+      <c r="A61" s="123">
         <v>1</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="89" t="s">
+      <c r="C61" s="101"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="89"/>
-      <c r="G61" s="91"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="103"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4531,15 +4838,17 @@
       <c r="O61" s="63"/>
       <c r="P61" s="63"/>
       <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="110"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="92"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="104"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4553,23 +4862,25 @@
       <c r="O62" s="67"/>
       <c r="P62" s="67"/>
       <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="109"/>
-      <c r="B63" s="111" t="s">
+      <c r="A63" s="123"/>
+      <c r="B63" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="74" t="s">
+      <c r="D63" s="96"/>
+      <c r="E63" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="74" t="s">
+      <c r="F63" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="93"/>
+      <c r="G63" s="109"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4592,15 +4903,19 @@
       </c>
       <c r="P63" s="28"/>
       <c r="Q63" s="28"/>
+      <c r="R63" s="28">
+        <v>1</v>
+      </c>
+      <c r="S63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="110"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="94"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="110"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4619,23 +4934,25 @@
       <c r="Q64" s="29">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="109"/>
-      <c r="B65" s="111" t="s">
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+    </row>
+    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="123"/>
+      <c r="B65" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="81"/>
-      <c r="E65" s="74" t="s">
+      <c r="D65" s="96"/>
+      <c r="E65" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="74" t="s">
+      <c r="F65" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="93"/>
+      <c r="G65" s="109"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4658,15 +4975,19 @@
       </c>
       <c r="P65" s="28"/>
       <c r="Q65" s="28"/>
-    </row>
-    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="110"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="94"/>
+      <c r="R65" s="28">
+        <v>2</v>
+      </c>
+      <c r="S65" s="28"/>
+    </row>
+    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="124"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="110"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4685,19 +5006,21 @@
       <c r="Q66" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="109"/>
-      <c r="B67" s="111" t="s">
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="123"/>
+      <c r="B67" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="81"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="93"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="109"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4720,15 +5043,17 @@
       </c>
       <c r="P67" s="28"/>
       <c r="Q67" s="28"/>
-    </row>
-    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="110"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="94"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+    </row>
+    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="124"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4745,19 +5070,21 @@
       <c r="O68" s="29"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
-    </row>
-    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="109">
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+    </row>
+    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="123">
         <v>2</v>
       </c>
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="91"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="103"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4771,15 +5098,17 @@
       <c r="O69" s="63"/>
       <c r="P69" s="63"/>
       <c r="Q69" s="63"/>
-    </row>
-    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="110"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="92"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+    </row>
+    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="124"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="104"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4793,19 +5122,21 @@
       <c r="O70" s="67"/>
       <c r="P70" s="67"/>
       <c r="Q70" s="67"/>
-    </row>
-    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="109"/>
-      <c r="B71" s="111" t="s">
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+    </row>
+    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="123"/>
+      <c r="B71" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="81"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="127"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="135"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4828,15 +5159,19 @@
       </c>
       <c r="P71" s="28"/>
       <c r="Q71" s="28"/>
-    </row>
-    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="110"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="112"/>
+      <c r="R71" s="28">
+        <v>1</v>
+      </c>
+      <c r="S71" s="28"/>
+    </row>
+    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="124"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="136"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4853,19 +5188,21 @@
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
-    </row>
-    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="118"/>
-      <c r="B73" s="78" t="s">
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+    </row>
+    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="82"/>
+      <c r="B73" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="178"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="79"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4888,15 +5225,17 @@
       </c>
       <c r="P73" s="28"/>
       <c r="Q73" s="68"/>
-    </row>
-    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="119"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="178"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="68"/>
+    </row>
+    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="178"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="79"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4910,19 +5249,21 @@
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
-    </row>
-    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="107"/>
-      <c r="B75" s="105" t="s">
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+    </row>
+    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="172"/>
+      <c r="B75" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="105" t="s">
+      <c r="C75" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="178"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="79"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4943,15 +5284,17 @@
       </c>
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
-    </row>
-    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="108"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="178"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+    </row>
+    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="173"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="79"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4968,17 +5311,19 @@
       <c r="O76" s="50"/>
       <c r="P76" s="50"/>
       <c r="Q76" s="50"/>
-    </row>
-    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="95" t="s">
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+    </row>
+    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="103"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="119"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -4989,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="31">
-        <f t="shared" ref="L77:Q77" si="9">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:S77" si="9">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="32">
@@ -5012,15 +5357,22 @@
         <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="98"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="104"/>
+      <c r="R77" s="32">
+        <v>12</v>
+      </c>
+      <c r="S77" s="32">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="120"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -5031,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="35">
-        <f t="shared" ref="L78:Q78" si="10">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:S78" si="10">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="34">
@@ -5054,19 +5406,27 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="109">
+      <c r="R78" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="123">
         <v>1</v>
       </c>
-      <c r="B79" s="80" t="s">
+      <c r="B79" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="91"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="103"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5080,15 +5440,17 @@
       <c r="O79" s="63"/>
       <c r="P79" s="63"/>
       <c r="Q79" s="63"/>
-    </row>
-    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="110"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="92"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+    </row>
+    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="124"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="98"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="104"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5102,19 +5464,21 @@
       <c r="O80" s="67"/>
       <c r="P80" s="67"/>
       <c r="Q80" s="67"/>
-    </row>
-    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="109"/>
-      <c r="B81" s="111" t="s">
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+    </row>
+    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="123"/>
+      <c r="B81" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="127"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="135"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5137,15 +5501,21 @@
         <v>9</v>
       </c>
       <c r="Q81" s="28"/>
-    </row>
-    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="110"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="112"/>
+      <c r="R81" s="28">
+        <v>8</v>
+      </c>
+      <c r="S81" s="28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="124"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="98"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="136"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5162,19 +5532,21 @@
       <c r="O82" s="29"/>
       <c r="P82" s="29"/>
       <c r="Q82" s="29"/>
-    </row>
-    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="109"/>
-      <c r="B83" s="111" t="s">
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+    </row>
+    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="123"/>
+      <c r="B83" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="127"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="135"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5199,15 +5571,21 @@
       <c r="Q83" s="28">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="110"/>
-      <c r="B84" s="112"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="112"/>
+      <c r="R83" s="28">
+        <v>3</v>
+      </c>
+      <c r="S83" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="124"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="98"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="136"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5224,17 +5602,19 @@
       <c r="O84" s="29"/>
       <c r="P84" s="29"/>
       <c r="Q84" s="29"/>
-    </row>
-    <row r="85" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="95" t="s">
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+    </row>
+    <row r="85" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="103"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="119"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5268,15 +5648,23 @@
         <f t="array" ref="Q85">SUMPRODUCT((MOD(ROW(Q$87:Q$98),2)=1)*Q$87:Q$98)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="98"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="104"/>
+      <c r="R85" s="32" cm="1">
+        <f t="array" ref="R85">SUMPRODUCT((MOD(ROW(R$87:R$98),2)=1)*R$87:R$98)</f>
+        <v>0</v>
+      </c>
+      <c r="S85" s="32" cm="1">
+        <f t="array" ref="S85">SUMPRODUCT((MOD(ROW(S$87:S$98),2)=1)*S$87:S$98)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="120"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5310,19 +5698,27 @@
         <f t="array" ref="Q86">SUMPRODUCT((MOD(ROW(Q$87:Q$98),2)=0)*Q$87:Q$98)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="76">
+      <c r="R86" s="34" cm="1">
+        <f t="array" ref="R86">SUMPRODUCT((MOD(ROW(R$87:R$98),2)=0)*R$87:R$98)</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="34" cm="1">
+        <f t="array" ref="S86">SUMPRODUCT((MOD(ROW(S$87:S$98),2)=0)*S$87:S$98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="99">
         <v>1</v>
       </c>
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
-      <c r="G87" s="91"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="103"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5336,15 +5732,17 @@
       <c r="O87" s="63"/>
       <c r="P87" s="63"/>
       <c r="Q87" s="63"/>
-    </row>
-    <row r="88" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="77"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="92"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="63"/>
+    </row>
+    <row r="88" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="100"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="104"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5358,19 +5756,21 @@
       <c r="O88" s="67"/>
       <c r="P88" s="67"/>
       <c r="Q88" s="67"/>
-    </row>
-    <row r="89" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="76"/>
-      <c r="B89" s="78" t="s">
+      <c r="R88" s="67"/>
+      <c r="S88" s="67"/>
+    </row>
+    <row r="89" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="99"/>
+      <c r="B89" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="81"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="86"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="105"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5393,15 +5793,19 @@
       <c r="Q89" s="43">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="77"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="79"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="100"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="94"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5418,19 +5822,21 @@
       <c r="O90" s="45"/>
       <c r="P90" s="45"/>
       <c r="Q90" s="45"/>
-    </row>
-    <row r="91" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="76"/>
-      <c r="B91" s="78" t="s">
+      <c r="R90" s="45"/>
+      <c r="S90" s="45"/>
+    </row>
+    <row r="91" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="99"/>
+      <c r="B91" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="86"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="105"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5453,15 +5859,19 @@
       <c r="Q91" s="43">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="77"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="79"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="100"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="97"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="94"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5478,19 +5888,21 @@
       <c r="O92" s="45"/>
       <c r="P92" s="45"/>
       <c r="Q92" s="45"/>
-    </row>
-    <row r="93" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="76">
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+    </row>
+    <row r="93" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="99">
         <v>2</v>
       </c>
-      <c r="B93" s="80" t="s">
+      <c r="B93" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="91"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="103"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5504,15 +5916,17 @@
       <c r="O93" s="63"/>
       <c r="P93" s="63"/>
       <c r="Q93" s="63"/>
-    </row>
-    <row r="94" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="77"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="92"/>
+      <c r="R93" s="63"/>
+      <c r="S93" s="63"/>
+    </row>
+    <row r="94" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="100"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="98"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="104"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5526,19 +5940,21 @@
       <c r="O94" s="67"/>
       <c r="P94" s="67"/>
       <c r="Q94" s="67"/>
-    </row>
-    <row r="95" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="76"/>
-      <c r="B95" s="78" t="s">
+      <c r="R94" s="67"/>
+      <c r="S94" s="67"/>
+    </row>
+    <row r="95" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="99"/>
+      <c r="B95" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="93"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="109"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5561,15 +5977,19 @@
       <c r="Q95" s="43">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="77"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="94"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="100"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="98"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="110"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5586,19 +6006,21 @@
       <c r="O96" s="45"/>
       <c r="P96" s="45"/>
       <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="76"/>
-      <c r="B97" s="78" t="s">
+      <c r="A97" s="99"/>
+      <c r="B97" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="80" t="s">
+      <c r="C97" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="81"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="86"/>
+      <c r="D97" s="96"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="105"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5621,15 +6043,19 @@
       <c r="Q97" s="43">
         <v>0.5</v>
       </c>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="77"/>
-      <c r="B98" s="79"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="79"/>
+      <c r="A98" s="100"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="94"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5646,17 +6072,19 @@
       <c r="O98" s="45"/>
       <c r="P98" s="45"/>
       <c r="Q98" s="45"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="95" t="s">
+      <c r="A99" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="103"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -5690,21 +6118,27 @@
         <f t="array" ref="Q99">SUMPRODUCT((MOD(ROW(Q$101:Q$110),2)=1)*Q$101:Q$110)</f>
         <v>5.5</v>
       </c>
-      <c r="R99" s="42"/>
-      <c r="S99" s="42"/>
+      <c r="R99" s="32" cm="1">
+        <f t="array" ref="R99">SUMPRODUCT((MOD(ROW(R$101:R$110),2)=1)*R$101:R$110)</f>
+        <v>0</v>
+      </c>
+      <c r="S99" s="32" cm="1">
+        <f t="array" ref="S99">SUMPRODUCT((MOD(ROW(S$101:S$110),2)=1)*S$101:S$110)</f>
+        <v>4</v>
+      </c>
       <c r="T99" s="42"/>
       <c r="U99" s="42"/>
       <c r="V99" s="42"/>
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="98"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="104"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="120"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -5738,25 +6172,31 @@
         <f t="array" ref="Q100">SUMPRODUCT((MOD(ROW(Q$101:Q$110),2)=0)*Q$101:Q$110)</f>
         <v>0</v>
       </c>
-      <c r="R100" s="42"/>
-      <c r="S100" s="42"/>
+      <c r="R100" s="34" cm="1">
+        <f t="array" ref="R100">SUMPRODUCT((MOD(ROW(R$101:R$110),2)=0)*R$101:R$110)</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="34" cm="1">
+        <f t="array" ref="S100">SUMPRODUCT((MOD(ROW(S$101:S$110),2)=0)*S$101:S$110)</f>
+        <v>0</v>
+      </c>
       <c r="T100" s="42"/>
       <c r="U100" s="42"/>
       <c r="V100" s="42"/>
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="76">
+      <c r="A101" s="99">
         <v>1</v>
       </c>
-      <c r="B101" s="80" t="s">
+      <c r="B101" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="87"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="91"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="103"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5770,21 +6210,21 @@
       <c r="O101" s="63"/>
       <c r="P101" s="63"/>
       <c r="Q101" s="63"/>
-      <c r="R101" s="42"/>
-      <c r="S101" s="42"/>
+      <c r="R101" s="63"/>
+      <c r="S101" s="63"/>
       <c r="T101" s="42"/>
       <c r="U101" s="42"/>
       <c r="V101" s="42"/>
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="77"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="92"/>
+      <c r="A102" s="100"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="102"/>
+      <c r="D102" s="98"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="104"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5798,25 +6238,25 @@
       <c r="O102" s="67"/>
       <c r="P102" s="67"/>
       <c r="Q102" s="67"/>
-      <c r="R102" s="42"/>
-      <c r="S102" s="42"/>
+      <c r="R102" s="67"/>
+      <c r="S102" s="67"/>
       <c r="T102" s="42"/>
       <c r="U102" s="42"/>
       <c r="V102" s="42"/>
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="76"/>
-      <c r="B103" s="78" t="s">
+      <c r="A103" s="99"/>
+      <c r="B103" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="93"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="109"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5839,21 +6279,23 @@
       <c r="Q103" s="43">
         <v>2.5</v>
       </c>
-      <c r="R103" s="42"/>
-      <c r="S103" s="42"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43">
+        <v>1</v>
+      </c>
       <c r="T103" s="42"/>
       <c r="U103" s="42"/>
       <c r="V103" s="42"/>
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="77"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="94"/>
+      <c r="A104" s="100"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="110"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5870,25 +6312,25 @@
       <c r="O104" s="45"/>
       <c r="P104" s="45"/>
       <c r="Q104" s="45"/>
-      <c r="R104" s="42"/>
-      <c r="S104" s="42"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="45"/>
       <c r="T104" s="42"/>
       <c r="U104" s="42"/>
       <c r="V104" s="42"/>
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="76">
+      <c r="A105" s="99">
         <v>2</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B105" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="87"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="89"/>
-      <c r="F105" s="89"/>
-      <c r="G105" s="91"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="103"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -5899,21 +6341,21 @@
       <c r="O105" s="63"/>
       <c r="P105" s="63"/>
       <c r="Q105" s="63"/>
-      <c r="R105" s="42"/>
-      <c r="S105" s="42"/>
+      <c r="R105" s="63"/>
+      <c r="S105" s="63"/>
       <c r="T105" s="42"/>
       <c r="U105" s="42"/>
       <c r="V105" s="42"/>
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="77"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="92"/>
+      <c r="A106" s="100"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="102"/>
+      <c r="D106" s="98"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="104"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5927,25 +6369,25 @@
       <c r="O106" s="67"/>
       <c r="P106" s="67"/>
       <c r="Q106" s="67"/>
-      <c r="R106" s="42"/>
-      <c r="S106" s="42"/>
+      <c r="R106" s="67"/>
+      <c r="S106" s="67"/>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
       <c r="V106" s="42"/>
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="76"/>
-      <c r="B107" s="78" t="s">
+      <c r="A107" s="99"/>
+      <c r="B107" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="80" t="s">
+      <c r="C107" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="81"/>
-      <c r="E107" s="84"/>
-      <c r="F107" s="84"/>
-      <c r="G107" s="86"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="105"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5968,21 +6410,23 @@
       <c r="Q107" s="43">
         <v>2.5</v>
       </c>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
+      <c r="R107" s="43"/>
+      <c r="S107" s="43">
+        <v>2.5</v>
+      </c>
       <c r="T107" s="42"/>
       <c r="U107" s="42"/>
       <c r="V107" s="42"/>
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="77"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="79"/>
+      <c r="A108" s="100"/>
+      <c r="B108" s="94"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="98"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="89"/>
+      <c r="G108" s="94"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5999,25 +6443,25 @@
       <c r="O108" s="45"/>
       <c r="P108" s="45"/>
       <c r="Q108" s="45"/>
-      <c r="R108" s="42"/>
-      <c r="S108" s="42"/>
+      <c r="R108" s="45"/>
+      <c r="S108" s="45"/>
       <c r="T108" s="42"/>
       <c r="U108" s="42"/>
       <c r="V108" s="42"/>
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="76"/>
-      <c r="B109" s="78" t="s">
+      <c r="A109" s="99"/>
+      <c r="B109" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="81"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="86"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="105"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6040,21 +6484,23 @@
       <c r="Q109" s="43">
         <v>0.5</v>
       </c>
-      <c r="R109" s="42"/>
-      <c r="S109" s="42"/>
+      <c r="R109" s="43"/>
+      <c r="S109" s="43">
+        <v>0.5</v>
+      </c>
       <c r="T109" s="42"/>
       <c r="U109" s="42"/>
       <c r="V109" s="42"/>
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="77"/>
-      <c r="B110" s="79"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="100"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="94"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6071,8 +6517,8 @@
       <c r="O110" s="45"/>
       <c r="P110" s="45"/>
       <c r="Q110" s="45"/>
-      <c r="R110" s="42"/>
-      <c r="S110" s="42"/>
+      <c r="R110" s="45"/>
+      <c r="S110" s="45"/>
       <c r="T110" s="42"/>
       <c r="U110" s="42"/>
       <c r="V110" s="42"/>
@@ -6084,22 +6530,275 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="304">
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
+  <mergeCells count="307">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A19:A20"/>
@@ -6124,351 +6823,165 @@
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:Q32">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:Q98">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:Q12">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:Q14">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:Q47 L48:N48 P48:Q48">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:Q50">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:Q58">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L57), L57&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L57), L57&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(M28), M28&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M28), M28&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(O48), O48&gt;0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O48), O48&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R79:S84 R61:S76 R15:S22 R51:S56 R101:S110 R33:S42 R25:S28">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R15), R15&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R15), R15&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29:S32">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R29), R29&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R29), R29&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R87:S98">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R87), R87&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R87), R87&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:S12">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R9), R9&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R9), R9&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13:S14">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R13), R13&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R13), R13&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R45:S48">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R45), R45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R45), R45&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R49:S50">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R49), R49&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R49), R49&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R57:S58">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R57), R57&gt;0)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O48), O48&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R57), R57&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6678,18 +7191,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6711,25 +7224,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/プロジェクト管理/03_WBSガントチャート.xlsx
+++ b/プロジェクト管理/03_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5288E-592F-477D-8854-22D758063CC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96B4FA-EC56-4C45-B9A7-1E0DB334C7F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
   <si>
     <t>チケット予約システム</t>
     <rPh sb="4" eb="6">
@@ -476,6 +476,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日目</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1580,326 +1597,424 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2629,10 +2744,10 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T77" sqref="T77"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2650,121 +2765,133 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="150" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="138">
+      <c r="L1" s="74">
         <v>43984</v>
       </c>
-      <c r="M1" s="139"/>
-      <c r="N1" s="138">
+      <c r="M1" s="75"/>
+      <c r="N1" s="74">
         <v>43985</v>
       </c>
-      <c r="O1" s="139"/>
-      <c r="P1" s="138">
+      <c r="O1" s="75"/>
+      <c r="P1" s="74">
         <v>43986</v>
       </c>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="138">
+      <c r="Q1" s="75"/>
+      <c r="R1" s="74">
         <v>43987</v>
       </c>
-      <c r="S1" s="139"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="146" t="s">
+      <c r="S1" s="75"/>
+      <c r="T1" s="74">
+        <v>43990</v>
+      </c>
+      <c r="U1" s="75"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="147"/>
-      <c r="N2" s="146" t="s">
+      <c r="M2" s="77"/>
+      <c r="N2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="146" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="146" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="147"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="154"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="166" t="s">
+      <c r="S2" s="77"/>
+      <c r="T2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="77"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="164" t="s">
+      <c r="M3" s="79"/>
+      <c r="N3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="165"/>
-      <c r="P3" s="164" t="s">
+      <c r="O3" s="79"/>
+      <c r="P3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="164" t="s">
+      <c r="Q3" s="79"/>
+      <c r="R3" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="165"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="142"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="79"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="141"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2789,17 +2916,23 @@
       <c r="S4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="156" t="s">
+      <c r="T4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2837,15 +2970,22 @@
         <f>SUM(S7,S23,S43,S59,S77,S85,S99)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="170"/>
+      <c r="T5" s="17">
+        <v>15</v>
+      </c>
+      <c r="U5" s="17">
+        <f>SUM(U7,U23,U43,U59,U77,U85,U99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2879,23 +3019,30 @@
       </c>
       <c r="R6" s="25">
         <f>SUM(R8,R24,R44,R60,R78,R86,R100)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S6" s="25">
-        <f>SUM(S8,S24,S44,S60,S78,S86,S100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="25">
+        <f>SUM(T8,T24,T44,T60,T78,T86,T100)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="25">
+        <f>SUM(U8,U24,U44,U60,U78,U86,U100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2912,38 +3059,46 @@
         <v>6.5</v>
       </c>
       <c r="N7" s="26">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
+        <f t="shared" ref="N7:U7" si="0">SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
         <v>1.75</v>
       </c>
       <c r="O7" s="26">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="26">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7" s="26">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=1)*Q$25:Q$42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="26">
-        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7" s="26">
-        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=1)*S$25:S$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="134"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="153"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
@@ -2957,48 +3112,56 @@
         <v>15</v>
       </c>
       <c r="M8" s="27">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=0)*M$25:M$42)</f>
+        <f t="shared" ref="M8:U8" si="1">SUMPRODUCT((MOD(ROW(M$25:M$42),2)=0)*M$25:M$42)</f>
         <v>8.5</v>
       </c>
       <c r="N8" s="27">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="O8" s="27">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=0)*O$25:O$42)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="P8" s="27">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8" s="27">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=0)*Q$25:Q$42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8" s="27">
-        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=0)*R$25:R$42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8" s="27">
-        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=0)*S$25:S$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="82">
         <v>1</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="C9" s="93"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="103"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="60" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -3014,15 +3177,17 @@
       <c r="Q9" s="63"/>
       <c r="R9" s="63"/>
       <c r="S9" s="63"/>
-    </row>
-    <row r="10" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="100"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="104"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+    </row>
+    <row r="10" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="83"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="64" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -3038,21 +3203,23 @@
       <c r="Q10" s="67"/>
       <c r="R10" s="67"/>
       <c r="S10" s="67"/>
-    </row>
-    <row r="11" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="99"/>
-      <c r="B11" s="93" t="s">
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+    </row>
+    <row r="11" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="82"/>
+      <c r="B11" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="105"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="46" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3064,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="53">
-        <f t="shared" ref="K11:K22" si="0">SUM(L11:Q11)</f>
+        <f t="shared" ref="K11:K22" si="2">SUM(L11:Q11)</f>
         <v>5</v>
       </c>
       <c r="L11" s="47">
@@ -3077,15 +3244,17 @@
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
-    </row>
-    <row r="12" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="94"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+    </row>
+    <row r="12" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="83"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="85"/>
       <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3093,7 +3262,7 @@
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
       <c r="K12" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L12" s="44">
@@ -3106,21 +3275,23 @@
       <c r="Q12" s="45"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
-    </row>
-    <row r="13" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
-      <c r="B13" s="93" t="s">
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+    </row>
+    <row r="13" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="166"/>
+      <c r="B13" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="80" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="58"/>
-      <c r="G13" s="87"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="46" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3132,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L13" s="47">
@@ -3147,15 +3318,17 @@
       <c r="Q13" s="43"/>
       <c r="R13" s="43"/>
       <c r="S13" s="43"/>
-    </row>
-    <row r="14" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="81"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="76"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+    </row>
+    <row r="14" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="167"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="90"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3163,7 +3336,7 @@
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L14" s="44">
@@ -3178,21 +3351,23 @@
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
-    </row>
-    <row r="15" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="99">
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+    </row>
+    <row r="15" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="82">
         <v>2</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="103"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="60" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3200,7 +3375,7 @@
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="62"/>
@@ -3211,15 +3386,17 @@
       <c r="Q15" s="63"/>
       <c r="R15" s="63"/>
       <c r="S15" s="63"/>
-    </row>
-    <row r="16" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="100"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="104"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+    </row>
+    <row r="16" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="83"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="64" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3227,7 +3404,7 @@
       <c r="I16" s="64"/>
       <c r="J16" s="64"/>
       <c r="K16" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="66"/>
@@ -3238,21 +3415,23 @@
       <c r="Q16" s="67"/>
       <c r="R16" s="67"/>
       <c r="S16" s="67"/>
-    </row>
-    <row r="17" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="99"/>
-      <c r="B17" s="93" t="s">
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+    </row>
+    <row r="17" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="82"/>
+      <c r="B17" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="105"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="46" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3264,7 +3443,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L17" s="47">
@@ -3279,15 +3458,17 @@
       <c r="Q17" s="43"/>
       <c r="R17" s="43"/>
       <c r="S17" s="43"/>
-    </row>
-    <row r="18" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="100"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="94"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+    </row>
+    <row r="18" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="83"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="85"/>
       <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3295,7 +3476,7 @@
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
       <c r="K18" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L18" s="44">
@@ -3310,21 +3491,23 @@
       <c r="Q18" s="45"/>
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
-    </row>
-    <row r="19" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="121" t="s">
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+    </row>
+    <row r="19" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="124"/>
+      <c r="B19" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="75" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="80" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="85"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="46" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3336,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L19" s="44">
@@ -3351,15 +3534,17 @@
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
-    </row>
-    <row r="20" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="84"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="76"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+    </row>
+    <row r="20" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="168"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="89"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3367,7 +3552,7 @@
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
       <c r="K20" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L20" s="44">
@@ -3382,21 +3567,23 @@
       <c r="Q20" s="45"/>
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
-    </row>
-    <row r="21" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="82"/>
-      <c r="B21" s="93" t="s">
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+    </row>
+    <row r="21" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="124"/>
+      <c r="B21" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="85" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="158"/>
       <c r="H21" s="46" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3408,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L21" s="47">
@@ -3423,15 +3610,17 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
       <c r="S21" s="43"/>
-    </row>
-    <row r="22" spans="1:19" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="88"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+    </row>
+    <row r="22" spans="1:21" s="42" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="169"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="171"/>
       <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3439,7 +3628,7 @@
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
       <c r="K22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L22" s="44">
@@ -3454,123 +3643,141 @@
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
-    </row>
-    <row r="23" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="129" t="s">
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+    </row>
+    <row r="23" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14">
-        <f t="shared" ref="K23:S23" si="1">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <f t="shared" ref="K23:U23" si="3">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>13.75</v>
       </c>
       <c r="L23" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
       <c r="N23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
       <c r="O23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S23" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="134"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f t="shared" ref="K24:S24" si="2">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f t="shared" ref="K24:U24" si="4">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>11.5</v>
       </c>
       <c r="L24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
       <c r="N24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
       <c r="O24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="P24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="115">
         <v>1</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77" t="s">
+      <c r="C25" s="93"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="103"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="60" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3586,15 +3793,17 @@
       <c r="Q25" s="63"/>
       <c r="R25" s="63"/>
       <c r="S25" s="63"/>
-    </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="124"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="104"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+    </row>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="116"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="64" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3610,23 +3819,25 @@
       <c r="Q26" s="67"/>
       <c r="R26" s="67"/>
       <c r="S26" s="67"/>
-    </row>
-    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="123"/>
-      <c r="B27" s="137" t="s">
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+    </row>
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="115"/>
+      <c r="B27" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="75" t="s">
+      <c r="D27" s="87"/>
+      <c r="E27" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="135"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3649,15 +3860,17 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
-    </row>
-    <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="124"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="136"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+    </row>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="116"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="118"/>
       <c r="H28" s="41" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3665,7 +3878,7 @@
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
       <c r="K28" s="54">
-        <f t="shared" ref="K28:K34" si="3">SUM(L28:Q28)</f>
+        <f t="shared" ref="K28:K34" si="5">SUM(L28:Q28)</f>
         <v>1.5</v>
       </c>
       <c r="L28" s="37"/>
@@ -3678,23 +3891,25 @@
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
-    </row>
-    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="80"/>
-      <c r="B29" s="93" t="s">
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="166"/>
+      <c r="B29" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="75" t="s">
+      <c r="D29" s="87"/>
+      <c r="E29" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="105"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3706,7 +3921,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="L29" s="30"/>
@@ -3719,15 +3934,17 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
-    </row>
-    <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="81"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="106"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+    </row>
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="167"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="174"/>
       <c r="H30" s="41" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3735,7 +3952,7 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="L30" s="37"/>
@@ -3748,23 +3965,25 @@
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
-    </row>
-    <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="80"/>
-      <c r="B31" s="93" t="s">
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="166"/>
+      <c r="B31" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="75" t="s">
+      <c r="D31" s="87"/>
+      <c r="E31" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="93"/>
+      <c r="G31" s="84"/>
       <c r="H31" s="46" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3776,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="L31" s="37"/>
@@ -3789,15 +4008,17 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
-    </row>
-    <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="81"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="94"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+    </row>
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="167"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3805,7 +4026,7 @@
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
       <c r="K32" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="L32" s="37"/>
@@ -3818,23 +4039,25 @@
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
-    </row>
-    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
-      <c r="B33" s="85" t="s">
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+    </row>
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="124"/>
+      <c r="B33" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="75" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="87"/>
+      <c r="G33" s="158"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3846,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="L33" s="30"/>
@@ -3859,15 +4082,17 @@
       <c r="Q33" s="28"/>
       <c r="R33" s="28"/>
       <c r="S33" s="28"/>
-    </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="84"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="90"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+    </row>
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="168"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="159"/>
       <c r="H34" s="41" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3875,7 +4100,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
       <c r="K34" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="37"/>
@@ -3886,21 +4111,23 @@
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
-    </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="123">
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+    </row>
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="115">
         <v>2</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77" t="s">
+      <c r="C35" s="93"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="103"/>
+      <c r="G35" s="97"/>
       <c r="H35" s="60" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3916,15 +4143,17 @@
       <c r="Q35" s="63"/>
       <c r="R35" s="63"/>
       <c r="S35" s="63"/>
-    </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="124"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="104"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+    </row>
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="116"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="98"/>
       <c r="H36" s="64" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3940,23 +4169,25 @@
       <c r="Q36" s="67"/>
       <c r="R36" s="67"/>
       <c r="S36" s="67"/>
-    </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="123"/>
-      <c r="B37" s="137" t="s">
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+    </row>
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="115"/>
+      <c r="B37" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="96"/>
-      <c r="E37" s="75" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="109"/>
+      <c r="G37" s="99"/>
       <c r="H37" s="51" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3981,15 +4212,17 @@
       <c r="Q37" s="28"/>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
-    </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="124"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="110"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+    </row>
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="116"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="100"/>
       <c r="H38" s="57" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4010,23 +4243,25 @@
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
-    </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="82"/>
-      <c r="B39" s="93" t="s">
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+    </row>
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="124"/>
+      <c r="B39" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="96"/>
-      <c r="E39" s="107" t="s">
+      <c r="D39" s="87"/>
+      <c r="E39" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="107" t="s">
+      <c r="F39" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="108"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="51" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4050,15 +4285,17 @@
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
-    </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="84"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="108"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+    </row>
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="168"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4078,23 +4315,25 @@
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
-    </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="128"/>
-      <c r="B41" s="125" t="s">
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+    </row>
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="111"/>
+      <c r="B41" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="107" t="s">
+      <c r="D41" s="87"/>
+      <c r="E41" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="107" t="s">
+      <c r="F41" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="74"/>
+      <c r="G41" s="177"/>
       <c r="H41" s="46" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4118,15 +4357,17 @@
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
       <c r="S41" s="29"/>
-    </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="74"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+    </row>
+    <row r="42" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="111"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="177"/>
       <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4147,86 +4388,96 @@
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
-    </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="129" t="s">
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+    </row>
+    <row r="43" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="161"/>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="14">
-        <f t="shared" ref="K43:S43" si="4">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <f t="shared" ref="K43:U43" si="6">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>13.75</v>
       </c>
       <c r="L43" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="N43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="O43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S43" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="134"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="104"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="153"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="15">
-        <f t="shared" ref="K44:S44" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f t="shared" ref="K44:U44" si="7">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>11.5</v>
       </c>
       <c r="L44" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M44" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
       <c r="N44" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
       <c r="O44" s="27">
@@ -4236,31 +4487,36 @@
         <v>13.5</v>
       </c>
       <c r="Q44" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R44" s="27"/>
       <c r="S44" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="82">
         <v>1</v>
       </c>
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="77" t="s">
+      <c r="C45" s="93"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="103"/>
+      <c r="G45" s="97"/>
       <c r="H45" s="60" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4276,15 +4532,17 @@
       <c r="Q45" s="63"/>
       <c r="R45" s="63"/>
       <c r="S45" s="63"/>
-    </row>
-    <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="100"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="104"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+    </row>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="83"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="64" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4300,23 +4558,25 @@
       <c r="Q46" s="67"/>
       <c r="R46" s="67"/>
       <c r="S46" s="67"/>
-    </row>
-    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="99"/>
-      <c r="B47" s="93" t="s">
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+    </row>
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="82"/>
+      <c r="B47" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="95" t="s">
+      <c r="C47" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="75" t="s">
+      <c r="D47" s="87"/>
+      <c r="E47" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="109"/>
+      <c r="G47" s="99"/>
       <c r="H47" s="51" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4341,15 +4601,17 @@
       <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
       <c r="S47" s="43"/>
-    </row>
-    <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="100"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="110"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+    </row>
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="83"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="57" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4372,23 +4634,25 @@
       <c r="Q48" s="45"/>
       <c r="R48" s="45"/>
       <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="80"/>
-      <c r="B49" s="93" t="s">
+      <c r="A49" s="166"/>
+      <c r="B49" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="75" t="s">
+      <c r="D49" s="87"/>
+      <c r="E49" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="77" t="s">
+      <c r="F49" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="91"/>
+      <c r="G49" s="172"/>
       <c r="H49" s="51" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4413,15 +4677,17 @@
       <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
       <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="81"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="92"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="173"/>
       <c r="H50" s="57" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4444,23 +4710,25 @@
       <c r="Q50" s="45"/>
       <c r="R50" s="45"/>
       <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="99">
+      <c r="A51" s="82">
         <v>2</v>
       </c>
-      <c r="B51" s="95" t="s">
+      <c r="B51" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="77" t="s">
+      <c r="C51" s="93"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="77" t="s">
+      <c r="F51" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="103"/>
+      <c r="G51" s="97"/>
       <c r="H51" s="60" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4476,15 +4744,17 @@
       <c r="Q51" s="63"/>
       <c r="R51" s="63"/>
       <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="100"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="104"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="98"/>
       <c r="H52" s="64" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4500,23 +4770,25 @@
       <c r="Q52" s="67"/>
       <c r="R52" s="67"/>
       <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="99"/>
-      <c r="B53" s="93" t="s">
+      <c r="A53" s="82"/>
+      <c r="B53" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="75" t="s">
+      <c r="D53" s="87"/>
+      <c r="E53" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="77" t="s">
+      <c r="F53" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="105"/>
+      <c r="G53" s="92"/>
       <c r="H53" s="46" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4541,15 +4813,17 @@
       <c r="Q53" s="43"/>
       <c r="R53" s="43"/>
       <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="100"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="94"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4572,23 +4846,25 @@
       <c r="Q54" s="45"/>
       <c r="R54" s="45"/>
       <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="99"/>
-      <c r="B55" s="121" t="s">
+      <c r="A55" s="82"/>
+      <c r="B55" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="96"/>
-      <c r="E55" s="75" t="s">
+      <c r="D55" s="87"/>
+      <c r="E55" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="77" t="s">
+      <c r="F55" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="74"/>
+      <c r="G55" s="177"/>
       <c r="H55" s="51" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4610,15 +4886,17 @@
       <c r="Q55" s="45"/>
       <c r="R55" s="45"/>
       <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="100"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="74"/>
+      <c r="A56" s="83"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="177"/>
       <c r="H56" s="57" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4636,23 +4914,25 @@
       <c r="Q56" s="45"/>
       <c r="R56" s="45"/>
       <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="99"/>
-      <c r="B57" s="121" t="s">
+      <c r="A57" s="82"/>
+      <c r="B57" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="95" t="s">
+      <c r="C57" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="96"/>
-      <c r="E57" s="75" t="s">
+      <c r="D57" s="87"/>
+      <c r="E57" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="77" t="s">
+      <c r="F57" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G57" s="74"/>
+      <c r="G57" s="177"/>
       <c r="H57" s="51" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4675,19 +4955,19 @@
       <c r="Q57" s="45"/>
       <c r="R57" s="45"/>
       <c r="S57" s="45"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="42"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
       <c r="V57" s="42"/>
       <c r="W57" s="42"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="100"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="74"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="177"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4708,123 +4988,135 @@
       <c r="Q58" s="45"/>
       <c r="R58" s="45"/>
       <c r="S58" s="45"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
       <c r="V58" s="42"/>
       <c r="W58" s="42"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="119"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="109"/>
       <c r="H59" s="20" t="s">
         <v>17</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="21">
-        <f t="shared" ref="K59:S59" si="6">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
+        <f t="shared" ref="K59:U59" si="8">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
         <v>15</v>
       </c>
       <c r="L59" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M59" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N59" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O59" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="P59" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q59" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R59" s="32">
         <v>3</v>
       </c>
       <c r="S59" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="32">
+        <v>3</v>
+      </c>
+      <c r="U59" s="32">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="120"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="110"/>
       <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="15">
-        <f t="shared" ref="K60:S60" si="7">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
+        <f t="shared" ref="K60:T60" si="9">SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
         <v>15</v>
       </c>
       <c r="L60" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M60" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N60" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O60" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P60" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q60" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="R60" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="S60" s="33"/>
+      <c r="T60" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="123">
+      <c r="A61" s="115">
         <v>1</v>
       </c>
-      <c r="B61" s="95" t="s">
+      <c r="B61" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="77" t="s">
+      <c r="C61" s="93"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="77"/>
-      <c r="G61" s="103"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="97"/>
       <c r="H61" s="60" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4840,15 +5132,17 @@
       <c r="Q61" s="63"/>
       <c r="R61" s="63"/>
       <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="124"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="104"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="98"/>
       <c r="H62" s="64" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4864,23 +5158,25 @@
       <c r="Q62" s="67"/>
       <c r="R62" s="67"/>
       <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="123"/>
-      <c r="B63" s="137" t="s">
+      <c r="A63" s="115"/>
+      <c r="B63" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="95" t="s">
+      <c r="C63" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="96"/>
-      <c r="E63" s="75" t="s">
+      <c r="D63" s="87"/>
+      <c r="E63" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="75" t="s">
+      <c r="F63" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="109"/>
+      <c r="G63" s="99"/>
       <c r="H63" s="51" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4892,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="K63" s="53">
-        <f t="shared" ref="K63:K68" si="8">SUM(L63:Q63)</f>
+        <f t="shared" ref="K63:K68" si="10">SUM(L63:Q63)</f>
         <v>3</v>
       </c>
       <c r="L63" s="30"/>
@@ -4907,15 +5203,19 @@
         <v>1</v>
       </c>
       <c r="S63" s="28"/>
+      <c r="T63" s="28">
+        <v>1</v>
+      </c>
+      <c r="U63" s="28"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="124"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="110"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="100"/>
       <c r="H64" s="57" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4923,7 +5223,7 @@
       <c r="I64" s="57"/>
       <c r="J64" s="57"/>
       <c r="K64" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L64" s="37"/>
@@ -4934,25 +5234,29 @@
       <c r="Q64" s="29">
         <v>5</v>
       </c>
-      <c r="R64" s="29"/>
+      <c r="R64" s="29">
+        <v>1.5</v>
+      </c>
       <c r="S64" s="29"/>
-    </row>
-    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="123"/>
-      <c r="B65" s="137" t="s">
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+    </row>
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="115"/>
+      <c r="B65" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="95" t="s">
+      <c r="C65" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="96"/>
-      <c r="E65" s="75" t="s">
+      <c r="D65" s="87"/>
+      <c r="E65" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="75" t="s">
+      <c r="F65" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="109"/>
+      <c r="G65" s="99"/>
       <c r="H65" s="51" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4964,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L65" s="30"/>
@@ -4979,15 +5283,19 @@
         <v>2</v>
       </c>
       <c r="S65" s="28"/>
-    </row>
-    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="124"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="110"/>
+      <c r="T65" s="28">
+        <v>2</v>
+      </c>
+      <c r="U65" s="28"/>
+    </row>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="116"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="100"/>
       <c r="H66" s="57" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4995,7 +5303,7 @@
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
       <c r="K66" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L66" s="37"/>
@@ -5006,21 +5314,25 @@
       <c r="Q66" s="29">
         <v>10</v>
       </c>
-      <c r="R66" s="29"/>
+      <c r="R66" s="29">
+        <v>6</v>
+      </c>
       <c r="S66" s="29"/>
-    </row>
-    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="123"/>
-      <c r="B67" s="137" t="s">
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+    </row>
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="115"/>
+      <c r="B67" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="95" t="s">
+      <c r="C67" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="96"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="109"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="99"/>
       <c r="H67" s="51" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -5032,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="L67" s="30"/>
@@ -5045,15 +5357,17 @@
       <c r="Q67" s="28"/>
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
-    </row>
-    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="124"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="110"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+    </row>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="116"/>
+      <c r="B68" s="118"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="100"/>
       <c r="H68" s="57" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -5061,7 +5375,7 @@
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L68" s="37"/>
@@ -5072,19 +5386,21 @@
       <c r="Q68" s="29"/>
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
-    </row>
-    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="123">
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+    </row>
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="115">
         <v>2</v>
       </c>
-      <c r="B69" s="95" t="s">
+      <c r="B69" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="103"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="97"/>
       <c r="H69" s="60" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -5100,15 +5416,17 @@
       <c r="Q69" s="63"/>
       <c r="R69" s="63"/>
       <c r="S69" s="63"/>
-    </row>
-    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="124"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="98"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="104"/>
+      <c r="T69" s="63"/>
+      <c r="U69" s="63"/>
+    </row>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="116"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="98"/>
       <c r="H70" s="64" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5124,19 +5442,21 @@
       <c r="Q70" s="67"/>
       <c r="R70" s="67"/>
       <c r="S70" s="67"/>
-    </row>
-    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="123"/>
-      <c r="B71" s="137" t="s">
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+    </row>
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="115"/>
+      <c r="B71" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="95" t="s">
+      <c r="C71" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="96"/>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="135"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="127"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5163,15 +5483,19 @@
         <v>1</v>
       </c>
       <c r="S71" s="28"/>
-    </row>
-    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="124"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="98"/>
-      <c r="E72" s="175"/>
-      <c r="F72" s="175"/>
-      <c r="G72" s="136"/>
+      <c r="T71" s="28">
+        <v>1</v>
+      </c>
+      <c r="U71" s="28"/>
+    </row>
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="116"/>
+      <c r="B72" s="118"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="118"/>
       <c r="H72" s="41" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5188,21 +5512,25 @@
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
+      <c r="R72" s="29">
+        <v>1</v>
+      </c>
       <c r="S72" s="29"/>
-    </row>
-    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="82"/>
-      <c r="B73" s="93" t="s">
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+    </row>
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="124"/>
+      <c r="B73" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="95" t="s">
+      <c r="C73" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="101"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="79"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="178"/>
       <c r="H73" s="51" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5227,15 +5555,17 @@
       <c r="Q73" s="68"/>
       <c r="R73" s="28"/>
       <c r="S73" s="68"/>
-    </row>
-    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="178"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="126"/>
-      <c r="D74" s="176"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="79"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="68"/>
+    </row>
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="125"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="121"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="178"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -5249,21 +5579,27 @@
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-    </row>
-    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="172"/>
-      <c r="B75" s="128" t="s">
+      <c r="R74" s="29">
+        <v>6</v>
+      </c>
+      <c r="S74" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+    </row>
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="113"/>
+      <c r="B75" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="128" t="s">
+      <c r="C75" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="171"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="79"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="178"/>
       <c r="H75" s="46" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5286,15 +5622,17 @@
       <c r="Q75" s="29"/>
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
-    </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="173"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="79"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+    </row>
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="114"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="178"/>
       <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -5311,19 +5649,23 @@
       <c r="O76" s="50"/>
       <c r="P76" s="50"/>
       <c r="Q76" s="50"/>
-      <c r="R76" s="50"/>
+      <c r="R76" s="29">
+        <v>0.5</v>
+      </c>
       <c r="S76" s="50"/>
-    </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="111" t="s">
+      <c r="T76" s="50"/>
+      <c r="U76" s="50"/>
+    </row>
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="119"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="109"/>
       <c r="H77" s="20" t="s">
         <v>17</v>
       </c>
@@ -5334,45 +5676,52 @@
         <v>0</v>
       </c>
       <c r="L77" s="31">
-        <f t="shared" ref="L77:S77" si="9">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:U77" si="11">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N77" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O77" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P77" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.5</v>
       </c>
       <c r="Q77" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="R77" s="32">
         <v>12</v>
       </c>
       <c r="S77" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="120"/>
+      <c r="T77" s="32">
+        <v>12</v>
+      </c>
+      <c r="U77" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="104"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="110"/>
       <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
@@ -5383,50 +5732,58 @@
         <v>0</v>
       </c>
       <c r="L78" s="35">
-        <f t="shared" ref="L78:S78" si="10">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:U78" si="12">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N78" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O78" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P78" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q78" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R78" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S78" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="123">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="T78" s="34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="95" t="s">
+      <c r="B79" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="101"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="103"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="97"/>
       <c r="H79" s="60" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5442,15 +5799,17 @@
       <c r="Q79" s="63"/>
       <c r="R79" s="63"/>
       <c r="S79" s="63"/>
-    </row>
-    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="124"/>
-      <c r="B80" s="97"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="98"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="104"/>
+      <c r="T79" s="63"/>
+      <c r="U79" s="63"/>
+    </row>
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="116"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="98"/>
       <c r="H80" s="64" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5466,19 +5825,21 @@
       <c r="Q80" s="67"/>
       <c r="R80" s="67"/>
       <c r="S80" s="67"/>
-    </row>
-    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="123"/>
-      <c r="B81" s="137" t="s">
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+    </row>
+    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="115"/>
+      <c r="B81" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="95" t="s">
+      <c r="C81" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="96"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="135"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="127"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5507,15 +5868,17 @@
       <c r="S81" s="28">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="124"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="98"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="136"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+    </row>
+    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="116"/>
+      <c r="B82" s="118"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="118"/>
       <c r="H82" s="41" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5533,20 +5896,24 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-    </row>
-    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="123"/>
-      <c r="B83" s="137" t="s">
+      <c r="S82" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+    </row>
+    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="115"/>
+      <c r="B83" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="95" t="s">
+      <c r="C83" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="96"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="135"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5577,15 +5944,18 @@
       <c r="S83" s="28">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="124"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="98"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="136"/>
+      <c r="T83" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="116"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="118"/>
       <c r="H84" s="41" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5603,18 +5973,22 @@
       <c r="P84" s="29"/>
       <c r="Q84" s="29"/>
       <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-    </row>
-    <row r="85" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="111" t="s">
+      <c r="S84" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+    </row>
+    <row r="85" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="112"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="119"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="109"/>
       <c r="H85" s="20" t="s">
         <v>17</v>
       </c>
@@ -5656,15 +6030,23 @@
         <f t="array" ref="S85">SUMPRODUCT((MOD(ROW(S$87:S$98),2)=1)*S$87:S$98)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="114"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="120"/>
+      <c r="T85" s="32" cm="1">
+        <f t="array" ref="T85">SUMPRODUCT((MOD(ROW(T$87:T$98),2)=1)*T$87:T$98)</f>
+        <v>7</v>
+      </c>
+      <c r="U85" s="32" cm="1">
+        <f t="array" ref="U85">SUMPRODUCT((MOD(ROW(U$87:U$98),2)=1)*U$87:U$98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="104"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="110"/>
       <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
@@ -5704,21 +6086,29 @@
       </c>
       <c r="S86" s="34" cm="1">
         <f t="array" ref="S86">SUMPRODUCT((MOD(ROW(S$87:S$98),2)=0)*S$87:S$98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="99">
+        <v>2.5</v>
+      </c>
+      <c r="T86" s="34" cm="1">
+        <f t="array" ref="T86">SUMPRODUCT((MOD(ROW(T$87:T$98),2)=0)*T$87:T$98)</f>
+        <v>0</v>
+      </c>
+      <c r="U86" s="34" cm="1">
+        <f t="array" ref="U86">SUMPRODUCT((MOD(ROW(U$87:U$98),2)=0)*U$87:U$98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="82">
         <v>1</v>
       </c>
-      <c r="B87" s="95" t="s">
+      <c r="B87" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="101"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="103"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="97"/>
       <c r="H87" s="60" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5734,15 +6124,17 @@
       <c r="Q87" s="63"/>
       <c r="R87" s="63"/>
       <c r="S87" s="63"/>
-    </row>
-    <row r="88" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="100"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="98"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="104"/>
+      <c r="T87" s="63"/>
+      <c r="U87" s="63"/>
+    </row>
+    <row r="88" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="83"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="96"/>
+      <c r="G88" s="98"/>
       <c r="H88" s="64" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5758,19 +6150,21 @@
       <c r="Q88" s="67"/>
       <c r="R88" s="67"/>
       <c r="S88" s="67"/>
-    </row>
-    <row r="89" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="99"/>
-      <c r="B89" s="93" t="s">
+      <c r="T88" s="67"/>
+      <c r="U88" s="67"/>
+    </row>
+    <row r="89" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="82"/>
+      <c r="B89" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="95" t="s">
+      <c r="C89" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="96"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="105"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="92"/>
       <c r="H89" s="46" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5797,15 +6191,18 @@
       <c r="S89" s="43">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="100"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="97"/>
-      <c r="D90" s="98"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="94"/>
+      <c r="T89" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="83"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="85"/>
       <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5823,20 +6220,24 @@
       <c r="P90" s="45"/>
       <c r="Q90" s="45"/>
       <c r="R90" s="45"/>
-      <c r="S90" s="45"/>
-    </row>
-    <row r="91" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="99"/>
-      <c r="B91" s="93" t="s">
+      <c r="S90" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="T90" s="45"/>
+      <c r="U90" s="45"/>
+    </row>
+    <row r="91" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="82"/>
+      <c r="B91" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="95" t="s">
+      <c r="C91" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="96"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="105"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="92"/>
       <c r="H91" s="46" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5863,15 +6264,18 @@
       <c r="S91" s="43">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="100"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="98"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="94"/>
+      <c r="T91" s="43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="83"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="85"/>
       <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5890,19 +6294,21 @@
       <c r="Q92" s="45"/>
       <c r="R92" s="45"/>
       <c r="S92" s="45"/>
-    </row>
-    <row r="93" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="99">
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+    </row>
+    <row r="93" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="82">
         <v>2</v>
       </c>
-      <c r="B93" s="95" t="s">
+      <c r="B93" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="101"/>
-      <c r="D93" s="96"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="103"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="97"/>
       <c r="H93" s="60" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5918,15 +6324,17 @@
       <c r="Q93" s="63"/>
       <c r="R93" s="63"/>
       <c r="S93" s="63"/>
-    </row>
-    <row r="94" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="100"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="102"/>
-      <c r="D94" s="98"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="104"/>
+      <c r="T93" s="63"/>
+      <c r="U93" s="63"/>
+    </row>
+    <row r="94" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="83"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="98"/>
       <c r="H94" s="64" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5942,19 +6350,21 @@
       <c r="Q94" s="67"/>
       <c r="R94" s="67"/>
       <c r="S94" s="67"/>
-    </row>
-    <row r="95" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="99"/>
-      <c r="B95" s="93" t="s">
+      <c r="T94" s="67"/>
+      <c r="U94" s="67"/>
+    </row>
+    <row r="95" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="82"/>
+      <c r="B95" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="95" t="s">
+      <c r="C95" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="96"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="109"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="99"/>
       <c r="H95" s="51" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5981,15 +6391,18 @@
       <c r="S95" s="43">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="100"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="98"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="110"/>
+      <c r="T95" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="83"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="100"/>
       <c r="H96" s="57" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6008,19 +6421,21 @@
       <c r="Q96" s="45"/>
       <c r="R96" s="45"/>
       <c r="S96" s="45"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="99"/>
-      <c r="B97" s="93" t="s">
+      <c r="A97" s="82"/>
+      <c r="B97" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="95" t="s">
+      <c r="C97" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="96"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="105"/>
+      <c r="D97" s="87"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="90"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="46" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -6047,15 +6462,18 @@
       <c r="S97" s="43">
         <v>0.5</v>
       </c>
+      <c r="T97" s="43">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="100"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="98"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="89"/>
-      <c r="G98" s="94"/>
+      <c r="A98" s="83"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="85"/>
       <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -6074,17 +6492,19 @@
       <c r="Q98" s="45"/>
       <c r="R98" s="45"/>
       <c r="S98" s="45"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="111" t="s">
+      <c r="A99" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="119"/>
+      <c r="B99" s="102"/>
+      <c r="C99" s="102"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="107"/>
+      <c r="F99" s="107"/>
+      <c r="G99" s="109"/>
       <c r="H99" s="20" t="s">
         <v>17</v>
       </c>
@@ -6126,19 +6546,25 @@
         <f t="array" ref="S99">SUMPRODUCT((MOD(ROW(S$101:S$110),2)=1)*S$101:S$110)</f>
         <v>4</v>
       </c>
-      <c r="T99" s="42"/>
-      <c r="U99" s="42"/>
+      <c r="T99" s="32" cm="1">
+        <f t="array" ref="T99">SUMPRODUCT((MOD(ROW(T$101:T$110),2)=1)*T$101:T$110)</f>
+        <v>4</v>
+      </c>
+      <c r="U99" s="32" cm="1">
+        <f t="array" ref="U99">SUMPRODUCT((MOD(ROW(U$101:U$110),2)=1)*U$101:U$110)</f>
+        <v>0</v>
+      </c>
       <c r="V99" s="42"/>
       <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="114"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="120"/>
+      <c r="A100" s="104"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="110"/>
       <c r="H100" s="7" t="s">
         <v>18</v>
       </c>
@@ -6180,23 +6606,29 @@
         <f t="array" ref="S100">SUMPRODUCT((MOD(ROW(S$101:S$110),2)=0)*S$101:S$110)</f>
         <v>0</v>
       </c>
-      <c r="T100" s="42"/>
-      <c r="U100" s="42"/>
+      <c r="T100" s="34" cm="1">
+        <f t="array" ref="T100">SUMPRODUCT((MOD(ROW(T$101:T$110),2)=0)*T$101:T$110)</f>
+        <v>0</v>
+      </c>
+      <c r="U100" s="34" cm="1">
+        <f t="array" ref="U100">SUMPRODUCT((MOD(ROW(U$101:U$110),2)=0)*U$101:U$110)</f>
+        <v>0</v>
+      </c>
       <c r="V100" s="42"/>
       <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="99">
+      <c r="A101" s="82">
         <v>1</v>
       </c>
-      <c r="B101" s="95" t="s">
+      <c r="B101" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="101"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="103"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="97"/>
       <c r="H101" s="60" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6212,19 +6644,19 @@
       <c r="Q101" s="63"/>
       <c r="R101" s="63"/>
       <c r="S101" s="63"/>
-      <c r="T101" s="42"/>
-      <c r="U101" s="42"/>
+      <c r="T101" s="63"/>
+      <c r="U101" s="63"/>
       <c r="V101" s="42"/>
       <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="100"/>
-      <c r="B102" s="97"/>
-      <c r="C102" s="102"/>
-      <c r="D102" s="98"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="104"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="98"/>
       <c r="H102" s="64" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6240,23 +6672,23 @@
       <c r="Q102" s="67"/>
       <c r="R102" s="67"/>
       <c r="S102" s="67"/>
-      <c r="T102" s="42"/>
-      <c r="U102" s="42"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
       <c r="V102" s="42"/>
       <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="99"/>
-      <c r="B103" s="93" t="s">
+      <c r="A103" s="82"/>
+      <c r="B103" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="95" t="s">
+      <c r="C103" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="96"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="109"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="99"/>
       <c r="H103" s="51" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6283,19 +6715,20 @@
       <c r="S103" s="43">
         <v>1</v>
       </c>
-      <c r="T103" s="42"/>
-      <c r="U103" s="42"/>
+      <c r="T103" s="43">
+        <v>1</v>
+      </c>
       <c r="V103" s="42"/>
       <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="100"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="97"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="110"/>
+      <c r="A104" s="83"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="100"/>
       <c r="H104" s="57" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6314,23 +6747,23 @@
       <c r="Q104" s="45"/>
       <c r="R104" s="45"/>
       <c r="S104" s="45"/>
-      <c r="T104" s="42"/>
-      <c r="U104" s="42"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="45"/>
       <c r="V104" s="42"/>
       <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="99">
+      <c r="A105" s="82">
         <v>2</v>
       </c>
-      <c r="B105" s="95" t="s">
+      <c r="B105" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="101"/>
-      <c r="D105" s="96"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="103"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="97"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -6343,19 +6776,19 @@
       <c r="Q105" s="63"/>
       <c r="R105" s="63"/>
       <c r="S105" s="63"/>
-      <c r="T105" s="42"/>
-      <c r="U105" s="42"/>
+      <c r="T105" s="63"/>
+      <c r="U105" s="63"/>
       <c r="V105" s="42"/>
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="100"/>
-      <c r="B106" s="97"/>
-      <c r="C106" s="102"/>
-      <c r="D106" s="98"/>
-      <c r="E106" s="78"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="104"/>
+      <c r="A106" s="83"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="98"/>
       <c r="H106" s="64" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -6371,23 +6804,23 @@
       <c r="Q106" s="67"/>
       <c r="R106" s="67"/>
       <c r="S106" s="67"/>
-      <c r="T106" s="42"/>
-      <c r="U106" s="42"/>
+      <c r="T106" s="67"/>
+      <c r="U106" s="67"/>
       <c r="V106" s="42"/>
       <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="99"/>
-      <c r="B107" s="93" t="s">
+      <c r="A107" s="82"/>
+      <c r="B107" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="95" t="s">
+      <c r="C107" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="96"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="105"/>
+      <c r="D107" s="87"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="92"/>
       <c r="H107" s="46" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -6414,19 +6847,20 @@
       <c r="S107" s="43">
         <v>2.5</v>
       </c>
-      <c r="T107" s="42"/>
-      <c r="U107" s="42"/>
+      <c r="T107" s="43">
+        <v>2.5</v>
+      </c>
       <c r="V107" s="42"/>
       <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="100"/>
-      <c r="B108" s="94"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="98"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="89"/>
-      <c r="G108" s="94"/>
+      <c r="A108" s="83"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
+      <c r="G108" s="85"/>
       <c r="H108" s="48" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -6445,23 +6879,23 @@
       <c r="Q108" s="45"/>
       <c r="R108" s="45"/>
       <c r="S108" s="45"/>
-      <c r="T108" s="42"/>
-      <c r="U108" s="42"/>
+      <c r="T108" s="45"/>
+      <c r="U108" s="45"/>
       <c r="V108" s="42"/>
       <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="99"/>
-      <c r="B109" s="93" t="s">
+      <c r="A109" s="82"/>
+      <c r="B109" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="95" t="s">
+      <c r="C109" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="96"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="105"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="92"/>
       <c r="H109" s="46" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6488,19 +6922,20 @@
       <c r="S109" s="43">
         <v>0.5</v>
       </c>
-      <c r="T109" s="42"/>
-      <c r="U109" s="42"/>
+      <c r="T109" s="43">
+        <v>0.5</v>
+      </c>
       <c r="V109" s="42"/>
       <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="100"/>
-      <c r="B110" s="94"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="98"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
-      <c r="G110" s="94"/>
+      <c r="A110" s="83"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="88"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="85"/>
       <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6519,8 +6954,8 @@
       <c r="Q110" s="45"/>
       <c r="R110" s="45"/>
       <c r="S110" s="45"/>
-      <c r="T110" s="42"/>
-      <c r="U110" s="42"/>
+      <c r="T110" s="45"/>
+      <c r="U110" s="45"/>
       <c r="V110" s="42"/>
       <c r="W110" s="42"/>
     </row>
@@ -6530,7 +6965,293 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="307">
+  <mergeCells count="310">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R3:S3"/>
@@ -6555,433 +7276,206 @@
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28">
-    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="L79:Q84 L61:Q76 L15:Q22 L51:Q56 L101:Q110 L25:Q26 L28 M27:Q27 L33:Q40 L42:Q42 N41:Q41 L41 N28:Q28 T79:U82 T84:U84 T83 T87:U88 T89 T90:U90 T91 T92:U94 T95 T96:U96 T98:U98 T97 T101:U102 T103 T104:U106 T107 T108:U108 T110:U110 T109">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L15), L15&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:Q32">
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="52" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L29), L29&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:Q98">
-    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="50" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L87), L87&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:Q12">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:Q14">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="46" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L13), L13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:Q47 L48:N48 P48:Q48">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:Q50">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L49), L49&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:Q58">
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="39" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L57), L57&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="40" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L57), L57&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(M28), M28&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M28), M28&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(O48), O48&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O48), O48&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R79:S84 R61:S76 R15:S22 R51:S56 R101:S110 R33:S42 R25:S28">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R15), R15&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R15), R15&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:S32">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R29), R29&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R29), R29&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R87:S98">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R87), R87&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R87), R87&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:S12">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R9), R9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R9), R9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:S14">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R13), R13&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R13), R13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45:S48">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R45), R45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R45), R45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R49:S50">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R49), R49&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R49), R49&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57:S58">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R57), R57&gt;0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R57), R57&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61:U76 T15:U22 T51:U56 T33:U42 T25:U28">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T15), T15&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T15), T15&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29:U32">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T29), T29&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T29), T29&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:U12">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:U14">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T13), T13&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T13), T13&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T45:U48">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T49:U50">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T49), T49&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T49), T49&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57:U58">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T57), T57&gt;0)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R57), R57&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T57), T57&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -7191,18 +7685,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7224,6 +7718,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7237,12 +7739,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>